--- a/5.GestionDotaciones/DAPRE/ConsolidadoDotacionDAPRE_2019.xlsx
+++ b/5.GestionDotaciones/DAPRE/ConsolidadoDotacionDAPRE_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\DAPRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A4566-F7B2-436B-B943-970CC0C7B23E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF31EF-FB8E-4B8E-A924-7B31938C9B7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInfraDAPRE" sheetId="10" r:id="rId1"/>
@@ -29,11 +29,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Lista N°4'!$A$1:$N$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Lista Nº1'!$A$2:$U$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Lista Nº2'!$A$1:$Q$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteInfraDAPRE!$A$1:$S$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteInfraDAPRE!$A$1:$N$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resumen!$C$1:$L$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Lista Nº1'!$A$1:$U$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Lista Nº2'!$A$1:$P$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ReporteInfraDAPRE!$A$1:$R$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ReporteInfraDAPRE!$A$1:$M$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Lista Nº1'!$A:$C,'Lista Nº1'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Lista Nº2'!$A:$C,'Lista Nº2'!$1:$1</definedName>
   </definedNames>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="739">
   <si>
     <t>APARTADÓ</t>
   </si>
@@ -1873,85 +1873,6 @@
     <t>Total cajas a la 8 entrega -martes 27 febrero</t>
   </si>
   <si>
-    <t>19 feb  mas 40 días hacen la visita</t>
-  </si>
-  <si>
-    <t>Terminación de obra en Abril de 2018</t>
-  </si>
-  <si>
-    <t>Certif. Retie el 2 de marzo probable inauguración un mes despues 2 de Abril</t>
-  </si>
-  <si>
-    <t>Probable terminación 21 de junio de 2018</t>
-  </si>
-  <si>
-    <t>Probable terminación 29 abril de 2018</t>
-  </si>
-  <si>
-    <t>Problemas con el contratista en etapa 1 diseños- inicio de obra 19 de feb</t>
-  </si>
-  <si>
-    <t>Probable terminación en julio 2018</t>
-  </si>
-  <si>
-    <t>Problemas con el contratista en etapa 1 diseños- licencia de construcción 9 de febrero e inicio de obra 19 al 23 de feb</t>
-  </si>
-  <si>
-    <t>El 23 de febrero se pide Cert. Retie un mes despues de eso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etapa 1 de diseños terminó en dic de 2017. Probable terminacipon julio de 2018
-</t>
-  </si>
-  <si>
-    <t>Certif. Retie el 22 de febrero probable inauguracipon un mes despues 22 de marzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio de obra 19 feb 2018
-</t>
-  </si>
-  <si>
-    <t>Inicio de obra 19 feb 2018</t>
-  </si>
-  <si>
-    <t>DAPRE visita final 15 de marzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probable terminación 29 de abril
-</t>
-  </si>
-  <si>
-    <t>Terminó etapa 1 diseños dic 17
-licencia de construcción el 10 enero</t>
-  </si>
-  <si>
-    <t>Se le dio lic. De construcción el 30 de enero 2018</t>
-  </si>
-  <si>
-    <t>Tal vez se cambie el lote por problemas  geologicos</t>
-  </si>
-  <si>
-    <t>Licencia de construcción 8 de febrero</t>
-  </si>
-  <si>
-    <t>Etapa 1 de diseños terminó en nov de 2017</t>
-  </si>
-  <si>
-    <t>Probable terminación 25 de abril</t>
-  </si>
-  <si>
-    <t>Valle del Cauca-Buenaventura-La Barra</t>
-  </si>
-  <si>
-    <t>Fecha Entrega Infraestructura- Comité FINDETER del 15 de febrero</t>
-  </si>
-  <si>
-    <t>Probablemente en abril</t>
-  </si>
-  <si>
-    <t>Obra suspendida por amenazas de BACRIM</t>
-  </si>
-  <si>
     <t>KM 6 LETICIA</t>
   </si>
   <si>
@@ -1970,158 +1891,13 @@
     <t>BIBLIO SAN JUAN</t>
   </si>
   <si>
-    <t>Fecha Entrega Infraestructura- Comité FINDETER del 21 de marzo</t>
-  </si>
-  <si>
     <t>Total cajas a la última entrega -9 marzo</t>
   </si>
   <si>
-    <t>Fecha programada de inauguración</t>
-  </si>
-  <si>
     <t>OBSERVACIÓN DOTACIÓN</t>
   </si>
   <si>
     <t>En ejecución</t>
-  </si>
-  <si>
-    <t>10 de abril</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">De acuerdo con el informe enviado por Liliana Prieto Sierra C.Z Leticia, al grupo deInfraestructura el miércoles, 24 de enero de 2018, esta infraestructura se encuentra terminada y según reporte informado mediante comunicación telefónica, por parte del señor Argemiro Perdomo – Secretario de infraestructura de la Alcaldia Municipal, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>la entrega del predio esta proyectada para el 20 de febrero de 2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, luego que hace falta el pozo artesanal; en esta zona en la actualidad, se encuentra operando una unidad de servicio de Desarrollo Familiar con Arriendo de 40 cupos, por lo anterior, el operador refiere que no cuenta con lista de espera ni cobertura para adicionar cupos en esta zona; por lo cual, no se realizó adición de cupos de acuerdo al memorando S2018 – 004592-0101.
-Es de mencionar que el pasado 23 de enero de 2018, se realizó trasladó al kilómetro 6, la Directora Regional, Coordinadora de Asistencia Técnica y Coordinadora de Centro zonal Leticia con la finalidad de verificar el estado real de la infraestructura, encontrando allí un vigilante que no permitió el ingreso y corroboró la información relacionada anteriormente; es decir, que </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">confirma la entrega para mediados de febrero por falta del pozo artesanal y algunos retoques de pintura, el equipo encargado de POresidencia, adelanta </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>La EAS ACITAM operador de la zona, refiere que la concertación que se realizó el año pasado con la comunidad indígena del Km 6, se planteó la construcción de un CDI – Institucional, con cobertura para 100 niños y niñas, y no la modalidad Familiar; por lo cual los habitantes expresan preocupación por la no apertura de esta modalidad.
-Se adelantara concertación con comunidad para aclarar y definir modalidad de atención el 21 y 22 de marzo.</t>
-    </r>
-  </si>
-  <si>
-    <t>11 de abril</t>
-  </si>
-  <si>
-    <t>De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, la biblioteca tiene un avance del 82% con corte al 28 de enero de 2018.   En próximo comité ejecutivo se debe confirmar fecha de entrega al Dapre y Mincultura</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
-    <t>De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 3 de marzo de 2018.  Al corte del 28 de enero de 2018, tenía un avance del 81%.   En próximo comité ejecutivo se debe confirmar fecha de entrega al Dapre</t>
-  </si>
-  <si>
-    <t>27 de abril</t>
-  </si>
-  <si>
-    <t>De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI se encuentra realizando actividades de movimiento de tierras</t>
-  </si>
-  <si>
-    <t>De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI tuvo que iniciar la etapa de obra el 29 de enero</t>
-  </si>
-  <si>
-    <t>Pendiente inicio de obra</t>
-  </si>
-  <si>
-    <t>Pendiente fecha de inicio de obra</t>
-  </si>
-  <si>
-    <t>30 de abril</t>
-  </si>
-  <si>
-    <t>De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, la biblioteca se encuentra terminada desde el 16 de noviembre de 2017.   En próximo comité ejecutivo se debe confirmar fecha de entrega al Dapre y Mincultura</t>
-  </si>
-  <si>
-    <t>5 de mayo</t>
-  </si>
-  <si>
-    <t>De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, la biblioteca se encuentra terminada desde el 31 de diciembre de 2017.   En próximo comité ejecutivo se debe confirmar fecha de entrega al Dapre y Mincultura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 26 de marzo de 2018.  Al corte del 28 de enero de 2018, tenía un avance del 38,10%.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 25 de abril de 2018.  Al corte del 28 de enero de 2018, tenía un avance del 15,93%.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 22 de febrero de 2018.  Al corte del 28 de enero de 2018, tenía un avance del 95,25%.   En próximo comité ejecutivo se debe confirmar fecha de entrega al Dapre </t>
-  </si>
-  <si>
-    <t>14 de abril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 31 de enero de 2018.  Al corte del 21 de enero de 2018, tenía un avance del 91,05%.   En próximo comité ejecutivo se debe confirmar fecha de entrega al Dapre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 29 de marzo de 2018.  Al corte del 28 de enero de 2018, tenía un avance del 23,29%.   </t>
-  </si>
-  <si>
-    <t>Secretaría de Planeación informó que el predio donde se pretende realizar la construcción “se encuentra dentro de la zona de amenaza media, por movimientos en masa, tipo flujo detritos”, por consiguiente no es posible obtener Licencia de Construcción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo con la información presentada por Findeter en el comité técnico con Dapre, el CDI termina el 23 de abril de 2018.  Al corte del 28 de enero de 2018, tenía un avance del 31,50%.   </t>
-  </si>
-  <si>
-    <t>Fecha Entrega Infraestructura- Comité FINDETER</t>
-  </si>
-  <si>
-    <t>25 de abril</t>
-  </si>
-  <si>
-    <t>16 de abril</t>
-  </si>
-  <si>
-    <t>Socialización con la comunidad 8 de marzo</t>
-  </si>
-  <si>
-    <t>24 de abril</t>
   </si>
   <si>
     <t>CAJAS: 103</t>
@@ -2625,69 +2401,6 @@
     <t>Vereda Santa Rosa, corregimiento de Santa Cruz</t>
   </si>
   <si>
-    <t>Fecha Entrega Infraestructura- Comité FINDETER del 11  de abril</t>
-  </si>
-  <si>
-    <t>Visita de Retie aprox. 1 semana de mayo</t>
-  </si>
-  <si>
-    <t>Visita de entrega de obra 17 de abril</t>
-  </si>
-  <si>
-    <t>Visita de entrega de obra 26 de abril</t>
-  </si>
-  <si>
-    <t>Ya tiene cert. Retie. Pendiente la Planta de tratamiento. Entrega con planta 15 mayo</t>
-  </si>
-  <si>
-    <t>Pendiente Retie. Se pospone fecha de entrega</t>
-  </si>
-  <si>
-    <t>Posiblemente 4 de mayo</t>
-  </si>
-  <si>
-    <t>Pendiente planta de tratamiento . Posible entrega 30 de mayo</t>
-  </si>
-  <si>
-    <t>En plan de contingencia</t>
-  </si>
-  <si>
-    <t>En excavaciones</t>
-  </si>
-  <si>
-    <t>Cubierta instalada- Posiblemente 14 mayo</t>
-  </si>
-  <si>
-    <t>11 de mayo</t>
-  </si>
-  <si>
-    <t>Prorroga al contratista. Posiblemente el 25 de junio</t>
-  </si>
-  <si>
-    <t>17% de avance de obra. Posible entrega el 21 de junio de 2018</t>
-  </si>
-  <si>
-    <t>20 de agosto de 2018</t>
-  </si>
-  <si>
-    <t>22 de agosto de 2018</t>
-  </si>
-  <si>
-    <t>julio de 2018</t>
-  </si>
-  <si>
-    <t>23 de agosto de 2018</t>
-  </si>
-  <si>
-    <t>17 de septiembre de 2018</t>
-  </si>
-  <si>
-    <t>5 de septiembre de 2018</t>
-  </si>
-  <si>
-    <t>Predio en proceso de adquisición</t>
-  </si>
-  <si>
     <t>REPRODUCTOR DE AUDIO</t>
   </si>
   <si>
@@ -2697,13 +2410,7 @@
     <t>Caja 14, 15 y 16</t>
   </si>
   <si>
-    <t>Sin información</t>
-  </si>
-  <si>
     <t>APARTADO</t>
-  </si>
-  <si>
-    <t>40% avance en obra con 9% de atraso Probable fecha de entrega 29 de mayo de 2018</t>
   </si>
   <si>
     <t>SAN PEDRO</t>
@@ -3020,9 +2727,6 @@
     <t>CDI 4</t>
   </si>
   <si>
-    <t>Fecha Entrega Infraestructura- Comité FINDETER del 10 dic</t>
-  </si>
-  <si>
     <t>Departamento</t>
   </si>
   <si>
@@ -3113,22 +2817,55 @@
     <t>Terminadas pendientes de recibir</t>
   </si>
   <si>
-    <t>Dotación gestionada por la Consejeríade Primera infancia con aportes de Entes Territoriales</t>
-  </si>
-  <si>
     <t>Dotación gestionada por la Consejería Presidencial de Primera Infancia con aportes de Entes Territoriales.</t>
   </si>
   <si>
     <t xml:space="preserve">Parcial por despachar desde Sede Nacional y complemento de dotación gestionada por la Consejería Presidencial de Primera Infancia con Fondo Abu Dhabi </t>
   </si>
   <si>
-    <t>Parcial por despachar desde Sede Nacional y se asignaron recursos ICBF para comprar la dotación resptate en el marco del contrato de aporte.</t>
-  </si>
-  <si>
     <t>Pendiente gestionar recursos de dotación.</t>
   </si>
   <si>
-    <t>Parcial despachada desde ICBF y pendiente gestionar recursos de dotación para completarla.</t>
+    <t>Dotación Parcial</t>
+  </si>
+  <si>
+    <t>Dotación Completa</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Despachada desde Sede Nacional en 2018</t>
+  </si>
+  <si>
+    <t>Parcial despachada desde Sede Nacional en 2018 y pendiente gestionar recursos de dotación para completarla.</t>
+  </si>
+  <si>
+    <t>Derly se llevó unos elementos de dotación en 2018. No hay Actas ni registro de que se entregó.</t>
+  </si>
+  <si>
+    <t>Parcial despachada desde Sede Nacional en 2018 y demás elementos comparados por la Alcaldía y Fondos del Japón gestionados por Presidencia</t>
+  </si>
+  <si>
+    <t>Parcial despachada desde Sede Nacional en 2018 y demás elementos comprados por Fundación Plan gestionado por Presidencia</t>
+  </si>
+  <si>
+    <t>Dotación gestionada por la Consejería de Primera infancia con aportes de Entes Territoriales</t>
+  </si>
+  <si>
+    <t>Parcial por despachar desde Sede Nacional y complemento de dotación gestionada por la Consejería Presidencial de Primera Infancia con Alcaldía municipal.</t>
+  </si>
+  <si>
+    <t>ESTADO DOTACIÓN</t>
+  </si>
+  <si>
+    <t>Parcial por despachar en febrero desde Sede Nacional y se asignaron recursos ICBF para comprar la dotación restante en el marco del contrato de aporte firmado en enero 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcial por despachar desde Sede Nacional en febrero 2019 y complemento de dotación gestionada por la Consejería Presidencial de Primera Infancia con Fondo Abu Dhabi </t>
+  </si>
+  <si>
+    <t>Parcial en Sede Nacional y pendiente gestionar recursos para completar la dotación.</t>
   </si>
 </sst>
 </file>
@@ -3138,7 +2875,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3298,27 +3035,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -3412,6 +3128,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3579,12 +3302,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3616,6 +3333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3738,7 +3461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4120,14 +3843,8 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4135,31 +3852,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4168,18 +3861,18 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4197,14 +3890,11 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4212,7 +3902,7 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -4288,25 +3978,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4315,39 +4005,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4371,7 +4039,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4383,19 +4051,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4689,11 +4394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,20 +4412,15 @@
     <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" style="80" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="87" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" style="87" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="40.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" style="87" customWidth="1"/>
-    <col min="17" max="17" width="17" style="87" customWidth="1"/>
-    <col min="18" max="18" width="94.140625" style="172" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="87" customWidth="1"/>
+    <col min="11" max="12" width="17" style="87" customWidth="1"/>
+    <col min="13" max="13" width="94.140625" style="161" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101"/>
       <c r="B1" s="101" t="s">
-        <v>790</v>
+        <v>711</v>
       </c>
       <c r="C1" s="101" t="s">
         <v>212</v>
@@ -4737,48 +4437,33 @@
       <c r="G1" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="222" t="s">
-        <v>642</v>
+      <c r="H1" s="203" t="s">
+        <v>587</v>
       </c>
       <c r="I1" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="145" t="s">
-        <v>538</v>
-      </c>
-      <c r="K1" s="146" t="s">
-        <v>512</v>
-      </c>
-      <c r="L1" s="149" t="s">
-        <v>501</v>
-      </c>
-      <c r="M1" s="147" t="s">
-        <v>510</v>
-      </c>
-      <c r="N1" s="168" t="s">
-        <v>644</v>
-      </c>
-      <c r="O1" s="168" t="s">
-        <v>770</v>
-      </c>
-      <c r="P1" s="226" t="s">
-        <v>791</v>
-      </c>
-      <c r="Q1" s="226" t="s">
-        <v>798</v>
-      </c>
-      <c r="R1" s="234" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="207" t="s">
+        <v>712</v>
+      </c>
+      <c r="K1" s="225" t="s">
+        <v>719</v>
+      </c>
+      <c r="L1" s="207" t="s">
+        <v>735</v>
+      </c>
+      <c r="M1" s="226" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103">
         <v>1</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="224" t="s">
+      <c r="C2" s="205" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="97" t="s">
@@ -4793,46 +4478,33 @@
       <c r="G2" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="223" t="s">
+      <c r="H2" s="204" t="s">
         <v>219</v>
       </c>
       <c r="I2" s="103">
         <v>100</v>
       </c>
-      <c r="J2" s="143" t="s">
-        <v>516</v>
-      </c>
-      <c r="K2" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="L2" s="137" t="s">
-        <v>479</v>
-      </c>
-      <c r="M2" s="144" t="s">
-        <v>533</v>
-      </c>
-      <c r="N2" s="137" t="s">
-        <v>648</v>
-      </c>
-      <c r="O2" s="137"/>
-      <c r="P2" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q2" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R2" s="227" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K2" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L2" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M2" s="224" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103">
         <v>2</v>
       </c>
       <c r="B3" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="205" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="98" t="s">
@@ -4847,37 +4519,26 @@
       <c r="G3" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="223" t="s">
+      <c r="H3" s="204" t="s">
         <v>222</v>
       </c>
       <c r="I3" s="103">
         <v>30</v>
       </c>
-      <c r="J3" s="143" t="s">
-        <v>518</v>
-      </c>
-      <c r="K3" s="144" t="s">
-        <v>517</v>
-      </c>
-      <c r="L3" s="137" t="s">
-        <v>480</v>
-      </c>
-      <c r="M3" s="144" t="s">
-        <v>533</v>
-      </c>
-      <c r="N3" s="137" t="s">
-        <v>651</v>
-      </c>
-      <c r="O3" s="137"/>
-      <c r="P3" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q3" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R3" s="227"/>
-    </row>
-    <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K3" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L3" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M3" s="224" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103">
         <v>3</v>
       </c>
@@ -4897,29 +4558,26 @@
       <c r="G4" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="223" t="s">
+      <c r="H4" s="204" t="s">
         <v>222</v>
       </c>
       <c r="I4" s="103">
         <v>50</v>
       </c>
-      <c r="J4" s="143"/>
-      <c r="K4" s="144" t="s">
-        <v>521</v>
-      </c>
-      <c r="L4" s="138"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q4" s="228" t="s">
-        <v>794</v>
-      </c>
-      <c r="R4" s="227"/>
-    </row>
-    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K4" s="209" t="s">
+        <v>715</v>
+      </c>
+      <c r="L4" s="209" t="s">
+        <v>727</v>
+      </c>
+      <c r="M4" s="208" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="103">
         <v>4</v>
       </c>
@@ -4939,37 +4597,26 @@
       <c r="G5" s="102" t="s">
         <v>227</v>
       </c>
-      <c r="H5" s="223" t="s">
+      <c r="H5" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I5" s="103">
         <v>300</v>
       </c>
-      <c r="J5" s="143" t="s">
-        <v>520</v>
-      </c>
-      <c r="K5" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L5" s="137" t="s">
-        <v>481</v>
-      </c>
-      <c r="M5" s="144"/>
-      <c r="N5" s="137" t="s">
-        <v>650</v>
-      </c>
-      <c r="O5" s="137"/>
-      <c r="P5" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q5" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R5" s="227" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K5" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L5" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M5" s="227" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103">
         <v>5</v>
       </c>
@@ -4989,37 +4636,26 @@
       <c r="G6" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="H6" s="223" t="s">
+      <c r="H6" s="204" t="s">
         <v>232</v>
       </c>
       <c r="I6" s="103">
         <v>160</v>
       </c>
-      <c r="J6" s="143" t="s">
-        <v>522</v>
-      </c>
-      <c r="K6" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L6" s="137" t="s">
-        <v>482</v>
-      </c>
-      <c r="M6" s="144"/>
-      <c r="N6" s="137" t="s">
-        <v>657</v>
-      </c>
-      <c r="O6" s="137"/>
-      <c r="P6" s="228" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q6" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R6" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="209" t="s">
+        <v>487</v>
+      </c>
+      <c r="K6" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L6" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M6" s="228" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="103">
         <v>6</v>
       </c>
@@ -5037,24 +4673,26 @@
       <c r="G7" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="223" t="s">
+      <c r="H7" s="204" t="s">
         <v>234</v>
       </c>
       <c r="I7" s="103">
         <v>300</v>
       </c>
-      <c r="J7" s="143"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104" t="s">
-        <v>793</v>
-      </c>
-      <c r="R7" s="227"/>
-    </row>
-    <row r="8" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="104" t="s">
+        <v>727</v>
+      </c>
+      <c r="K7" s="223" t="s">
+        <v>714</v>
+      </c>
+      <c r="L7" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M7" s="208" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103">
         <v>7</v>
       </c>
@@ -5076,35 +4714,26 @@
       <c r="G8" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="H8" s="223" t="s">
+      <c r="H8" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I8" s="103">
         <v>100</v>
       </c>
-      <c r="J8" s="143" t="s">
-        <v>523</v>
-      </c>
-      <c r="K8" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L8" s="137" t="s">
-        <v>483</v>
-      </c>
-      <c r="M8" s="144"/>
-      <c r="N8" s="137" t="s">
-        <v>670</v>
-      </c>
-      <c r="O8" s="137"/>
-      <c r="P8" s="228"/>
-      <c r="Q8" s="228" t="s">
-        <v>794</v>
-      </c>
-      <c r="R8" s="227" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="209" t="s">
+        <v>727</v>
+      </c>
+      <c r="K8" s="209" t="s">
+        <v>715</v>
+      </c>
+      <c r="L8" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M8" s="208" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="103">
         <v>8</v>
       </c>
@@ -5126,37 +4755,26 @@
       <c r="G9" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="223" t="s">
+      <c r="H9" s="204" t="s">
         <v>237</v>
       </c>
       <c r="I9" s="103">
         <v>160</v>
       </c>
-      <c r="J9" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K9" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L9" s="137" t="s">
-        <v>484</v>
-      </c>
-      <c r="M9" s="144"/>
-      <c r="N9" s="137" t="s">
-        <v>661</v>
-      </c>
-      <c r="O9" s="137"/>
-      <c r="P9" s="228" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q9" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R9" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="209" t="s">
+        <v>721</v>
+      </c>
+      <c r="K9" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L9" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M9" s="228" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="103">
         <v>9</v>
       </c>
@@ -5176,37 +4794,26 @@
       <c r="G10" s="102" t="s">
         <v>243</v>
       </c>
-      <c r="H10" s="223" t="s">
+      <c r="H10" s="204" t="s">
         <v>237</v>
       </c>
       <c r="I10" s="103">
         <v>160</v>
       </c>
-      <c r="J10" s="143" t="s">
-        <v>525</v>
-      </c>
-      <c r="K10" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L10" s="137" t="s">
-        <v>485</v>
-      </c>
-      <c r="M10" s="144"/>
-      <c r="N10" s="137" t="s">
-        <v>653</v>
-      </c>
-      <c r="O10" s="137"/>
-      <c r="P10" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q10" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R10" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K10" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L10" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M10" s="228" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="103">
         <v>10</v>
       </c>
@@ -5228,37 +4835,26 @@
       <c r="G11" s="102" t="s">
         <v>241</v>
       </c>
-      <c r="H11" s="223" t="s">
+      <c r="H11" s="204" t="s">
         <v>237</v>
       </c>
       <c r="I11" s="103">
         <v>100</v>
       </c>
-      <c r="J11" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K11" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L11" s="137" t="s">
-        <v>486</v>
-      </c>
-      <c r="M11" s="144"/>
-      <c r="N11" s="137" t="s">
-        <v>663</v>
-      </c>
-      <c r="O11" s="137"/>
-      <c r="P11" s="228" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q11" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R11" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="209" t="s">
+        <v>721</v>
+      </c>
+      <c r="K11" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L11" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M11" s="228" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="103">
         <v>11</v>
       </c>
@@ -5272,29 +4868,27 @@
       <c r="E12" s="7"/>
       <c r="F12" s="103"/>
       <c r="G12" s="102"/>
-      <c r="H12" s="223" t="s">
+      <c r="H12" s="204" t="s">
         <v>237</v>
       </c>
       <c r="I12" s="103"/>
-      <c r="J12" s="143"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104" t="s">
-        <v>794</v>
-      </c>
-      <c r="R12" s="227"/>
-    </row>
-    <row r="13" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="104"/>
+      <c r="K12" s="223" t="s">
+        <v>715</v>
+      </c>
+      <c r="L12" s="104" t="s">
+        <v>727</v>
+      </c>
+      <c r="M12" s="208"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="103">
         <v>12</v>
       </c>
       <c r="B13" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="225" t="s">
+      <c r="C13" s="206" t="s">
         <v>303</v>
       </c>
       <c r="D13" s="98" t="s">
@@ -5307,44 +4901,33 @@
       <c r="G13" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="223" t="s">
+      <c r="H13" s="204" t="s">
         <v>222</v>
       </c>
       <c r="I13" s="103">
         <v>50</v>
       </c>
-      <c r="J13" s="143" t="s">
-        <v>527</v>
-      </c>
-      <c r="K13" s="144" t="s">
-        <v>526</v>
-      </c>
-      <c r="L13" s="137" t="s">
-        <v>487</v>
-      </c>
-      <c r="M13" s="148" t="s">
-        <v>540</v>
-      </c>
-      <c r="N13" s="137" t="s">
-        <v>646</v>
-      </c>
-      <c r="O13" s="137"/>
-      <c r="P13" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q13" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R13" s="227"/>
-    </row>
-    <row r="14" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K13" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L13" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M13" s="224" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="103">
         <v>13</v>
       </c>
       <c r="B14" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="205" t="s">
         <v>249</v>
       </c>
       <c r="D14" s="98" t="s">
@@ -5357,37 +4940,26 @@
       <c r="G14" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="H14" s="223" t="s">
+      <c r="H14" s="204" t="s">
         <v>222</v>
       </c>
       <c r="I14" s="103">
         <v>50</v>
       </c>
-      <c r="J14" s="143" t="s">
-        <v>529</v>
-      </c>
-      <c r="K14" s="144" t="s">
-        <v>528</v>
-      </c>
-      <c r="L14" s="137" t="s">
-        <v>487</v>
-      </c>
-      <c r="M14" s="144" t="s">
-        <v>539</v>
-      </c>
-      <c r="N14" s="137" t="s">
-        <v>647</v>
-      </c>
-      <c r="O14" s="137"/>
-      <c r="P14" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q14" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R14" s="227"/>
-    </row>
-    <row r="15" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K14" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L14" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M14" s="224" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="103">
         <v>14</v>
       </c>
@@ -5409,37 +4981,26 @@
       <c r="G15" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="223" t="s">
+      <c r="H15" s="204" t="s">
         <v>252</v>
       </c>
       <c r="I15" s="103">
         <v>160</v>
       </c>
-      <c r="J15" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="K15" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L15" s="137" t="s">
-        <v>502</v>
-      </c>
-      <c r="M15" s="144"/>
-      <c r="N15" s="137" t="s">
-        <v>656</v>
-      </c>
-      <c r="O15" s="137"/>
-      <c r="P15" s="228" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q15" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R15" s="227" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="209" t="s">
+        <v>720</v>
+      </c>
+      <c r="K15" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L15" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M15" s="208" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="103">
         <v>15</v>
       </c>
@@ -5461,33 +5022,24 @@
       <c r="G16" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="223"/>
+      <c r="H16" s="204"/>
       <c r="I16" s="103">
         <v>65</v>
       </c>
-      <c r="J16" s="143" t="s">
-        <v>530</v>
-      </c>
-      <c r="K16" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L16" s="137" t="s">
-        <v>503</v>
-      </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="137" t="s">
-        <v>655</v>
-      </c>
-      <c r="O16" s="137"/>
-      <c r="P16" s="228" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q16" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R16" s="227"/>
-    </row>
-    <row r="17" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="209" t="s">
+        <v>721</v>
+      </c>
+      <c r="K16" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L16" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M16" s="208" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="103">
         <v>16</v>
       </c>
@@ -5509,44 +5061,33 @@
       <c r="G17" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="H17" s="223" t="s">
+      <c r="H17" s="204" t="s">
         <v>258</v>
       </c>
       <c r="I17" s="103">
         <v>95</v>
       </c>
-      <c r="J17" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K17" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L17" s="137" t="s">
-        <v>488</v>
-      </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="137" t="s">
-        <v>659</v>
-      </c>
-      <c r="O17" s="137"/>
-      <c r="P17" s="228" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q17" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R17" s="227" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="209" t="s">
+        <v>721</v>
+      </c>
+      <c r="K17" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L17" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M17" s="208" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="103">
         <v>17</v>
       </c>
       <c r="B18" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="224" t="s">
+      <c r="C18" s="205" t="s">
         <v>260</v>
       </c>
       <c r="D18" s="98" t="s">
@@ -5561,35 +5102,26 @@
       <c r="G18" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="223" t="s">
+      <c r="H18" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="103">
         <v>160</v>
       </c>
-      <c r="J18" s="143" t="s">
-        <v>532</v>
-      </c>
-      <c r="K18" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L18" s="137" t="s">
-        <v>489</v>
-      </c>
-      <c r="M18" s="144"/>
-      <c r="N18" s="137" t="s">
-        <v>645</v>
-      </c>
-      <c r="O18" s="137"/>
-      <c r="P18" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q18" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R18" s="227"/>
-    </row>
-    <row r="19" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K18" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L18" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M18" s="224" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="103">
         <v>18</v>
       </c>
@@ -5611,37 +5143,26 @@
       <c r="G19" s="102" t="s">
         <v>394</v>
       </c>
-      <c r="H19" s="223" t="s">
+      <c r="H19" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I19" s="103">
         <v>100</v>
       </c>
-      <c r="J19" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K19" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L19" s="137" t="s">
-        <v>490</v>
-      </c>
-      <c r="M19" s="144"/>
-      <c r="N19" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="O19" s="137"/>
-      <c r="P19" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q19" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R19" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K19" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L19" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M19" s="208" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="103">
         <v>19</v>
       </c>
@@ -5659,38 +5180,27 @@
       </c>
       <c r="F20" s="103"/>
       <c r="G20" s="102"/>
-      <c r="H20" s="223" t="s">
+      <c r="H20" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I20" s="103"/>
-      <c r="J20" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K20" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L20" s="137" t="s">
-        <v>491</v>
-      </c>
-      <c r="M20" s="144"/>
-      <c r="N20" s="137" t="s">
-        <v>668</v>
-      </c>
-      <c r="O20" s="137"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="228" t="s">
-        <v>794</v>
-      </c>
-      <c r="R20" s="227"/>
-    </row>
-    <row r="21" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="209"/>
+      <c r="K20" s="209" t="s">
+        <v>715</v>
+      </c>
+      <c r="L20" s="209" t="s">
+        <v>727</v>
+      </c>
+      <c r="M20" s="208"/>
+    </row>
+    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="103">
         <v>20</v>
       </c>
       <c r="B21" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="206" t="s">
         <v>304</v>
       </c>
       <c r="D21" s="98" t="s">
@@ -5703,44 +5213,33 @@
       <c r="G21" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="223" t="s">
+      <c r="H21" s="204" t="s">
         <v>268</v>
       </c>
       <c r="I21" s="103">
         <v>120</v>
       </c>
-      <c r="J21" s="143" t="s">
-        <v>534</v>
-      </c>
-      <c r="K21" s="144" t="s">
-        <v>533</v>
-      </c>
-      <c r="L21" s="137" t="s">
-        <v>492</v>
-      </c>
-      <c r="M21" s="148" t="s">
-        <v>542</v>
-      </c>
-      <c r="N21" s="137" t="s">
-        <v>649</v>
-      </c>
-      <c r="O21" s="137"/>
-      <c r="P21" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q21" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R21" s="227"/>
-    </row>
-    <row r="22" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K21" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L21" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M21" s="224" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="103">
         <v>21</v>
       </c>
       <c r="B22" s="102" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="205" t="s">
         <v>269</v>
       </c>
       <c r="D22" s="98" t="s">
@@ -5753,35 +5252,26 @@
       <c r="G22" s="102" t="s">
         <v>270</v>
       </c>
-      <c r="H22" s="223" t="s">
+      <c r="H22" s="204" t="s">
         <v>271</v>
       </c>
       <c r="I22" s="103">
         <v>40</v>
       </c>
-      <c r="J22" s="143" t="s">
-        <v>535</v>
-      </c>
-      <c r="K22" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L22" s="137" t="s">
-        <v>493</v>
-      </c>
-      <c r="M22" s="144"/>
-      <c r="N22" s="137" t="s">
-        <v>654</v>
-      </c>
-      <c r="O22" s="137"/>
-      <c r="P22" s="228" t="s">
-        <v>792</v>
-      </c>
-      <c r="Q22" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R22" s="227"/>
-    </row>
-    <row r="23" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="209" t="s">
+        <v>713</v>
+      </c>
+      <c r="K22" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L22" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M22" s="224" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="103">
         <v>22</v>
       </c>
@@ -5792,7 +5282,7 @@
         <v>272</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>643</v>
+        <v>588</v>
       </c>
       <c r="E23" s="100" t="s">
         <v>305</v>
@@ -5801,37 +5291,26 @@
       <c r="G23" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="H23" s="223" t="s">
+      <c r="H23" s="204" t="s">
         <v>274</v>
       </c>
       <c r="I23" s="103">
         <v>40</v>
       </c>
-      <c r="J23" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K23" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L23" s="137" t="s">
-        <v>494</v>
-      </c>
-      <c r="M23" s="144"/>
-      <c r="N23" s="137" t="s">
-        <v>658</v>
-      </c>
-      <c r="O23" s="137"/>
-      <c r="P23" s="228" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q23" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R23" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="209" t="s">
+        <v>721</v>
+      </c>
+      <c r="K23" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L23" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M23" s="228" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="103">
         <v>23</v>
       </c>
@@ -5851,39 +5330,26 @@
       <c r="G24" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="223" t="s">
+      <c r="H24" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I24" s="103">
         <v>65</v>
       </c>
-      <c r="J24" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K24" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L24" s="137" t="s">
-        <v>495</v>
-      </c>
-      <c r="M24" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="N24" s="137" t="s">
-        <v>660</v>
-      </c>
-      <c r="O24" s="137"/>
-      <c r="P24" s="228" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q24" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R24" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="209" t="s">
+        <v>487</v>
+      </c>
+      <c r="K24" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L24" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M24" s="228" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="103">
         <v>24</v>
       </c>
@@ -5903,33 +5369,22 @@
       <c r="G25" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="H25" s="223" t="s">
+      <c r="H25" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I25" s="103">
         <v>105</v>
       </c>
-      <c r="J25" s="143" t="s">
-        <v>536</v>
-      </c>
-      <c r="K25" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L25" s="137" t="s">
-        <v>496</v>
-      </c>
-      <c r="M25" s="144"/>
-      <c r="N25" s="137" t="s">
-        <v>664</v>
-      </c>
-      <c r="O25" s="137"/>
-      <c r="P25" s="228"/>
-      <c r="Q25" s="228" t="s">
-        <v>794</v>
-      </c>
-      <c r="R25" s="227"/>
-    </row>
-    <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="209"/>
+      <c r="K25" s="209" t="s">
+        <v>715</v>
+      </c>
+      <c r="L25" s="209" t="s">
+        <v>727</v>
+      </c>
+      <c r="M25" s="208"/>
+    </row>
+    <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="103">
         <v>25</v>
       </c>
@@ -5947,33 +5402,24 @@
       </c>
       <c r="F26" s="104"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="138"/>
+      <c r="H26" s="137"/>
       <c r="I26" s="103">
         <v>160</v>
       </c>
-      <c r="J26" s="143" t="s">
-        <v>522</v>
-      </c>
-      <c r="K26" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L26" s="137" t="s">
-        <v>497</v>
-      </c>
-      <c r="M26" s="144"/>
-      <c r="N26" s="137" t="s">
-        <v>662</v>
-      </c>
-      <c r="O26" s="137"/>
-      <c r="P26" s="228" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q26" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R26" s="227"/>
-    </row>
-    <row r="27" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="209" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L26" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M26" s="208" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="103">
         <v>26</v>
       </c>
@@ -5993,37 +5439,26 @@
       <c r="G27" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="H27" s="223" t="s">
+      <c r="H27" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I27" s="103">
         <v>95</v>
       </c>
-      <c r="J27" s="143" t="s">
-        <v>524</v>
-      </c>
-      <c r="K27" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L27" s="137" t="s">
-        <v>498</v>
-      </c>
-      <c r="M27" s="144"/>
-      <c r="N27" s="137" t="s">
-        <v>652</v>
-      </c>
-      <c r="O27" s="137"/>
-      <c r="P27" s="228" t="s">
-        <v>800</v>
-      </c>
-      <c r="Q27" s="228" t="s">
-        <v>793</v>
-      </c>
-      <c r="R27" s="227" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="209" t="s">
+        <v>721</v>
+      </c>
+      <c r="K27" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="L27" s="209" t="s">
+        <v>725</v>
+      </c>
+      <c r="M27" s="228" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="103">
         <v>27</v>
       </c>
@@ -6045,33 +5480,24 @@
       <c r="G28" s="102" t="s">
         <v>285</v>
       </c>
-      <c r="H28" s="223" t="s">
+      <c r="H28" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I28" s="103">
         <v>95</v>
       </c>
-      <c r="J28" s="143" t="s">
-        <v>537</v>
-      </c>
-      <c r="K28" s="142" t="s">
-        <v>519</v>
-      </c>
-      <c r="L28" s="137" t="s">
-        <v>499</v>
-      </c>
-      <c r="M28" s="144"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="228"/>
-      <c r="Q28" s="228" t="s">
-        <v>794</v>
-      </c>
-      <c r="R28" s="227" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J28" s="209"/>
+      <c r="K28" s="209" t="s">
+        <v>715</v>
+      </c>
+      <c r="L28" s="209" t="s">
+        <v>726</v>
+      </c>
+      <c r="M28" s="208" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="103">
         <v>28</v>
       </c>
@@ -6089,27 +5515,22 @@
       <c r="G29" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="H29" s="223" t="s">
+      <c r="H29" s="204" t="s">
         <v>228</v>
       </c>
       <c r="I29" s="103">
         <v>65</v>
       </c>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="139" t="s">
-        <v>500</v>
-      </c>
-      <c r="M29" s="144"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="229"/>
-      <c r="Q29" s="229" t="s">
-        <v>794</v>
-      </c>
-      <c r="R29" s="227"/>
-    </row>
-    <row r="30" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="210"/>
+      <c r="K29" s="210" t="s">
+        <v>715</v>
+      </c>
+      <c r="L29" s="210" t="s">
+        <v>727</v>
+      </c>
+      <c r="M29" s="208"/>
+    </row>
+    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="87">
         <f>SUM(I2:I29)</f>
         <v>2925</v>
@@ -6130,7 +5551,7 @@
     <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:S30" xr:uid="{2900E8D1-2F1B-4191-BBA6-7050B66C211A}"/>
+  <autoFilter ref="A1:N30" xr:uid="{2900E8D1-2F1B-4191-BBA6-7050B66C211A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I29">
     <sortCondition ref="B1"/>
   </sortState>
@@ -6162,7 +5583,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6689,7 +6110,7 @@
   </sheetPr>
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -6710,8 +6131,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="196" t="s">
-        <v>759</v>
+      <c r="C1" s="185" t="s">
+        <v>681</v>
       </c>
       <c r="E1" s="108" t="s">
         <v>442</v>
@@ -6729,7 +6150,7 @@
         <v>478</v>
       </c>
       <c r="L1" s="108" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="N1" s="15" t="s">
         <v>328</v>
@@ -6739,11 +6160,11 @@
       <c r="A2" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="220"/>
+      <c r="B2" s="201"/>
       <c r="C2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="173">
+      <c r="D2" s="162">
         <v>65</v>
       </c>
       <c r="E2" s="43">
@@ -6785,7 +6206,7 @@
       <c r="C3" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="174">
+      <c r="D3" s="163">
         <v>37</v>
       </c>
       <c r="E3" s="44">
@@ -6827,7 +6248,7 @@
       <c r="C4" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="175">
+      <c r="D4" s="164">
         <v>37</v>
       </c>
       <c r="E4" s="45">
@@ -6869,7 +6290,7 @@
       <c r="C5" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="176">
+      <c r="D5" s="165">
         <v>5</v>
       </c>
       <c r="E5" s="46">
@@ -6911,7 +6332,7 @@
       <c r="C6" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D6" s="166">
         <v>2</v>
       </c>
       <c r="E6" s="47">
@@ -6940,7 +6361,7 @@
       <c r="L6" s="20">
         <v>8</v>
       </c>
-      <c r="N6" s="211" t="s">
+      <c r="N6" s="216" t="s">
         <v>94</v>
       </c>
       <c r="O6" t="s">
@@ -6953,7 +6374,7 @@
       <c r="C7" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="178">
+      <c r="D7" s="167">
         <v>2</v>
       </c>
       <c r="E7" s="48">
@@ -6982,7 +6403,7 @@
       <c r="L7" s="8">
         <v>8</v>
       </c>
-      <c r="N7" s="211"/>
+      <c r="N7" s="216"/>
       <c r="O7" t="s">
         <v>331</v>
       </c>
@@ -6993,7 +6414,7 @@
       <c r="C8" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="179">
+      <c r="D8" s="168">
         <v>2</v>
       </c>
       <c r="E8" s="49">
@@ -7022,7 +6443,7 @@
       <c r="L8" s="21">
         <v>8</v>
       </c>
-      <c r="N8" s="211"/>
+      <c r="N8" s="216"/>
       <c r="O8" t="s">
         <v>332</v>
       </c>
@@ -7035,7 +6456,7 @@
       <c r="C9" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="180">
+      <c r="D9" s="169">
         <v>16</v>
       </c>
       <c r="E9" s="52">
@@ -7071,7 +6492,7 @@
       <c r="C10" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="167">
         <v>12</v>
       </c>
       <c r="E10" s="48">
@@ -7107,7 +6528,7 @@
       <c r="C11" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="181">
+      <c r="D11" s="170">
         <v>16</v>
       </c>
       <c r="E11" s="54">
@@ -7143,7 +6564,7 @@
       <c r="C12" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="177">
+      <c r="D12" s="166">
         <v>13</v>
       </c>
       <c r="E12" s="47">
@@ -7179,7 +6600,7 @@
       <c r="C13" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="182">
+      <c r="D13" s="171">
         <v>11</v>
       </c>
       <c r="E13" s="55">
@@ -7215,7 +6636,7 @@
       <c r="C14" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="183">
+      <c r="D14" s="172">
         <v>10</v>
       </c>
       <c r="E14" s="56">
@@ -7253,7 +6674,7 @@
       <c r="C15" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="184">
+      <c r="D15" s="173">
         <v>9</v>
       </c>
       <c r="E15" s="23">
@@ -7289,7 +6710,7 @@
       <c r="C16" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="185">
+      <c r="D16" s="174">
         <v>9</v>
       </c>
       <c r="E16" s="21">
@@ -7325,7 +6746,7 @@
       <c r="C17" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="186">
+      <c r="D17" s="175">
         <v>9</v>
       </c>
       <c r="E17" s="30">
@@ -7361,7 +6782,7 @@
       <c r="C18" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="187">
+      <c r="D18" s="176">
         <v>9</v>
       </c>
       <c r="E18" s="31">
@@ -7401,7 +6822,7 @@
       <c r="C19" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="188">
+      <c r="D19" s="177">
         <v>4</v>
       </c>
       <c r="E19" s="8">
@@ -7430,8 +6851,8 @@
       <c r="L19" s="8">
         <v>15</v>
       </c>
-      <c r="M19" s="212"/>
-      <c r="N19" s="210"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="215"/>
       <c r="O19" s="110"/>
       <c r="P19" s="109"/>
     </row>
@@ -7441,7 +6862,7 @@
       <c r="C20" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="189">
+      <c r="D20" s="178">
         <v>6</v>
       </c>
       <c r="E20" s="32">
@@ -7470,8 +6891,8 @@
       <c r="L20" s="32">
         <v>41</v>
       </c>
-      <c r="M20" s="212"/>
-      <c r="N20" s="210"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="215"/>
       <c r="O20" s="110"/>
       <c r="P20" s="109"/>
     </row>
@@ -7481,7 +6902,7 @@
       <c r="C21" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="190">
+      <c r="D21" s="179">
         <v>5</v>
       </c>
       <c r="E21" s="33">
@@ -7521,7 +6942,7 @@
       <c r="C22" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="187">
+      <c r="D22" s="176">
         <v>13</v>
       </c>
       <c r="E22" s="31">
@@ -7563,7 +6984,7 @@
       <c r="C23" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="D23" s="189">
+      <c r="D23" s="178">
         <v>5</v>
       </c>
       <c r="E23" s="32">
@@ -7603,7 +7024,7 @@
       <c r="C24" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="191">
+      <c r="D24" s="180">
         <v>5</v>
       </c>
       <c r="E24" s="38">
@@ -7643,7 +7064,7 @@
       <c r="C25" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="192">
+      <c r="D25" s="181">
         <v>5</v>
       </c>
       <c r="E25" s="37">
@@ -7683,7 +7104,7 @@
       <c r="C26" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="191">
+      <c r="D26" s="180">
         <v>4</v>
       </c>
       <c r="E26" s="38">
@@ -7723,7 +7144,7 @@
       <c r="C27" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="191">
+      <c r="D27" s="180">
         <v>12</v>
       </c>
       <c r="E27" s="38">
@@ -7752,7 +7173,7 @@
       <c r="L27" s="38">
         <v>74</v>
       </c>
-      <c r="M27" s="210"/>
+      <c r="M27" s="215"/>
       <c r="N27" s="112"/>
       <c r="O27" s="109"/>
       <c r="P27" s="109"/>
@@ -7797,7 +7218,7 @@
         <f t="shared" ref="L28" si="3">SUM(L2:L27)</f>
         <v>1138</v>
       </c>
-      <c r="M28" s="210"/>
+      <c r="M28" s="215"/>
       <c r="N28" s="112"/>
       <c r="O28" s="109"/>
       <c r="P28" s="109"/>
@@ -7809,13 +7230,13 @@
       <c r="P29" s="109"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M30" s="210"/>
+      <c r="M30" s="215"/>
       <c r="N30" s="112"/>
       <c r="O30" s="109"/>
       <c r="P30" s="109"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M31" s="210"/>
+      <c r="M31" s="215"/>
       <c r="N31" s="112"/>
       <c r="O31" s="109"/>
       <c r="P31" s="109"/>
@@ -7833,32 +7254,32 @@
       <c r="P33" s="109"/>
     </row>
     <row r="34" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="218" t="s">
-        <v>681</v>
-      </c>
-      <c r="B34" s="218" t="s">
-        <v>790</v>
-      </c>
-      <c r="C34" s="218" t="s">
-        <v>683</v>
-      </c>
-      <c r="D34" s="218" t="s">
-        <v>682</v>
-      </c>
-      <c r="E34" s="218" t="s">
-        <v>787</v>
-      </c>
-      <c r="H34" s="206" t="s">
-        <v>771</v>
-      </c>
-      <c r="I34" s="206" t="s">
-        <v>785</v>
-      </c>
-      <c r="J34" s="206" t="s">
-        <v>772</v>
-      </c>
-      <c r="K34" s="208" t="s">
-        <v>786</v>
+      <c r="A34" s="199" t="s">
+        <v>603</v>
+      </c>
+      <c r="B34" s="199" t="s">
+        <v>711</v>
+      </c>
+      <c r="C34" s="199" t="s">
+        <v>605</v>
+      </c>
+      <c r="D34" s="199" t="s">
+        <v>604</v>
+      </c>
+      <c r="E34" s="199" t="s">
+        <v>708</v>
+      </c>
+      <c r="H34" s="195" t="s">
+        <v>692</v>
+      </c>
+      <c r="I34" s="195" t="s">
+        <v>706</v>
+      </c>
+      <c r="J34" s="195" t="s">
+        <v>693</v>
+      </c>
+      <c r="K34" s="197" t="s">
+        <v>707</v>
       </c>
       <c r="M34" s="113"/>
       <c r="N34" s="114"/>
@@ -7866,192 +7287,192 @@
       <c r="P34" s="109"/>
     </row>
     <row r="35" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="218">
-        <v>1</v>
-      </c>
-      <c r="B35" s="231" t="s">
+      <c r="A35" s="199">
+        <v>1</v>
+      </c>
+      <c r="B35" s="212" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="231" t="s">
+      <c r="C35" s="212" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="230"/>
-      <c r="E35" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="208"/>
-      <c r="M35" s="209"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H35" s="195"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="195"/>
+      <c r="K35" s="197"/>
+      <c r="M35" s="198"/>
       <c r="N35" s="114"/>
       <c r="O35" s="109"/>
       <c r="P35" s="109"/>
     </row>
     <row r="36" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="218">
-        <v>2</v>
-      </c>
-      <c r="B36" s="231" t="s">
+      <c r="A36" s="199">
+        <v>2</v>
+      </c>
+      <c r="B36" s="212" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="231" t="s">
+      <c r="C36" s="212" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="230"/>
-      <c r="E36" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="206"/>
-      <c r="K36" s="208"/>
-      <c r="M36" s="209"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="197"/>
+      <c r="M36" s="198"/>
       <c r="N36" s="114"/>
       <c r="O36" s="109"/>
       <c r="P36" s="109"/>
     </row>
     <row r="37" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="218">
+      <c r="A37" s="199">
         <v>3</v>
       </c>
-      <c r="B37" s="231" t="s">
+      <c r="B37" s="212" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="231" t="s">
+      <c r="C37" s="212" t="s">
         <v>303</v>
       </c>
-      <c r="D37" s="230"/>
-      <c r="E37" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="206"/>
-      <c r="K37" s="208"/>
-      <c r="M37" s="209"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="197"/>
+      <c r="M37" s="198"/>
       <c r="N37" s="114"/>
       <c r="O37" s="109"/>
       <c r="P37" s="109"/>
     </row>
     <row r="38" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="218">
-        <v>4</v>
-      </c>
-      <c r="B38" s="231" t="s">
+      <c r="A38" s="199">
+        <v>4</v>
+      </c>
+      <c r="B38" s="212" t="s">
         <v>247</v>
       </c>
-      <c r="C38" s="231" t="s">
+      <c r="C38" s="212" t="s">
         <v>249</v>
       </c>
-      <c r="D38" s="230"/>
-      <c r="E38" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="206"/>
-      <c r="K38" s="208"/>
-      <c r="M38" s="209"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="197"/>
+      <c r="M38" s="198"/>
       <c r="N38" s="114"/>
       <c r="O38" s="109"/>
       <c r="P38" s="109"/>
     </row>
     <row r="39" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="218">
+      <c r="A39" s="199">
         <v>5</v>
       </c>
-      <c r="B39" s="231" t="s">
+      <c r="B39" s="212" t="s">
         <v>266</v>
       </c>
-      <c r="C39" s="231" t="s">
+      <c r="C39" s="212" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="230"/>
-      <c r="E39" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H39" s="206"/>
-      <c r="I39" s="206"/>
-      <c r="J39" s="206"/>
-      <c r="K39" s="208"/>
-      <c r="M39" s="209"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="197"/>
+      <c r="M39" s="198"/>
       <c r="N39" s="114"/>
       <c r="O39" s="109"/>
       <c r="P39" s="109"/>
     </row>
     <row r="40" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="218">
+      <c r="A40" s="199">
         <v>6</v>
       </c>
-      <c r="B40" s="231" t="s">
+      <c r="B40" s="212" t="s">
         <v>266</v>
       </c>
-      <c r="C40" s="231" t="s">
+      <c r="C40" s="212" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="230"/>
-      <c r="E40" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H40" s="206"/>
-      <c r="I40" s="206"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="208"/>
-      <c r="M40" s="209"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="195"/>
+      <c r="K40" s="197"/>
+      <c r="M40" s="198"/>
       <c r="N40" s="114"/>
       <c r="O40" s="109"/>
       <c r="P40" s="109"/>
     </row>
     <row r="41" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218">
+      <c r="A41" s="199">
         <v>7</v>
       </c>
-      <c r="B41" s="231" t="s">
+      <c r="B41" s="212" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="231" t="s">
+      <c r="C41" s="212" t="s">
         <v>260</v>
       </c>
-      <c r="D41" s="230"/>
-      <c r="E41" s="218" t="s">
-        <v>795</v>
-      </c>
-      <c r="H41" s="206"/>
-      <c r="I41" s="206"/>
-      <c r="J41" s="206"/>
-      <c r="K41" s="208"/>
-      <c r="M41" s="209"/>
+      <c r="D41" s="211"/>
+      <c r="E41" s="199" t="s">
+        <v>716</v>
+      </c>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="197"/>
+      <c r="M41" s="198"/>
       <c r="N41" s="114"/>
       <c r="O41" s="109"/>
       <c r="P41" s="109"/>
     </row>
     <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="221">
+      <c r="A42" s="202">
         <v>8</v>
       </c>
-      <c r="B42" s="232" t="s">
+      <c r="B42" s="213" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="171" t="s">
-        <v>677</v>
+      <c r="C42" s="160" t="s">
+        <v>599</v>
       </c>
       <c r="D42" s="104">
         <v>100</v>
       </c>
-      <c r="E42" s="219" t="s">
-        <v>789</v>
-      </c>
-      <c r="H42" s="205" t="s">
-        <v>773</v>
-      </c>
-      <c r="I42" s="204">
+      <c r="E42" s="200" t="s">
+        <v>710</v>
+      </c>
+      <c r="H42" s="194" t="s">
+        <v>694</v>
+      </c>
+      <c r="I42" s="193">
         <v>850</v>
       </c>
-      <c r="J42" s="207">
+      <c r="J42" s="196">
         <v>46612850</v>
       </c>
-      <c r="K42" s="204">
+      <c r="K42" s="193">
         <v>377</v>
       </c>
       <c r="M42" s="113"/>
@@ -8060,31 +7481,31 @@
       <c r="P42" s="109"/>
     </row>
     <row r="43" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="221">
+      <c r="A43" s="202">
         <v>9</v>
       </c>
-      <c r="B43" s="232" t="s">
+      <c r="B43" s="213" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="171" t="s">
+      <c r="C43" s="160" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="104">
         <v>450</v>
       </c>
-      <c r="E43" s="219" t="s">
-        <v>788</v>
-      </c>
-      <c r="H43" s="205" t="s">
-        <v>774</v>
-      </c>
-      <c r="I43" s="204">
+      <c r="E43" s="200" t="s">
+        <v>709</v>
+      </c>
+      <c r="H43" s="194" t="s">
+        <v>695</v>
+      </c>
+      <c r="I43" s="193">
         <v>554</v>
       </c>
-      <c r="J43" s="207">
+      <c r="J43" s="196">
         <v>36666624</v>
       </c>
-      <c r="K43" s="204">
+      <c r="K43" s="193">
         <v>406</v>
       </c>
       <c r="M43" s="111"/>
@@ -8093,284 +7514,284 @@
       <c r="P43" s="109"/>
     </row>
     <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="221">
+      <c r="A44" s="202">
         <v>10</v>
       </c>
-      <c r="B44" s="232" t="s">
+      <c r="B44" s="213" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="171" t="s">
-        <v>675</v>
+      <c r="C44" s="160" t="s">
+        <v>597</v>
       </c>
       <c r="D44" s="104">
         <v>310</v>
       </c>
-      <c r="E44" s="219" t="s">
-        <v>788</v>
-      </c>
-      <c r="H44" s="205" t="s">
-        <v>775</v>
-      </c>
-      <c r="I44" s="204">
+      <c r="E44" s="200" t="s">
+        <v>709</v>
+      </c>
+      <c r="H44" s="194" t="s">
+        <v>696</v>
+      </c>
+      <c r="I44" s="193">
         <v>240</v>
       </c>
-      <c r="J44" s="207">
+      <c r="J44" s="196">
         <v>20322554</v>
       </c>
-      <c r="K44" s="204"/>
+      <c r="K44" s="193"/>
       <c r="M44" s="113"/>
       <c r="N44" s="115"/>
       <c r="O44" s="109"/>
       <c r="P44" s="109"/>
     </row>
     <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="221">
+      <c r="A45" s="202">
         <v>11</v>
       </c>
-      <c r="B45" s="232" t="s">
+      <c r="B45" s="213" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="171" t="s">
+      <c r="C45" s="160" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="104">
         <v>195</v>
       </c>
       <c r="E45" s="7"/>
-      <c r="H45" s="205" t="s">
-        <v>776</v>
-      </c>
-      <c r="I45" s="204">
+      <c r="H45" s="194" t="s">
+        <v>697</v>
+      </c>
+      <c r="I45" s="193">
         <v>148</v>
       </c>
-      <c r="J45" s="207">
+      <c r="J45" s="196">
         <v>14423311</v>
       </c>
-      <c r="K45" s="204"/>
+      <c r="K45" s="193"/>
       <c r="M45" s="113"/>
       <c r="N45" s="115"/>
       <c r="O45" s="109"/>
       <c r="P45" s="109"/>
     </row>
     <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="221">
+      <c r="A46" s="202">
         <v>12</v>
       </c>
-      <c r="B46" s="219" t="s">
+      <c r="B46" s="200" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="171" t="s">
-        <v>676</v>
+      <c r="C46" s="160" t="s">
+        <v>598</v>
       </c>
       <c r="D46" s="104">
         <v>300</v>
       </c>
       <c r="E46" s="7"/>
-      <c r="H46" s="205" t="s">
-        <v>777</v>
-      </c>
-      <c r="I46" s="204">
+      <c r="H46" s="194" t="s">
+        <v>698</v>
+      </c>
+      <c r="I46" s="193">
         <v>239</v>
       </c>
-      <c r="J46" s="207">
+      <c r="J46" s="196">
         <v>20213881</v>
       </c>
-      <c r="K46" s="204"/>
+      <c r="K46" s="193"/>
       <c r="M46" s="113"/>
       <c r="N46" s="115"/>
       <c r="O46" s="109"/>
       <c r="P46" s="109"/>
     </row>
     <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="221">
+      <c r="A47" s="202">
         <v>13</v>
       </c>
-      <c r="B47" s="219" t="s">
+      <c r="B47" s="200" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="171" t="s">
-        <v>673</v>
+      <c r="C47" s="160" t="s">
+        <v>595</v>
       </c>
       <c r="D47" s="104">
         <v>310</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="H47" s="205" t="s">
-        <v>778</v>
-      </c>
-      <c r="I47" s="204">
+      <c r="H47" s="194" t="s">
+        <v>699</v>
+      </c>
+      <c r="I47" s="193">
         <v>376</v>
       </c>
-      <c r="J47" s="207">
+      <c r="J47" s="196">
         <v>26632506</v>
       </c>
-      <c r="K47" s="204"/>
+      <c r="K47" s="193"/>
       <c r="M47" s="113"/>
       <c r="N47" s="116"/>
       <c r="O47" s="110"/>
       <c r="P47" s="109"/>
     </row>
     <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="221">
+      <c r="A48" s="202">
         <v>14</v>
       </c>
-      <c r="B48" s="219" t="s">
+      <c r="B48" s="200" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="171" t="s">
-        <v>678</v>
+      <c r="C48" s="160" t="s">
+        <v>600</v>
       </c>
       <c r="D48" s="104">
         <v>195</v>
       </c>
       <c r="E48" s="7"/>
-      <c r="H48" s="205" t="s">
-        <v>779</v>
-      </c>
-      <c r="I48" s="204">
+      <c r="H48" s="194" t="s">
+        <v>700</v>
+      </c>
+      <c r="I48" s="193">
         <v>384</v>
       </c>
-      <c r="J48" s="207">
+      <c r="J48" s="196">
         <v>27501890</v>
       </c>
-      <c r="K48" s="204"/>
+      <c r="K48" s="193"/>
       <c r="M48" s="109"/>
       <c r="N48" s="109"/>
       <c r="O48" s="109"/>
       <c r="P48" s="109"/>
     </row>
     <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="221">
+      <c r="A49" s="202">
         <v>15</v>
       </c>
-      <c r="B49" s="219" t="s">
-        <v>796</v>
-      </c>
-      <c r="C49" s="171" t="s">
-        <v>680</v>
+      <c r="B49" s="200" t="s">
+        <v>717</v>
+      </c>
+      <c r="C49" s="160" t="s">
+        <v>602</v>
       </c>
       <c r="D49" s="104">
         <v>300</v>
       </c>
       <c r="E49" s="7"/>
-      <c r="H49" s="205" t="s">
-        <v>780</v>
-      </c>
-      <c r="I49" s="204">
+      <c r="H49" s="194" t="s">
+        <v>701</v>
+      </c>
+      <c r="I49" s="193">
         <v>376</v>
       </c>
-      <c r="J49" s="207">
+      <c r="J49" s="196">
         <v>26632506</v>
       </c>
-      <c r="K49" s="204"/>
+      <c r="K49" s="193"/>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="221">
+      <c r="A50" s="202">
         <v>16</v>
       </c>
-      <c r="B50" s="219" t="s">
+      <c r="B50" s="200" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="171" t="s">
-        <v>672</v>
+      <c r="C50" s="160" t="s">
+        <v>594</v>
       </c>
       <c r="D50" s="104">
         <v>40</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="H50" s="205" t="s">
-        <v>781</v>
-      </c>
-      <c r="I50" s="204">
+      <c r="H50" s="194" t="s">
+        <v>702</v>
+      </c>
+      <c r="I50" s="193">
         <v>185</v>
       </c>
-      <c r="J50" s="207">
+      <c r="J50" s="196">
         <v>16888119</v>
       </c>
-      <c r="K50" s="204"/>
+      <c r="K50" s="193"/>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="221">
+      <c r="A51" s="202">
         <v>17</v>
       </c>
-      <c r="B51" s="219" t="s">
+      <c r="B51" s="200" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="171" t="s">
-        <v>671</v>
+      <c r="C51" s="160" t="s">
+        <v>593</v>
       </c>
       <c r="D51" s="104">
         <v>195</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="H51" s="205" t="s">
-        <v>782</v>
-      </c>
-      <c r="I51" s="204">
+      <c r="H51" s="194" t="s">
+        <v>703</v>
+      </c>
+      <c r="I51" s="193">
         <v>235</v>
       </c>
-      <c r="J51" s="207">
+      <c r="J51" s="196">
         <v>19779189</v>
       </c>
-      <c r="K51" s="204"/>
+      <c r="K51" s="193"/>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="221">
+      <c r="A52" s="202">
         <v>18</v>
       </c>
-      <c r="B52" s="219" t="s">
-        <v>797</v>
-      </c>
-      <c r="C52" s="171" t="s">
-        <v>679</v>
+      <c r="B52" s="200" t="s">
+        <v>718</v>
+      </c>
+      <c r="C52" s="160" t="s">
+        <v>601</v>
       </c>
       <c r="D52" s="104">
         <v>165</v>
       </c>
       <c r="E52" s="7"/>
-      <c r="H52" s="205" t="s">
-        <v>783</v>
-      </c>
-      <c r="I52" s="204">
+      <c r="H52" s="194" t="s">
+        <v>704</v>
+      </c>
+      <c r="I52" s="193">
         <v>378</v>
       </c>
-      <c r="J52" s="207">
+      <c r="J52" s="196">
         <v>26417838</v>
       </c>
-      <c r="K52" s="204"/>
+      <c r="K52" s="193"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="221">
+      <c r="A53" s="202">
         <v>19</v>
       </c>
-      <c r="B53" s="219" t="s">
+      <c r="B53" s="200" t="s">
         <v>250</v>
       </c>
-      <c r="C53" s="171" t="s">
+      <c r="C53" s="160" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="104">
         <v>260</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="H53" s="205" t="s">
-        <v>784</v>
-      </c>
-      <c r="I53" s="204">
+      <c r="H53" s="194" t="s">
+        <v>705</v>
+      </c>
+      <c r="I53" s="193">
         <v>3965</v>
       </c>
-      <c r="J53" s="207">
+      <c r="J53" s="196">
         <v>282091268</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="221">
+      <c r="A54" s="202">
         <v>20</v>
       </c>
-      <c r="B54" s="219" t="s">
+      <c r="B54" s="200" t="s">
         <v>250</v>
       </c>
-      <c r="C54" s="171" t="s">
+      <c r="C54" s="160" t="s">
         <v>85</v>
       </c>
       <c r="D54" s="104">
@@ -8379,14 +7800,14 @@
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="221">
+      <c r="A55" s="202">
         <v>21</v>
       </c>
-      <c r="B55" s="219" t="s">
+      <c r="B55" s="200" t="s">
         <v>307</v>
       </c>
-      <c r="C55" s="171" t="s">
-        <v>674</v>
+      <c r="C55" s="160" t="s">
+        <v>596</v>
       </c>
       <c r="D55" s="104">
         <v>310</v>
@@ -8394,14 +7815,14 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="221">
+      <c r="A56" s="202">
         <v>22</v>
       </c>
-      <c r="B56" s="219" t="s">
-        <v>766</v>
-      </c>
-      <c r="C56" s="171" t="s">
-        <v>684</v>
+      <c r="B56" s="200" t="s">
+        <v>688</v>
+      </c>
+      <c r="C56" s="160" t="s">
+        <v>606</v>
       </c>
       <c r="D56" s="104">
         <v>160</v>
@@ -8409,14 +7830,14 @@
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="221">
+      <c r="A57" s="202">
         <v>23</v>
       </c>
-      <c r="B57" s="219" t="s">
-        <v>766</v>
-      </c>
-      <c r="C57" s="171" t="s">
-        <v>685</v>
+      <c r="B57" s="200" t="s">
+        <v>688</v>
+      </c>
+      <c r="C57" s="160" t="s">
+        <v>607</v>
       </c>
       <c r="D57" s="104">
         <v>65</v>
@@ -8424,14 +7845,14 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="221">
+      <c r="A58" s="202">
         <v>24</v>
       </c>
-      <c r="B58" s="219" t="s">
-        <v>766</v>
-      </c>
-      <c r="C58" s="171" t="s">
-        <v>686</v>
+      <c r="B58" s="200" t="s">
+        <v>688</v>
+      </c>
+      <c r="C58" s="160" t="s">
+        <v>608</v>
       </c>
       <c r="D58" s="104">
         <v>65</v>
@@ -8439,14 +7860,14 @@
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="221">
+      <c r="A59" s="202">
         <v>25</v>
       </c>
-      <c r="B59" s="219" t="s">
-        <v>766</v>
-      </c>
-      <c r="C59" s="171" t="s">
-        <v>687</v>
+      <c r="B59" s="200" t="s">
+        <v>688</v>
+      </c>
+      <c r="C59" s="160" t="s">
+        <v>609</v>
       </c>
       <c r="D59" s="104">
         <v>65</v>
@@ -8454,13 +7875,13 @@
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="221">
+      <c r="A60" s="202">
         <v>26</v>
       </c>
-      <c r="B60" s="219" t="s">
-        <v>766</v>
-      </c>
-      <c r="C60" s="171" t="s">
+      <c r="B60" s="200" t="s">
+        <v>688</v>
+      </c>
+      <c r="C60" s="160" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="104"/>
@@ -8474,355 +7895,355 @@
     </row>
     <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="3:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="197" t="s">
-        <v>681</v>
-      </c>
-      <c r="D67" s="197" t="s">
-        <v>760</v>
-      </c>
-      <c r="E67" s="197" t="s">
+      <c r="C67" s="186" t="s">
+        <v>603</v>
+      </c>
+      <c r="D67" s="186" t="s">
+        <v>682</v>
+      </c>
+      <c r="E67" s="186" t="s">
+        <v>605</v>
+      </c>
+      <c r="F67" s="186" t="s">
         <v>683</v>
       </c>
-      <c r="F67" s="197" t="s">
-        <v>761</v>
-      </c>
-      <c r="G67" s="197" t="s">
-        <v>762</v>
+      <c r="G67" s="186" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="198">
-        <v>1</v>
-      </c>
-      <c r="D68" s="233" t="s">
+      <c r="C68" s="187">
+        <v>1</v>
+      </c>
+      <c r="D68" s="214" t="s">
         <v>262</v>
       </c>
-      <c r="E68" s="199" t="s">
+      <c r="E68" s="188" t="s">
         <v>308</v>
       </c>
-      <c r="F68" s="200">
+      <c r="F68" s="189">
         <v>100</v>
       </c>
-      <c r="G68" s="200">
+      <c r="G68" s="189">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="198">
-        <v>2</v>
-      </c>
-      <c r="D69" s="233" t="s">
+      <c r="C69" s="187">
+        <v>2</v>
+      </c>
+      <c r="D69" s="214" t="s">
         <v>223</v>
       </c>
-      <c r="E69" s="199" t="s">
+      <c r="E69" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="F69" s="200">
+      <c r="F69" s="189">
         <v>300</v>
       </c>
-      <c r="G69" s="200">
+      <c r="G69" s="189">
         <v>300</v>
       </c>
     </row>
     <row r="70" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="198">
+      <c r="C70" s="187">
         <v>3</v>
       </c>
-      <c r="D70" s="233" t="s">
+      <c r="D70" s="214" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="199" t="s">
+      <c r="E70" s="188" t="s">
         <v>251</v>
       </c>
-      <c r="F70" s="200">
+      <c r="F70" s="189">
         <v>160</v>
       </c>
-      <c r="G70" s="200">
+      <c r="G70" s="189">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="198">
-        <v>4</v>
-      </c>
-      <c r="D71" s="233" t="s">
+      <c r="C71" s="187">
+        <v>4</v>
+      </c>
+      <c r="D71" s="214" t="s">
         <v>250</v>
       </c>
-      <c r="E71" s="199" t="s">
+      <c r="E71" s="188" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="200">
+      <c r="F71" s="189">
         <v>65</v>
       </c>
-      <c r="G71" s="200">
+      <c r="G71" s="189">
         <v>33</v>
       </c>
     </row>
     <row r="72" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="198">
+      <c r="C72" s="187">
         <v>5</v>
       </c>
-      <c r="D72" s="233" t="s">
+      <c r="D72" s="214" t="s">
         <v>254</v>
       </c>
-      <c r="E72" s="199" t="s">
+      <c r="E72" s="188" t="s">
         <v>255</v>
       </c>
-      <c r="F72" s="200">
+      <c r="F72" s="189">
         <v>95</v>
       </c>
-      <c r="G72" s="200">
+      <c r="G72" s="189">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="198">
+      <c r="C73" s="187">
         <v>6</v>
       </c>
-      <c r="D73" s="233" t="s">
+      <c r="D73" s="214" t="s">
         <v>307</v>
       </c>
-      <c r="E73" s="199" t="s">
+      <c r="E73" s="188" t="s">
         <v>395</v>
       </c>
-      <c r="F73" s="200">
+      <c r="F73" s="189">
         <v>160</v>
       </c>
-      <c r="G73" s="200">
+      <c r="G73" s="189">
         <v>58</v>
       </c>
     </row>
     <row r="74" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="198">
+      <c r="C74" s="187">
         <v>7</v>
       </c>
-      <c r="D74" s="233" t="s">
+      <c r="D74" s="214" t="s">
         <v>229</v>
       </c>
-      <c r="E74" s="199" t="s">
+      <c r="E74" s="188" t="s">
         <v>230</v>
       </c>
-      <c r="F74" s="200">
+      <c r="F74" s="189">
         <v>160</v>
       </c>
-      <c r="G74" s="200">
+      <c r="G74" s="189">
         <v>56</v>
       </c>
     </row>
     <row r="75" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="198">
+      <c r="C75" s="187">
         <v>8</v>
       </c>
-      <c r="D75" s="233" t="s">
+      <c r="D75" s="214" t="s">
         <v>229</v>
       </c>
-      <c r="E75" s="199" t="s">
+      <c r="E75" s="188" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="200">
+      <c r="F75" s="189">
         <v>300</v>
       </c>
-      <c r="G75" s="200">
+      <c r="G75" s="189">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="198">
+      <c r="C76" s="187">
         <v>9</v>
       </c>
-      <c r="D76" s="233" t="s">
+      <c r="D76" s="214" t="s">
         <v>235</v>
       </c>
-      <c r="E76" s="199" t="s">
-        <v>763</v>
-      </c>
-      <c r="F76" s="200">
+      <c r="E76" s="188" t="s">
+        <v>685</v>
+      </c>
+      <c r="F76" s="189">
         <v>160</v>
       </c>
-      <c r="G76" s="200">
+      <c r="G76" s="189">
         <v>57</v>
       </c>
     </row>
     <row r="77" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="198">
+      <c r="C77" s="187">
         <v>10</v>
       </c>
-      <c r="D77" s="233" t="s">
+      <c r="D77" s="214" t="s">
         <v>235</v>
       </c>
-      <c r="E77" s="199" t="s">
+      <c r="E77" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="200">
+      <c r="F77" s="189">
         <v>160</v>
       </c>
-      <c r="G77" s="200">
+      <c r="G77" s="189">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="198">
+      <c r="C78" s="187">
         <v>11</v>
       </c>
-      <c r="D78" s="233" t="s">
+      <c r="D78" s="214" t="s">
         <v>235</v>
       </c>
-      <c r="E78" s="199" t="s">
-        <v>764</v>
-      </c>
-      <c r="F78" s="200">
+      <c r="E78" s="188" t="s">
+        <v>686</v>
+      </c>
+      <c r="F78" s="189">
         <v>100</v>
       </c>
-      <c r="G78" s="200">
+      <c r="G78" s="189">
         <v>41</v>
       </c>
     </row>
     <row r="79" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="198">
+      <c r="C79" s="187">
         <v>12</v>
       </c>
-      <c r="D79" s="233" t="s">
+      <c r="D79" s="214" t="s">
         <v>266</v>
       </c>
-      <c r="E79" s="199" t="s">
-        <v>765</v>
-      </c>
-      <c r="F79" s="200">
+      <c r="E79" s="188" t="s">
+        <v>687</v>
+      </c>
+      <c r="F79" s="189">
         <v>40</v>
       </c>
-      <c r="G79" s="200">
+      <c r="G79" s="189">
         <v>24</v>
       </c>
     </row>
     <row r="80" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="198">
+      <c r="C80" s="187">
         <v>13</v>
       </c>
-      <c r="D80" s="233" t="s">
+      <c r="D80" s="214" t="s">
         <v>280</v>
       </c>
-      <c r="E80" s="199" t="s">
+      <c r="E80" s="188" t="s">
         <v>281</v>
       </c>
-      <c r="F80" s="200">
+      <c r="F80" s="189">
         <v>95</v>
       </c>
-      <c r="G80" s="200">
+      <c r="G80" s="189">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="3:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="198">
+      <c r="C81" s="187">
         <v>14</v>
       </c>
-      <c r="D81" s="233" t="s">
+      <c r="D81" s="214" t="s">
         <v>275</v>
       </c>
-      <c r="E81" s="199" t="s">
+      <c r="E81" s="188" t="s">
         <v>276</v>
       </c>
-      <c r="F81" s="200">
+      <c r="F81" s="189">
         <v>65</v>
       </c>
-      <c r="G81" s="200">
+      <c r="G81" s="189">
         <v>32</v>
       </c>
     </row>
     <row r="82" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="198">
+      <c r="C82" s="187">
         <v>15</v>
       </c>
-      <c r="D82" s="200" t="s">
-        <v>766</v>
-      </c>
-      <c r="E82" s="199" t="s">
-        <v>767</v>
-      </c>
-      <c r="F82" s="200">
+      <c r="D82" s="189" t="s">
+        <v>688</v>
+      </c>
+      <c r="E82" s="188" t="s">
+        <v>689</v>
+      </c>
+      <c r="F82" s="189">
         <v>160</v>
       </c>
-      <c r="G82" s="200">
+      <c r="G82" s="189">
         <v>57</v>
       </c>
     </row>
     <row r="83" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="198">
+      <c r="C83" s="187">
         <v>16</v>
       </c>
-      <c r="D83" s="200" t="s">
-        <v>766</v>
-      </c>
-      <c r="E83" s="199" t="s">
-        <v>685</v>
-      </c>
-      <c r="F83" s="200">
+      <c r="D83" s="189" t="s">
+        <v>688</v>
+      </c>
+      <c r="E83" s="188" t="s">
+        <v>607</v>
+      </c>
+      <c r="F83" s="189">
         <v>65</v>
       </c>
-      <c r="G83" s="200">
+      <c r="G83" s="189">
         <v>32</v>
       </c>
     </row>
     <row r="84" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="198">
+      <c r="C84" s="187">
         <v>17</v>
       </c>
-      <c r="D84" s="200" t="s">
-        <v>766</v>
-      </c>
-      <c r="E84" s="199" t="s">
-        <v>768</v>
-      </c>
-      <c r="F84" s="200">
+      <c r="D84" s="189" t="s">
+        <v>688</v>
+      </c>
+      <c r="E84" s="188" t="s">
+        <v>690</v>
+      </c>
+      <c r="F84" s="189">
         <v>65</v>
       </c>
-      <c r="G84" s="200">
+      <c r="G84" s="189">
         <v>32</v>
       </c>
     </row>
     <row r="85" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="198">
+      <c r="C85" s="187">
         <v>18</v>
       </c>
-      <c r="D85" s="200" t="s">
-        <v>766</v>
-      </c>
-      <c r="E85" s="199" t="s">
-        <v>769</v>
-      </c>
-      <c r="F85" s="200">
+      <c r="D85" s="189" t="s">
+        <v>688</v>
+      </c>
+      <c r="E85" s="188" t="s">
+        <v>691</v>
+      </c>
+      <c r="F85" s="189">
         <v>65</v>
       </c>
-      <c r="G85" s="200">
+      <c r="G85" s="189">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="198">
+      <c r="C86" s="187">
         <v>19</v>
       </c>
-      <c r="D86" s="200" t="s">
-        <v>766</v>
-      </c>
-      <c r="E86" s="199" t="s">
+      <c r="D86" s="189" t="s">
+        <v>688</v>
+      </c>
+      <c r="E86" s="188" t="s">
         <v>145</v>
       </c>
-      <c r="F86" s="200">
+      <c r="F86" s="189">
         <v>250</v>
       </c>
-      <c r="G86" s="200">
+      <c r="G86" s="189">
         <v>74</v>
       </c>
     </row>
     <row r="87" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C87" s="201"/>
-      <c r="D87" s="201"/>
-      <c r="E87" s="202" t="s">
+      <c r="C87" s="190"/>
+      <c r="D87" s="190"/>
+      <c r="E87" s="191" t="s">
         <v>175</v>
       </c>
-      <c r="F87" s="197">
+      <c r="F87" s="186">
         <v>2565</v>
       </c>
-      <c r="G87" s="203">
+      <c r="G87" s="192">
         <f>SUM(G68:G86)</f>
         <v>1147</v>
       </c>
@@ -8914,56 +8335,56 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="139" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>162</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>75</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>76</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>544</v>
+        <v>489</v>
       </c>
       <c r="J2" s="19" t="s">
         <v>77</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>125</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>128</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="R2" s="38" t="s">
         <v>79</v>
@@ -9459,20 +8880,20 @@
       <c r="D13" s="95">
         <v>17</v>
       </c>
-      <c r="E13" s="150" t="s">
-        <v>547</v>
+      <c r="E13" s="140" t="s">
+        <v>492</v>
       </c>
       <c r="F13" s="95">
         <v>9</v>
       </c>
-      <c r="G13" s="151" t="s">
-        <v>548</v>
+      <c r="G13" s="141" t="s">
+        <v>493</v>
       </c>
       <c r="H13" s="95">
         <v>9</v>
       </c>
-      <c r="I13" s="152" t="s">
-        <v>549</v>
+      <c r="I13" s="142" t="s">
+        <v>494</v>
       </c>
       <c r="J13" s="95">
         <v>1</v>
@@ -9483,19 +8904,19 @@
       <c r="L13" s="95">
         <v>1</v>
       </c>
-      <c r="M13" s="152" t="s">
+      <c r="M13" s="142" t="s">
         <v>101</v>
       </c>
       <c r="N13" s="95">
         <v>1</v>
       </c>
-      <c r="O13" s="152" t="s">
+      <c r="O13" s="142" t="s">
         <v>101</v>
       </c>
       <c r="P13" s="95">
         <v>1</v>
       </c>
-      <c r="Q13" s="152" t="s">
+      <c r="Q13" s="142" t="s">
         <v>101</v>
       </c>
       <c r="R13" s="6">
@@ -10513,14 +9934,14 @@
       <c r="F35" s="95">
         <v>8</v>
       </c>
-      <c r="G35" s="152" t="s">
-        <v>550</v>
+      <c r="G35" s="142" t="s">
+        <v>495</v>
       </c>
       <c r="H35" s="95">
         <v>8</v>
       </c>
-      <c r="I35" s="152" t="s">
-        <v>550</v>
+      <c r="I35" s="142" t="s">
+        <v>495</v>
       </c>
       <c r="J35" s="95">
         <v>1</v>
@@ -10589,7 +10010,7 @@
       <c r="L36" s="95">
         <v>1</v>
       </c>
-      <c r="M36" s="152" t="s">
+      <c r="M36" s="142" t="s">
         <v>120</v>
       </c>
       <c r="N36" s="95">
@@ -10627,14 +10048,14 @@
       <c r="F37" s="95">
         <v>8</v>
       </c>
-      <c r="G37" s="150" t="s">
-        <v>551</v>
+      <c r="G37" s="140" t="s">
+        <v>496</v>
       </c>
       <c r="H37" s="95">
         <v>8</v>
       </c>
-      <c r="I37" s="153" t="s">
-        <v>552</v>
+      <c r="I37" s="143" t="s">
+        <v>497</v>
       </c>
       <c r="J37" s="95">
         <v>1</v>
@@ -10964,7 +10385,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="95" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="H43" s="95">
         <v>4</v>
@@ -11166,7 +10587,7 @@
         <v>12</v>
       </c>
       <c r="I47" s="127" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
       <c r="J47" s="95">
         <v>1</v>
@@ -11269,20 +10690,20 @@
       <c r="D49" s="95">
         <v>8</v>
       </c>
-      <c r="E49" s="150" t="s">
-        <v>555</v>
+      <c r="E49" s="140" t="s">
+        <v>500</v>
       </c>
       <c r="F49" s="95">
         <v>4</v>
       </c>
-      <c r="G49" s="152" t="s">
-        <v>556</v>
+      <c r="G49" s="142" t="s">
+        <v>501</v>
       </c>
       <c r="H49" s="95">
         <v>4</v>
       </c>
-      <c r="I49" s="152" t="s">
-        <v>556</v>
+      <c r="I49" s="142" t="s">
+        <v>501</v>
       </c>
       <c r="J49" s="95">
         <v>1</v>
@@ -11293,19 +10714,19 @@
       <c r="L49" s="95">
         <v>1</v>
       </c>
-      <c r="M49" s="153" t="s">
+      <c r="M49" s="143" t="s">
         <v>120</v>
       </c>
       <c r="N49" s="95">
         <v>1</v>
       </c>
-      <c r="O49" s="153" t="s">
+      <c r="O49" s="143" t="s">
         <v>120</v>
       </c>
       <c r="P49" s="95">
         <v>1</v>
       </c>
-      <c r="Q49" s="153" t="s">
+      <c r="Q49" s="143" t="s">
         <v>120</v>
       </c>
       <c r="R49" s="6">
@@ -11352,13 +10773,13 @@
         <v>1</v>
       </c>
       <c r="M50" s="95" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="N50" s="95">
         <v>1</v>
       </c>
       <c r="O50" s="95" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="P50" s="95">
         <v>1</v>
@@ -11965,20 +11386,20 @@
       <c r="L61" s="95">
         <v>1</v>
       </c>
-      <c r="M61" s="152" t="s">
+      <c r="M61" s="142" t="s">
         <v>120</v>
       </c>
       <c r="N61" s="95">
         <v>1</v>
       </c>
-      <c r="O61" s="152" t="s">
+      <c r="O61" s="142" t="s">
         <v>120</v>
       </c>
       <c r="P61" s="95">
         <v>1</v>
       </c>
-      <c r="Q61" s="152" t="s">
-        <v>558</v>
+      <c r="Q61" s="142" t="s">
+        <v>503</v>
       </c>
       <c r="R61" s="6">
         <f t="shared" si="1"/>
@@ -12023,20 +11444,20 @@
       <c r="L62" s="95">
         <v>1</v>
       </c>
-      <c r="M62" s="152" t="s">
+      <c r="M62" s="142" t="s">
         <v>120</v>
       </c>
       <c r="N62" s="95">
         <v>1</v>
       </c>
-      <c r="O62" s="152" t="s">
+      <c r="O62" s="142" t="s">
         <v>120</v>
       </c>
       <c r="P62" s="95">
         <v>1</v>
       </c>
-      <c r="Q62" s="152" t="s">
-        <v>558</v>
+      <c r="Q62" s="142" t="s">
+        <v>503</v>
       </c>
       <c r="R62" s="6">
         <f t="shared" si="1"/>
@@ -12063,14 +11484,14 @@
       <c r="F63" s="95">
         <v>16</v>
       </c>
-      <c r="G63" s="153" t="s">
-        <v>559</v>
+      <c r="G63" s="143" t="s">
+        <v>504</v>
       </c>
       <c r="H63" s="95">
         <v>16</v>
       </c>
-      <c r="I63" s="153" t="s">
-        <v>560</v>
+      <c r="I63" s="143" t="s">
+        <v>505</v>
       </c>
       <c r="J63" s="95">
         <v>1</v>
@@ -12081,20 +11502,20 @@
       <c r="L63" s="95">
         <v>1</v>
       </c>
-      <c r="M63" s="152" t="s">
+      <c r="M63" s="142" t="s">
         <v>120</v>
       </c>
       <c r="N63" s="95">
         <v>1</v>
       </c>
-      <c r="O63" s="152" t="s">
+      <c r="O63" s="142" t="s">
         <v>120</v>
       </c>
       <c r="P63" s="95">
         <v>1</v>
       </c>
-      <c r="Q63" s="152" t="s">
-        <v>558</v>
+      <c r="Q63" s="142" t="s">
+        <v>503</v>
       </c>
       <c r="R63" s="6">
         <f t="shared" si="1"/>
@@ -12207,20 +11628,20 @@
       <c r="D66" s="95">
         <v>16</v>
       </c>
-      <c r="E66" s="150" t="s">
-        <v>561</v>
+      <c r="E66" s="140" t="s">
+        <v>506</v>
       </c>
       <c r="F66" s="95">
         <v>8</v>
       </c>
-      <c r="G66" s="153" t="s">
-        <v>562</v>
+      <c r="G66" s="143" t="s">
+        <v>507</v>
       </c>
       <c r="H66" s="95">
         <v>8</v>
       </c>
-      <c r="I66" s="153" t="s">
-        <v>563</v>
+      <c r="I66" s="143" t="s">
+        <v>508</v>
       </c>
       <c r="J66" s="95">
         <v>1</v>
@@ -12287,7 +11708,7 @@
       <c r="U67"/>
     </row>
     <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="166" t="s">
+      <c r="C68" s="156" t="s">
         <v>294</v>
       </c>
       <c r="K68" s="95" t="s">
@@ -12306,7 +11727,7 @@
       <c r="R68" s="95"/>
     </row>
     <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="166" t="s">
+      <c r="C69" s="156" t="s">
         <v>367</v>
       </c>
       <c r="K69" s="95" t="s">
@@ -12316,7 +11737,7 @@
         <v>5</v>
       </c>
       <c r="M69" s="95" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="N69" s="95"/>
       <c r="O69" s="95"/>
@@ -12325,7 +11746,7 @@
       <c r="R69" s="95"/>
     </row>
     <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="166" t="s">
+      <c r="C70" s="156" t="s">
         <v>368</v>
       </c>
       <c r="K70" s="95" t="s">
@@ -12335,7 +11756,7 @@
         <v>15</v>
       </c>
       <c r="M70" s="95" t="s">
-        <v>667</v>
+        <v>591</v>
       </c>
       <c r="N70" s="95"/>
       <c r="O70" s="95"/>
@@ -12344,7 +11765,7 @@
       <c r="R70" s="95"/>
     </row>
     <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="166" t="s">
+      <c r="C71" s="156" t="s">
         <v>209</v>
       </c>
       <c r="K71" s="95" t="s">
@@ -12359,8 +11780,8 @@
       <c r="R71" s="95"/>
     </row>
     <row r="72" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="167" t="s">
-        <v>665</v>
+      <c r="C72" s="157" t="s">
+        <v>589</v>
       </c>
       <c r="L72" s="95">
         <v>1</v>
@@ -12376,33 +11797,33 @@
     </row>
     <row r="73" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E76" s="154"/>
+      <c r="E76" s="144"/>
       <c r="F76" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E77" s="155"/>
+      <c r="E77" s="145"/>
       <c r="F77" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E78" s="156"/>
+      <c r="E78" s="146"/>
       <c r="F78" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E79" s="157"/>
+      <c r="E79" s="147"/>
       <c r="F79" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E80" s="158"/>
+      <c r="E80" s="148"/>
       <c r="F80" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -12456,50 +11877,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="139" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>87</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>85</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="L1" s="22" t="s">
         <v>86</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>126</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>79</v>
@@ -12785,14 +12206,14 @@
       <c r="L7" s="28">
         <v>2</v>
       </c>
-      <c r="M7" s="150" t="s">
-        <v>574</v>
+      <c r="M7" s="140" t="s">
+        <v>519</v>
       </c>
       <c r="N7" s="28">
         <v>2</v>
       </c>
-      <c r="O7" s="150" t="s">
-        <v>574</v>
+      <c r="O7" s="140" t="s">
+        <v>519</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="0"/>
@@ -13016,38 +12437,38 @@
       <c r="D12" s="28">
         <v>9</v>
       </c>
-      <c r="E12" s="159" t="s">
-        <v>575</v>
+      <c r="E12" s="149" t="s">
+        <v>520</v>
       </c>
       <c r="F12" s="28">
         <v>6</v>
       </c>
-      <c r="G12" s="159" t="s">
-        <v>576</v>
+      <c r="G12" s="149" t="s">
+        <v>521</v>
       </c>
       <c r="H12" s="28">
         <v>6</v>
       </c>
-      <c r="I12" s="150" t="s">
-        <v>577</v>
+      <c r="I12" s="140" t="s">
+        <v>522</v>
       </c>
       <c r="J12" s="28">
         <v>4</v>
       </c>
-      <c r="K12" s="150" t="s">
-        <v>578</v>
+      <c r="K12" s="140" t="s">
+        <v>523</v>
       </c>
       <c r="L12" s="28">
         <v>2</v>
       </c>
-      <c r="M12" s="150" t="s">
-        <v>579</v>
+      <c r="M12" s="140" t="s">
+        <v>524</v>
       </c>
       <c r="N12" s="28">
         <v>2</v>
       </c>
-      <c r="O12" s="150" t="s">
-        <v>579</v>
+      <c r="O12" s="140" t="s">
+        <v>524</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="0"/>
@@ -14327,8 +13748,8 @@
       <c r="F38" s="28">
         <v>4</v>
       </c>
-      <c r="G38" s="150" t="s">
-        <v>580</v>
+      <c r="G38" s="140" t="s">
+        <v>525</v>
       </c>
       <c r="H38" s="28">
         <v>4</v>
@@ -14378,8 +13799,8 @@
       <c r="F39" s="28">
         <v>4</v>
       </c>
-      <c r="G39" s="150" t="s">
-        <v>580</v>
+      <c r="G39" s="140" t="s">
+        <v>525</v>
       </c>
       <c r="H39" s="28">
         <v>4</v>
@@ -14531,13 +13952,13 @@
       <c r="F42" s="28">
         <v>2</v>
       </c>
-      <c r="G42" s="160" t="s">
-        <v>581</v>
+      <c r="G42" s="150" t="s">
+        <v>526</v>
       </c>
       <c r="H42" s="28">
         <v>2</v>
       </c>
-      <c r="I42" s="151" t="s">
+      <c r="I42" s="141" t="s">
         <v>467</v>
       </c>
       <c r="J42" s="28">
@@ -14831,37 +14252,37 @@
       <c r="D48" s="28">
         <v>4</v>
       </c>
-      <c r="E48" s="150" t="s">
-        <v>582</v>
+      <c r="E48" s="140" t="s">
+        <v>527</v>
       </c>
       <c r="F48" s="28">
         <v>2</v>
       </c>
-      <c r="G48" s="150" t="s">
-        <v>580</v>
+      <c r="G48" s="140" t="s">
+        <v>525</v>
       </c>
       <c r="H48" s="28">
         <v>2</v>
       </c>
-      <c r="I48" s="150" t="s">
-        <v>583</v>
+      <c r="I48" s="140" t="s">
+        <v>528</v>
       </c>
       <c r="J48" s="28">
         <v>2</v>
       </c>
-      <c r="K48" s="150" t="s">
+      <c r="K48" s="140" t="s">
         <v>318</v>
       </c>
       <c r="L48" s="28">
         <v>2</v>
       </c>
-      <c r="M48" s="150" t="s">
-        <v>584</v>
+      <c r="M48" s="140" t="s">
+        <v>529</v>
       </c>
       <c r="N48" s="28">
         <v>2</v>
       </c>
-      <c r="O48" s="150" t="s">
+      <c r="O48" s="140" t="s">
         <v>323</v>
       </c>
       <c r="P48" s="6">
@@ -15104,7 +14525,7 @@
       <c r="J53" s="28">
         <v>4</v>
       </c>
-      <c r="K53" s="150" t="s">
+      <c r="K53" s="140" t="s">
         <v>318</v>
       </c>
       <c r="L53" s="28">
@@ -15545,14 +14966,14 @@
       <c r="D62" s="28">
         <v>16</v>
       </c>
-      <c r="E62" s="150" t="s">
-        <v>556</v>
+      <c r="E62" s="140" t="s">
+        <v>501</v>
       </c>
       <c r="F62" s="28">
         <v>10</v>
       </c>
-      <c r="G62" s="150" t="s">
-        <v>580</v>
+      <c r="G62" s="140" t="s">
+        <v>525</v>
       </c>
       <c r="H62" s="28">
         <v>10</v>
@@ -15621,7 +15042,7 @@
         <v>2</v>
       </c>
       <c r="M63" s="134" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="N63" s="28">
         <v>2</v>
@@ -15648,13 +15069,13 @@
         <v>8</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="F64" s="28">
         <v>5</v>
       </c>
-      <c r="G64" s="151" t="s">
-        <v>587</v>
+      <c r="G64" s="141" t="s">
+        <v>532</v>
       </c>
       <c r="H64" s="28">
         <v>5</v>
@@ -15698,37 +15119,37 @@
       <c r="D65" s="28">
         <v>8</v>
       </c>
-      <c r="E65" s="150" t="s">
-        <v>588</v>
+      <c r="E65" s="140" t="s">
+        <v>533</v>
       </c>
       <c r="F65" s="28">
         <v>5</v>
       </c>
-      <c r="G65" s="150" t="s">
-        <v>581</v>
+      <c r="G65" s="140" t="s">
+        <v>526</v>
       </c>
       <c r="H65" s="28">
         <v>5</v>
       </c>
-      <c r="I65" s="150" t="s">
-        <v>583</v>
+      <c r="I65" s="140" t="s">
+        <v>528</v>
       </c>
       <c r="J65" s="28">
         <v>3</v>
       </c>
-      <c r="K65" s="150" t="s">
+      <c r="K65" s="140" t="s">
         <v>318</v>
       </c>
       <c r="L65" s="28">
         <v>2</v>
       </c>
-      <c r="M65" s="150" t="s">
-        <v>584</v>
+      <c r="M65" s="140" t="s">
+        <v>529</v>
       </c>
       <c r="N65" s="28">
         <v>2</v>
       </c>
-      <c r="O65" s="150" t="s">
+      <c r="O65" s="140" t="s">
         <v>323</v>
       </c>
       <c r="P65" s="6">
@@ -15846,31 +15267,31 @@
         <v>149</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>150</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>590</v>
+        <v>535</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>151</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>152</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>159</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>592</v>
+        <v>537</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>153</v>
@@ -15888,7 +15309,7 @@
         <v>155</v>
       </c>
       <c r="S1" s="31" t="s">
-        <v>593</v>
+        <v>538</v>
       </c>
       <c r="T1" s="38" t="s">
         <v>79</v>
@@ -16132,8 +15553,8 @@
       <c r="P5" s="28">
         <v>4</v>
       </c>
-      <c r="Q5" s="161" t="s">
-        <v>594</v>
+      <c r="Q5" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R5" s="28">
         <v>17</v>
@@ -16512,50 +15933,50 @@
       <c r="D12" s="28">
         <v>9</v>
       </c>
-      <c r="E12" s="159" t="s">
-        <v>595</v>
+      <c r="E12" s="149" t="s">
+        <v>540</v>
       </c>
       <c r="F12" s="28">
         <v>9</v>
       </c>
-      <c r="G12" s="159" t="s">
-        <v>596</v>
+      <c r="G12" s="149" t="s">
+        <v>541</v>
       </c>
       <c r="H12" s="28">
         <v>9</v>
       </c>
-      <c r="I12" s="159" t="s">
-        <v>597</v>
+      <c r="I12" s="149" t="s">
+        <v>542</v>
       </c>
       <c r="J12" s="28">
         <v>9</v>
       </c>
-      <c r="K12" s="151" t="s">
-        <v>598</v>
+      <c r="K12" s="141" t="s">
+        <v>543</v>
       </c>
       <c r="L12" s="28">
         <v>1</v>
       </c>
-      <c r="M12" s="150" t="s">
+      <c r="M12" s="140" t="s">
         <v>119</v>
       </c>
       <c r="N12" s="28">
         <v>6</v>
       </c>
-      <c r="O12" s="151" t="s">
-        <v>599</v>
+      <c r="O12" s="141" t="s">
+        <v>544</v>
       </c>
       <c r="P12" s="28">
         <v>4</v>
       </c>
-      <c r="Q12" s="151" t="s">
-        <v>600</v>
+      <c r="Q12" s="141" t="s">
+        <v>545</v>
       </c>
       <c r="R12" s="28">
         <v>17</v>
       </c>
-      <c r="S12" s="159" t="s">
-        <v>601</v>
+      <c r="S12" s="149" t="s">
+        <v>546</v>
       </c>
       <c r="T12" s="29">
         <v>64</v>
@@ -16634,25 +16055,25 @@
       <c r="D14" s="28">
         <v>5</v>
       </c>
-      <c r="E14" s="161" t="s">
-        <v>602</v>
+      <c r="E14" s="151" t="s">
+        <v>547</v>
       </c>
       <c r="F14" s="28">
         <v>5</v>
       </c>
-      <c r="G14" s="161" t="s">
-        <v>603</v>
+      <c r="G14" s="151" t="s">
+        <v>548</v>
       </c>
       <c r="H14" s="28">
         <v>5</v>
       </c>
-      <c r="I14" s="161" t="s">
-        <v>603</v>
+      <c r="I14" s="151" t="s">
+        <v>548</v>
       </c>
       <c r="J14" s="28">
         <v>5</v>
       </c>
-      <c r="K14" s="161" t="s">
+      <c r="K14" s="151" t="s">
         <v>363</v>
       </c>
       <c r="L14" s="28">
@@ -16676,8 +16097,8 @@
       <c r="R14" s="28">
         <v>9</v>
       </c>
-      <c r="S14" s="161" t="s">
-        <v>604</v>
+      <c r="S14" s="151" t="s">
+        <v>549</v>
       </c>
       <c r="T14" s="29">
         <v>36</v>
@@ -16794,8 +16215,8 @@
       <c r="P16" s="28">
         <v>2</v>
       </c>
-      <c r="Q16" s="161" t="s">
-        <v>605</v>
+      <c r="Q16" s="151" t="s">
+        <v>550</v>
       </c>
       <c r="R16" s="28">
         <v>9</v>
@@ -16854,14 +16275,14 @@
       <c r="P17" s="28">
         <v>1</v>
       </c>
-      <c r="Q17" s="150" t="s">
+      <c r="Q17" s="140" t="s">
         <v>362</v>
       </c>
       <c r="R17" s="28">
         <v>2</v>
       </c>
-      <c r="S17" s="161" t="s">
-        <v>606</v>
+      <c r="S17" s="151" t="s">
+        <v>551</v>
       </c>
       <c r="T17" s="29">
         <v>8</v>
@@ -16938,8 +16359,8 @@
       <c r="D19" s="28">
         <v>1</v>
       </c>
-      <c r="E19" s="161" t="s">
-        <v>607</v>
+      <c r="E19" s="151" t="s">
+        <v>552</v>
       </c>
       <c r="F19" s="28">
         <v>1</v>
@@ -16974,13 +16395,13 @@
       <c r="P19" s="28">
         <v>1</v>
       </c>
-      <c r="Q19" s="161" t="s">
-        <v>594</v>
+      <c r="Q19" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R19" s="28">
         <v>2</v>
       </c>
-      <c r="S19" s="161" t="s">
+      <c r="S19" s="151" t="s">
         <v>447</v>
       </c>
       <c r="T19" s="29">
@@ -17464,20 +16885,20 @@
       <c r="N27" s="28">
         <v>1</v>
       </c>
-      <c r="O27" s="150" t="s">
-        <v>608</v>
+      <c r="O27" s="140" t="s">
+        <v>553</v>
       </c>
       <c r="P27" s="28">
         <v>1</v>
       </c>
-      <c r="Q27" s="150" t="s">
+      <c r="Q27" s="140" t="s">
         <v>361</v>
       </c>
       <c r="R27" s="28">
         <v>1</v>
       </c>
-      <c r="S27" s="150" t="s">
-        <v>550</v>
+      <c r="S27" s="140" t="s">
+        <v>495</v>
       </c>
       <c r="T27" s="29">
         <v>8</v>
@@ -17842,13 +17263,13 @@
       <c r="P33" s="28">
         <v>4</v>
       </c>
-      <c r="Q33" s="161" t="s">
-        <v>594</v>
+      <c r="Q33" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R33" s="28">
         <v>16</v>
       </c>
-      <c r="S33" s="161" t="s">
+      <c r="S33" s="151" t="s">
         <v>447</v>
       </c>
       <c r="T33" s="29">
@@ -17966,8 +17387,8 @@
       <c r="P35" s="28">
         <v>4</v>
       </c>
-      <c r="Q35" s="161" t="s">
-        <v>594</v>
+      <c r="Q35" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R35" s="28">
         <v>16</v>
@@ -17998,32 +17419,32 @@
       <c r="F36" s="28">
         <v>8</v>
       </c>
-      <c r="G36" s="161" t="s">
+      <c r="G36" s="151" t="s">
         <v>350</v>
       </c>
       <c r="H36" s="28">
         <v>8</v>
       </c>
-      <c r="I36" s="161" t="s">
+      <c r="I36" s="151" t="s">
         <v>350</v>
       </c>
       <c r="J36" s="28">
         <v>8</v>
       </c>
-      <c r="K36" s="161" t="s">
+      <c r="K36" s="151" t="s">
         <v>350</v>
       </c>
       <c r="L36" s="28">
         <v>1</v>
       </c>
-      <c r="M36" s="150" t="s">
+      <c r="M36" s="140" t="s">
         <v>148</v>
       </c>
       <c r="N36" s="28">
         <v>4</v>
       </c>
-      <c r="O36" s="162" t="s">
-        <v>609</v>
+      <c r="O36" s="152" t="s">
+        <v>554</v>
       </c>
       <c r="P36" s="28">
         <v>4</v>
@@ -18034,7 +17455,7 @@
       <c r="R36" s="28">
         <v>16</v>
       </c>
-      <c r="S36" s="163" t="s">
+      <c r="S36" s="153" t="s">
         <v>467</v>
       </c>
       <c r="T36" s="29">
@@ -18116,7 +17537,7 @@
       <c r="D38" s="28">
         <v>8</v>
       </c>
-      <c r="E38" s="150" t="s">
+      <c r="E38" s="140" t="s">
         <v>350</v>
       </c>
       <c r="F38" s="28">
@@ -18152,14 +17573,14 @@
       <c r="P38" s="28">
         <v>4</v>
       </c>
-      <c r="Q38" s="161" t="s">
-        <v>594</v>
+      <c r="Q38" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R38" s="28">
         <v>16</v>
       </c>
-      <c r="S38" s="164" t="s">
-        <v>610</v>
+      <c r="S38" s="154" t="s">
+        <v>555</v>
       </c>
       <c r="T38" s="29">
         <v>57</v>
@@ -18214,8 +17635,8 @@
       <c r="P39" s="28">
         <v>4</v>
       </c>
-      <c r="Q39" s="161" t="s">
-        <v>594</v>
+      <c r="Q39" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R39" s="28">
         <v>16</v>
@@ -18282,7 +17703,7 @@
       <c r="R40" s="28">
         <v>16</v>
       </c>
-      <c r="S40" s="161" t="s">
+      <c r="S40" s="151" t="s">
         <v>447</v>
       </c>
       <c r="T40" s="29">
@@ -18364,25 +17785,25 @@
       <c r="D42" s="28">
         <v>4</v>
       </c>
-      <c r="E42" s="151" t="s">
-        <v>611</v>
+      <c r="E42" s="141" t="s">
+        <v>556</v>
       </c>
       <c r="F42" s="28">
         <v>4</v>
       </c>
-      <c r="G42" s="151" t="s">
-        <v>612</v>
+      <c r="G42" s="141" t="s">
+        <v>557</v>
       </c>
       <c r="H42" s="28">
         <v>4</v>
       </c>
-      <c r="I42" s="151" t="s">
-        <v>611</v>
+      <c r="I42" s="141" t="s">
+        <v>556</v>
       </c>
       <c r="J42" s="28">
         <v>4</v>
       </c>
-      <c r="K42" s="151" t="s">
+      <c r="K42" s="141" t="s">
         <v>473</v>
       </c>
       <c r="L42" s="28">
@@ -18394,20 +17815,20 @@
       <c r="N42" s="28">
         <v>2</v>
       </c>
-      <c r="O42" s="151" t="s">
+      <c r="O42" s="141" t="s">
         <v>362</v>
       </c>
       <c r="P42" s="28">
         <v>2</v>
       </c>
-      <c r="Q42" s="150" t="s">
+      <c r="Q42" s="140" t="s">
         <v>360</v>
       </c>
       <c r="R42" s="28">
         <v>8</v>
       </c>
-      <c r="S42" s="151" t="s">
-        <v>562</v>
+      <c r="S42" s="141" t="s">
+        <v>507</v>
       </c>
       <c r="T42" s="29">
         <v>29</v>
@@ -18432,7 +17853,7 @@
       <c r="F43" s="28">
         <v>5</v>
       </c>
-      <c r="G43" s="150" t="s">
+      <c r="G43" s="140" t="s">
         <v>473</v>
       </c>
       <c r="H43" s="28">
@@ -18655,7 +18076,7 @@
         <v>24</v>
       </c>
       <c r="S46" s="126" t="s">
-        <v>613</v>
+        <v>558</v>
       </c>
       <c r="T46" s="29">
         <v>85</v>
@@ -18736,49 +18157,49 @@
       <c r="D48" s="28">
         <v>4</v>
       </c>
-      <c r="E48" s="150" t="s">
+      <c r="E48" s="140" t="s">
         <v>363</v>
       </c>
       <c r="F48" s="28">
         <v>4</v>
       </c>
-      <c r="G48" s="151" t="s">
-        <v>582</v>
+      <c r="G48" s="141" t="s">
+        <v>527</v>
       </c>
       <c r="H48" s="28">
         <v>4</v>
       </c>
-      <c r="I48" s="151" t="s">
+      <c r="I48" s="141" t="s">
         <v>473</v>
       </c>
       <c r="J48" s="28">
         <v>4</v>
       </c>
-      <c r="K48" s="151" t="s">
+      <c r="K48" s="141" t="s">
         <v>396</v>
       </c>
       <c r="L48" s="28">
         <v>1</v>
       </c>
-      <c r="M48" s="150" t="s">
+      <c r="M48" s="140" t="s">
         <v>409</v>
       </c>
       <c r="N48" s="28">
         <v>2</v>
       </c>
-      <c r="O48" s="150" t="s">
+      <c r="O48" s="140" t="s">
         <v>430</v>
       </c>
       <c r="P48" s="28">
         <v>2</v>
       </c>
-      <c r="Q48" s="150" t="s">
+      <c r="Q48" s="140" t="s">
         <v>360</v>
       </c>
       <c r="R48" s="28">
         <v>8</v>
       </c>
-      <c r="S48" s="161" t="s">
+      <c r="S48" s="151" t="s">
         <v>418</v>
       </c>
       <c r="T48" s="29">
@@ -18829,7 +18250,7 @@
         <v>6</v>
       </c>
       <c r="O49" s="130" t="s">
-        <v>614</v>
+        <v>559</v>
       </c>
       <c r="P49" s="28">
         <v>4</v>
@@ -18841,7 +18262,7 @@
         <v>17</v>
       </c>
       <c r="S49" s="130" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="T49" s="29">
         <v>64</v>
@@ -18958,8 +18379,8 @@
       <c r="P51" s="28">
         <v>4</v>
       </c>
-      <c r="Q51" s="161" t="s">
-        <v>594</v>
+      <c r="Q51" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R51" s="28">
         <v>17</v>
@@ -19047,7 +18468,7 @@
         <v>9</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>616</v>
+        <v>561</v>
       </c>
       <c r="F53" s="28">
         <v>9</v>
@@ -19077,12 +18498,12 @@
         <v>6</v>
       </c>
       <c r="O53" s="28" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="P53" s="28">
         <v>4</v>
       </c>
-      <c r="Q53" s="150" t="s">
+      <c r="Q53" s="140" t="s">
         <v>360</v>
       </c>
       <c r="R53" s="28">
@@ -19138,7 +18559,7 @@
       <c r="N54" s="28">
         <v>6</v>
       </c>
-      <c r="O54" s="150" t="s">
+      <c r="O54" s="140" t="s">
         <v>430</v>
       </c>
       <c r="P54" s="28">
@@ -19398,7 +18819,7 @@
       <c r="R58" s="28">
         <v>1</v>
       </c>
-      <c r="S58" s="161" t="s">
+      <c r="S58" s="151" t="s">
         <v>447</v>
       </c>
       <c r="T58" s="29">
@@ -19454,13 +18875,13 @@
       <c r="P59" s="28">
         <v>1</v>
       </c>
-      <c r="Q59" s="161" t="s">
-        <v>594</v>
+      <c r="Q59" s="151" t="s">
+        <v>539</v>
       </c>
       <c r="R59" s="28">
         <v>1</v>
       </c>
-      <c r="S59" s="161" t="s">
+      <c r="S59" s="151" t="s">
         <v>447</v>
       </c>
       <c r="T59" s="29">
@@ -19480,25 +18901,25 @@
       <c r="D60" s="28">
         <v>16</v>
       </c>
-      <c r="E60" s="150" t="s">
+      <c r="E60" s="140" t="s">
         <v>350</v>
       </c>
       <c r="F60" s="28">
         <v>16</v>
       </c>
-      <c r="G60" s="150" t="s">
+      <c r="G60" s="140" t="s">
         <v>473</v>
       </c>
       <c r="H60" s="28">
         <v>16</v>
       </c>
-      <c r="I60" s="151" t="s">
-        <v>611</v>
+      <c r="I60" s="141" t="s">
+        <v>556</v>
       </c>
       <c r="J60" s="28">
         <v>16</v>
       </c>
-      <c r="K60" s="151" t="s">
+      <c r="K60" s="141" t="s">
         <v>467</v>
       </c>
       <c r="L60" s="28">
@@ -19510,20 +18931,20 @@
       <c r="N60" s="28">
         <v>10</v>
       </c>
-      <c r="O60" s="150" t="s">
+      <c r="O60" s="140" t="s">
         <v>360</v>
       </c>
       <c r="P60" s="28">
         <v>6</v>
       </c>
-      <c r="Q60" s="150" t="s">
+      <c r="Q60" s="140" t="s">
         <v>317</v>
       </c>
       <c r="R60" s="28">
         <v>32</v>
       </c>
-      <c r="S60" s="151" t="s">
-        <v>618</v>
+      <c r="S60" s="141" t="s">
+        <v>563</v>
       </c>
       <c r="T60" s="29">
         <v>113</v>
@@ -19542,26 +18963,26 @@
       <c r="D61" s="28">
         <v>16</v>
       </c>
-      <c r="E61" s="150" t="s">
+      <c r="E61" s="140" t="s">
         <v>447</v>
       </c>
       <c r="F61" s="28">
         <v>16</v>
       </c>
-      <c r="G61" s="150" t="s">
+      <c r="G61" s="140" t="s">
         <v>447</v>
       </c>
       <c r="H61" s="28">
         <v>16</v>
       </c>
-      <c r="I61" s="150" t="s">
-        <v>619</v>
+      <c r="I61" s="140" t="s">
+        <v>564</v>
       </c>
       <c r="J61" s="28">
         <v>16</v>
       </c>
-      <c r="K61" s="151" t="s">
-        <v>620</v>
+      <c r="K61" s="141" t="s">
+        <v>565</v>
       </c>
       <c r="L61" s="28">
         <v>1</v>
@@ -19572,20 +18993,20 @@
       <c r="N61" s="28">
         <v>10</v>
       </c>
-      <c r="O61" s="150" t="s">
+      <c r="O61" s="140" t="s">
         <v>360</v>
       </c>
       <c r="P61" s="28">
         <v>6</v>
       </c>
-      <c r="Q61" s="150" t="s">
+      <c r="Q61" s="140" t="s">
         <v>317</v>
       </c>
       <c r="R61" s="28">
         <v>32</v>
       </c>
-      <c r="S61" s="150" t="s">
-        <v>621</v>
+      <c r="S61" s="140" t="s">
+        <v>566</v>
       </c>
       <c r="T61" s="29">
         <v>113</v>
@@ -19604,25 +19025,25 @@
       <c r="D62" s="28">
         <v>16</v>
       </c>
-      <c r="E62" s="150" t="s">
+      <c r="E62" s="140" t="s">
         <v>447</v>
       </c>
       <c r="F62" s="28">
         <v>16</v>
       </c>
-      <c r="G62" s="150" t="s">
+      <c r="G62" s="140" t="s">
         <v>447</v>
       </c>
       <c r="H62" s="28">
         <v>16</v>
       </c>
-      <c r="I62" s="150" t="s">
-        <v>619</v>
+      <c r="I62" s="140" t="s">
+        <v>564</v>
       </c>
       <c r="J62" s="28">
         <v>16</v>
       </c>
-      <c r="K62" s="151" t="s">
+      <c r="K62" s="141" t="s">
         <v>467</v>
       </c>
       <c r="L62" s="28">
@@ -19634,20 +19055,20 @@
       <c r="N62" s="28">
         <v>10</v>
       </c>
-      <c r="O62" s="150" t="s">
+      <c r="O62" s="140" t="s">
         <v>360</v>
       </c>
       <c r="P62" s="28">
         <v>6</v>
       </c>
-      <c r="Q62" s="150" t="s">
+      <c r="Q62" s="140" t="s">
         <v>317</v>
       </c>
       <c r="R62" s="28">
         <v>32</v>
       </c>
-      <c r="S62" s="151" t="s">
-        <v>622</v>
+      <c r="S62" s="141" t="s">
+        <v>567</v>
       </c>
       <c r="T62" s="29">
         <v>113</v>
@@ -19697,18 +19118,18 @@
         <v>5</v>
       </c>
       <c r="O63" s="134" t="s">
-        <v>623</v>
+        <v>568</v>
       </c>
       <c r="P63" s="28">
         <v>3</v>
       </c>
-      <c r="Q63" s="150" t="s">
+      <c r="Q63" s="140" t="s">
         <v>317</v>
       </c>
       <c r="R63" s="28">
         <v>16</v>
       </c>
-      <c r="S63" s="150" t="s">
+      <c r="S63" s="140" t="s">
         <v>473</v>
       </c>
       <c r="T63" s="29">
@@ -19764,8 +19185,8 @@
       <c r="P64" s="28">
         <v>3</v>
       </c>
-      <c r="Q64" s="161" t="s">
-        <v>605</v>
+      <c r="Q64" s="151" t="s">
+        <v>550</v>
       </c>
       <c r="R64" s="28">
         <v>16</v>
@@ -19790,50 +19211,50 @@
       <c r="D65" s="28">
         <v>8</v>
       </c>
-      <c r="E65" s="150" t="s">
+      <c r="E65" s="140" t="s">
         <v>467</v>
       </c>
       <c r="F65" s="28">
         <v>8</v>
       </c>
-      <c r="G65" s="150" t="s">
+      <c r="G65" s="140" t="s">
         <v>467</v>
       </c>
       <c r="H65" s="28">
         <v>8</v>
       </c>
-      <c r="I65" s="150" t="s">
+      <c r="I65" s="140" t="s">
         <v>447</v>
       </c>
       <c r="J65" s="28">
         <v>8</v>
       </c>
-      <c r="K65" s="150" t="s">
+      <c r="K65" s="140" t="s">
         <v>447</v>
       </c>
       <c r="L65" s="28">
         <v>1</v>
       </c>
-      <c r="M65" s="150" t="s">
+      <c r="M65" s="140" t="s">
         <v>409</v>
       </c>
       <c r="N65" s="28">
         <v>5</v>
       </c>
-      <c r="O65" s="151" t="s">
+      <c r="O65" s="141" t="s">
         <v>362</v>
       </c>
       <c r="P65" s="28">
         <v>3</v>
       </c>
-      <c r="Q65" s="150" t="s">
+      <c r="Q65" s="140" t="s">
         <v>317</v>
       </c>
       <c r="R65" s="28">
         <v>16</v>
       </c>
-      <c r="S65" s="150" t="s">
-        <v>624</v>
+      <c r="S65" s="140" t="s">
+        <v>569</v>
       </c>
       <c r="T65" s="29">
         <v>57</v>
@@ -19932,20 +19353,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="141" t="s">
+      <c r="C1" s="139" t="s">
         <v>59</v>
       </c>
       <c r="D1" s="32" t="s">
         <v>195</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>589</v>
+        <v>534</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>196</v>
@@ -19963,13 +19384,13 @@
         <v>198</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="L1" s="38" t="s">
         <v>145</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>626</v>
+        <v>571</v>
       </c>
       <c r="N1" s="38" t="s">
         <v>79</v>
@@ -20402,26 +19823,26 @@
       <c r="D12" s="28">
         <v>9</v>
       </c>
-      <c r="E12" s="159" t="s">
-        <v>597</v>
+      <c r="E12" s="149" t="s">
+        <v>542</v>
       </c>
       <c r="F12" s="28">
         <v>4</v>
       </c>
-      <c r="G12" s="151" t="s">
-        <v>627</v>
+      <c r="G12" s="141" t="s">
+        <v>572</v>
       </c>
       <c r="H12" s="28">
         <v>4</v>
       </c>
-      <c r="I12" s="151" t="s">
-        <v>627</v>
+      <c r="I12" s="141" t="s">
+        <v>572</v>
       </c>
       <c r="J12" s="28">
         <v>4</v>
       </c>
-      <c r="K12" s="159" t="s">
-        <v>628</v>
+      <c r="K12" s="149" t="s">
+        <v>573</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -20615,25 +20036,25 @@
       <c r="D17" s="28">
         <v>1</v>
       </c>
-      <c r="E17" s="161" t="s">
-        <v>581</v>
+      <c r="E17" s="151" t="s">
+        <v>526</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
       </c>
-      <c r="G17" s="161" t="s">
+      <c r="G17" s="151" t="s">
         <v>366</v>
       </c>
       <c r="H17" s="28">
         <v>1</v>
       </c>
-      <c r="I17" s="161" t="s">
+      <c r="I17" s="151" t="s">
         <v>366</v>
       </c>
       <c r="J17" s="28">
         <v>1</v>
       </c>
-      <c r="K17" s="161" t="s">
+      <c r="K17" s="151" t="s">
         <v>366</v>
       </c>
       <c r="L17" s="28"/>
@@ -20697,8 +20118,8 @@
       <c r="D19" s="28">
         <v>1</v>
       </c>
-      <c r="E19" s="161" t="s">
-        <v>629</v>
+      <c r="E19" s="151" t="s">
+        <v>574</v>
       </c>
       <c r="F19" s="28">
         <v>1</v>
@@ -20721,8 +20142,8 @@
       <c r="L19" s="28">
         <v>30</v>
       </c>
-      <c r="M19" s="151" t="s">
-        <v>560</v>
+      <c r="M19" s="141" t="s">
+        <v>505</v>
       </c>
       <c r="N19" s="29">
         <f t="shared" si="0"/>
@@ -21045,25 +20466,25 @@
       <c r="D27" s="28">
         <v>1</v>
       </c>
-      <c r="E27" s="150" t="s">
-        <v>630</v>
+      <c r="E27" s="140" t="s">
+        <v>575</v>
       </c>
       <c r="F27" s="28">
         <v>1</v>
       </c>
-      <c r="G27" s="150" t="s">
-        <v>605</v>
+      <c r="G27" s="140" t="s">
+        <v>550</v>
       </c>
       <c r="H27" s="28">
         <v>1</v>
       </c>
-      <c r="I27" s="150" t="s">
-        <v>605</v>
+      <c r="I27" s="140" t="s">
+        <v>550</v>
       </c>
       <c r="J27" s="28">
         <v>1</v>
       </c>
-      <c r="K27" s="150" t="s">
+      <c r="K27" s="140" t="s">
         <v>323</v>
       </c>
       <c r="L27" s="28"/>
@@ -21336,25 +20757,25 @@
       <c r="D34" s="28">
         <v>8</v>
       </c>
-      <c r="E34" s="161" t="s">
-        <v>629</v>
+      <c r="E34" s="151" t="s">
+        <v>574</v>
       </c>
       <c r="F34" s="28">
         <v>4</v>
       </c>
-      <c r="G34" s="161" t="s">
+      <c r="G34" s="151" t="s">
         <v>436</v>
       </c>
       <c r="H34" s="28">
         <v>4</v>
       </c>
-      <c r="I34" s="161" t="s">
+      <c r="I34" s="151" t="s">
         <v>436</v>
       </c>
       <c r="J34" s="28">
         <v>4</v>
       </c>
-      <c r="K34" s="161" t="s">
+      <c r="K34" s="151" t="s">
         <v>365</v>
       </c>
       <c r="L34" s="28"/>
@@ -21446,8 +20867,8 @@
       <c r="L36" s="28">
         <v>30</v>
       </c>
-      <c r="M36" s="151" t="s">
-        <v>631</v>
+      <c r="M36" s="141" t="s">
+        <v>576</v>
       </c>
       <c r="N36" s="29">
         <f t="shared" si="0"/>
@@ -21512,25 +20933,25 @@
       <c r="D38" s="28">
         <v>8</v>
       </c>
-      <c r="E38" s="161" t="s">
-        <v>629</v>
+      <c r="E38" s="151" t="s">
+        <v>574</v>
       </c>
       <c r="F38" s="28">
         <v>4</v>
       </c>
-      <c r="G38" s="161" t="s">
+      <c r="G38" s="151" t="s">
         <v>436</v>
       </c>
       <c r="H38" s="28">
         <v>4</v>
       </c>
-      <c r="I38" s="161" t="s">
+      <c r="I38" s="151" t="s">
         <v>436</v>
       </c>
       <c r="J38" s="28">
         <v>4</v>
       </c>
-      <c r="K38" s="161" t="s">
+      <c r="K38" s="151" t="s">
         <v>365</v>
       </c>
       <c r="L38" s="28"/>
@@ -21676,32 +21097,32 @@
       <c r="D42" s="28">
         <v>4</v>
       </c>
-      <c r="E42" s="151" t="s">
-        <v>632</v>
+      <c r="E42" s="141" t="s">
+        <v>577</v>
       </c>
       <c r="F42" s="28">
         <v>2</v>
       </c>
-      <c r="G42" s="151" t="s">
-        <v>594</v>
+      <c r="G42" s="141" t="s">
+        <v>539</v>
       </c>
       <c r="H42" s="28">
         <v>2</v>
       </c>
-      <c r="I42" s="151" t="s">
-        <v>594</v>
+      <c r="I42" s="141" t="s">
+        <v>539</v>
       </c>
       <c r="J42" s="28">
         <v>2</v>
       </c>
-      <c r="K42" s="151" t="s">
-        <v>605</v>
+      <c r="K42" s="141" t="s">
+        <v>550</v>
       </c>
       <c r="L42" s="28">
         <v>30</v>
       </c>
-      <c r="M42" s="151" t="s">
-        <v>633</v>
+      <c r="M42" s="141" t="s">
+        <v>578</v>
       </c>
       <c r="N42" s="29">
         <f t="shared" si="0"/>
@@ -21829,7 +21250,7 @@
       <c r="J45" s="28">
         <v>2</v>
       </c>
-      <c r="K45" s="161" t="s">
+      <c r="K45" s="151" t="s">
         <v>365</v>
       </c>
       <c r="L45" s="28">
@@ -21942,25 +21363,25 @@
       <c r="D48" s="28">
         <v>4</v>
       </c>
-      <c r="E48" s="150" t="s">
+      <c r="E48" s="140" t="s">
         <v>325</v>
       </c>
       <c r="F48" s="28">
         <v>2</v>
       </c>
-      <c r="G48" s="161" t="s">
+      <c r="G48" s="151" t="s">
         <v>436</v>
       </c>
       <c r="H48" s="28">
         <v>2</v>
       </c>
-      <c r="I48" s="161" t="s">
-        <v>634</v>
+      <c r="I48" s="151" t="s">
+        <v>579</v>
       </c>
       <c r="J48" s="28">
         <v>2</v>
       </c>
-      <c r="K48" s="161" t="s">
+      <c r="K48" s="151" t="s">
         <v>365</v>
       </c>
       <c r="L48" s="28"/>
@@ -21984,31 +21405,31 @@
         <v>9</v>
       </c>
       <c r="E49" s="130" t="s">
-        <v>635</v>
+        <v>580</v>
       </c>
       <c r="F49" s="28">
         <v>4</v>
       </c>
       <c r="G49" s="130" t="s">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="H49" s="28">
         <v>4</v>
       </c>
       <c r="I49" s="130" t="s">
-        <v>637</v>
+        <v>582</v>
       </c>
       <c r="J49" s="28">
         <v>4</v>
       </c>
       <c r="K49" s="130" t="s">
-        <v>638</v>
+        <v>583</v>
       </c>
       <c r="L49" s="28">
         <v>3</v>
       </c>
-      <c r="M49" s="159" t="s">
-        <v>639</v>
+      <c r="M49" s="149" t="s">
+        <v>584</v>
       </c>
       <c r="N49" s="29">
         <f t="shared" si="0"/>
@@ -22222,7 +21643,7 @@
       <c r="J54" s="28">
         <v>4</v>
       </c>
-      <c r="K54" s="151" t="s">
+      <c r="K54" s="141" t="s">
         <v>437</v>
       </c>
       <c r="L54" s="28"/>
@@ -22269,8 +21690,8 @@
       <c r="L55" s="28">
         <v>13</v>
       </c>
-      <c r="M55" s="150" t="s">
-        <v>640</v>
+      <c r="M55" s="140" t="s">
+        <v>585</v>
       </c>
       <c r="N55" s="29">
         <f t="shared" si="0"/>
@@ -22462,25 +21883,25 @@
       <c r="D60" s="28">
         <v>16</v>
       </c>
-      <c r="E60" s="165" t="s">
-        <v>641</v>
+      <c r="E60" s="155" t="s">
+        <v>586</v>
       </c>
       <c r="F60" s="28">
         <v>6</v>
       </c>
-      <c r="G60" s="150" t="s">
+      <c r="G60" s="140" t="s">
         <v>323</v>
       </c>
       <c r="H60" s="28">
         <v>6</v>
       </c>
-      <c r="I60" s="150" t="s">
+      <c r="I60" s="140" t="s">
         <v>323</v>
       </c>
       <c r="J60" s="28">
         <v>6</v>
       </c>
-      <c r="K60" s="150" t="s">
+      <c r="K60" s="140" t="s">
         <v>436</v>
       </c>
       <c r="L60" s="28"/>
@@ -22503,25 +21924,25 @@
       <c r="D61" s="28">
         <v>16</v>
       </c>
-      <c r="E61" s="151" t="s">
+      <c r="E61" s="141" t="s">
         <v>314</v>
       </c>
       <c r="F61" s="28">
         <v>6</v>
       </c>
-      <c r="G61" s="150" t="s">
+      <c r="G61" s="140" t="s">
         <v>323</v>
       </c>
       <c r="H61" s="28">
         <v>6</v>
       </c>
-      <c r="I61" s="150" t="s">
+      <c r="I61" s="140" t="s">
         <v>323</v>
       </c>
       <c r="J61" s="28">
         <v>6</v>
       </c>
-      <c r="K61" s="150" t="s">
+      <c r="K61" s="140" t="s">
         <v>436</v>
       </c>
       <c r="L61" s="28"/>
@@ -22544,25 +21965,25 @@
       <c r="D62" s="28">
         <v>16</v>
       </c>
-      <c r="E62" s="151" t="s">
+      <c r="E62" s="141" t="s">
         <v>314</v>
       </c>
       <c r="F62" s="28">
         <v>6</v>
       </c>
-      <c r="G62" s="150" t="s">
+      <c r="G62" s="140" t="s">
         <v>323</v>
       </c>
       <c r="H62" s="28">
         <v>6</v>
       </c>
-      <c r="I62" s="150" t="s">
+      <c r="I62" s="140" t="s">
         <v>323</v>
       </c>
       <c r="J62" s="28">
         <v>6</v>
       </c>
-      <c r="K62" s="150" t="s">
+      <c r="K62" s="140" t="s">
         <v>436</v>
       </c>
       <c r="L62" s="28"/>
@@ -22591,19 +22012,19 @@
       <c r="F63" s="28">
         <v>3</v>
       </c>
-      <c r="G63" s="150" t="s">
+      <c r="G63" s="140" t="s">
         <v>323</v>
       </c>
       <c r="H63" s="28">
         <v>3</v>
       </c>
-      <c r="I63" s="150" t="s">
+      <c r="I63" s="140" t="s">
         <v>323</v>
       </c>
       <c r="J63" s="28">
         <v>3</v>
       </c>
-      <c r="K63" s="150" t="s">
+      <c r="K63" s="140" t="s">
         <v>436</v>
       </c>
       <c r="L63" s="28"/>
@@ -22632,19 +22053,19 @@
       <c r="F64" s="28">
         <v>3</v>
       </c>
-      <c r="G64" s="161" t="s">
+      <c r="G64" s="151" t="s">
         <v>436</v>
       </c>
       <c r="H64" s="28">
         <v>3</v>
       </c>
-      <c r="I64" s="161" t="s">
+      <c r="I64" s="151" t="s">
         <v>436</v>
       </c>
       <c r="J64" s="28">
         <v>3</v>
       </c>
-      <c r="K64" s="161" t="s">
+      <c r="K64" s="151" t="s">
         <v>365</v>
       </c>
       <c r="L64" s="28"/>
@@ -22673,19 +22094,19 @@
       <c r="F65" s="28">
         <v>3</v>
       </c>
-      <c r="G65" s="150" t="s">
+      <c r="G65" s="140" t="s">
         <v>323</v>
       </c>
       <c r="H65" s="28">
         <v>3</v>
       </c>
-      <c r="I65" s="150" t="s">
+      <c r="I65" s="140" t="s">
         <v>323</v>
       </c>
       <c r="J65" s="28">
         <v>3</v>
       </c>
-      <c r="K65" s="150" t="s">
+      <c r="K65" s="140" t="s">
         <v>436</v>
       </c>
       <c r="L65" s="28"/>
@@ -22696,11 +22117,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="213" t="s">
+      <c r="A66" s="218" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="213"/>
-      <c r="C66" s="213"/>
+      <c r="B66" s="218"/>
+      <c r="C66" s="218"/>
       <c r="D66" s="29">
         <f>SUM(D2:D65)</f>
         <v>359</v>
@@ -22765,46 +22186,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="215" t="s">
+      <c r="B1" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="215"/>
+      <c r="C1" s="220"/>
       <c r="D1" s="85" t="s">
         <v>211</v>
       </c>
       <c r="E1" s="136" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="F1" s="136" t="s">
-        <v>505</v>
-      </c>
-      <c r="G1" s="140" t="s">
-        <v>507</v>
-      </c>
-      <c r="H1" s="140" t="s">
-        <v>508</v>
-      </c>
-      <c r="I1" s="140" t="s">
-        <v>509</v>
-      </c>
-      <c r="J1" s="169" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="170" t="s">
-        <v>669</v>
+        <v>480</v>
+      </c>
+      <c r="G1" s="138" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1" s="138" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1" s="138" t="s">
+        <v>484</v>
+      </c>
+      <c r="J1" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="159" t="s">
+        <v>592</v>
       </c>
       <c r="L1" s="136" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="221" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="216"/>
+      <c r="C2" s="221"/>
       <c r="D2" s="82">
         <v>4</v>
       </c>
@@ -22827,10 +22248,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="222" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="221" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -22866,8 +22287,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="217"/>
-      <c r="B4" s="216"/>
+      <c r="A4" s="222"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="84" t="s">
         <v>208</v>
       </c>
@@ -22901,11 +22322,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="217"/>
-      <c r="B5" s="216" t="s">
+      <c r="A5" s="222"/>
+      <c r="B5" s="221" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="216"/>
+      <c r="C5" s="221"/>
       <c r="D5" s="82">
         <v>7</v>
       </c>
@@ -22930,11 +22351,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="217"/>
-      <c r="B6" s="216" t="s">
+      <c r="A6" s="222"/>
+      <c r="B6" s="221" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="216"/>
+      <c r="C6" s="221"/>
       <c r="D6" s="82">
         <v>6</v>
       </c>
@@ -22957,7 +22378,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="219" t="s">
         <v>298</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -22986,7 +22407,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="214"/>
+      <c r="A8" s="219"/>
       <c r="B8" s="88" t="s">
         <v>295</v>
       </c>
@@ -23013,7 +22434,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="214"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="88" t="s">
         <v>297</v>
       </c>
@@ -23040,7 +22461,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="214"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="88" t="s">
         <v>294</v>
       </c>
@@ -23187,146 +22608,146 @@
   <sheetData>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>753</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="193" t="s">
-        <v>689</v>
-      </c>
-      <c r="D4" s="193" t="s">
-        <v>690</v>
-      </c>
-      <c r="E4" s="193" t="s">
-        <v>691</v>
-      </c>
-      <c r="F4" s="193" t="s">
-        <v>690</v>
-      </c>
-      <c r="G4" s="193" t="s">
-        <v>692</v>
-      </c>
-      <c r="H4" s="193" t="s">
-        <v>690</v>
-      </c>
-      <c r="I4" s="193" t="s">
-        <v>693</v>
-      </c>
-      <c r="J4" s="193" t="s">
-        <v>690</v>
-      </c>
-      <c r="K4" s="193" t="s">
-        <v>694</v>
-      </c>
-      <c r="L4" s="193" t="s">
-        <v>690</v>
-      </c>
-      <c r="M4" s="193" t="s">
-        <v>695</v>
-      </c>
-      <c r="N4" s="193" t="s">
-        <v>690</v>
-      </c>
-      <c r="O4" s="193" t="s">
-        <v>696</v>
-      </c>
-      <c r="P4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q4" s="193" t="s">
-        <v>698</v>
-      </c>
-      <c r="R4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="S4" s="193" t="s">
-        <v>699</v>
-      </c>
-      <c r="T4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="U4" s="193" t="s">
-        <v>700</v>
-      </c>
-      <c r="V4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="W4" s="193" t="s">
-        <v>701</v>
-      </c>
-      <c r="X4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="Y4" s="193" t="s">
-        <v>702</v>
-      </c>
-      <c r="Z4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA4" s="193" t="s">
-        <v>703</v>
-      </c>
-      <c r="AB4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AC4" s="193" t="s">
-        <v>704</v>
-      </c>
-      <c r="AD4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AE4" s="193" t="s">
-        <v>705</v>
-      </c>
-      <c r="AF4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AG4" s="193" t="s">
-        <v>706</v>
-      </c>
-      <c r="AH4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AI4" s="193" t="s">
-        <v>707</v>
-      </c>
-      <c r="AJ4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AK4" s="193" t="s">
-        <v>708</v>
-      </c>
-      <c r="AL4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AM4" s="193" t="s">
-        <v>709</v>
-      </c>
-      <c r="AN4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AO4" s="193" t="s">
-        <v>710</v>
-      </c>
-      <c r="AP4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="AQ4" s="193" t="s">
-        <v>711</v>
-      </c>
-      <c r="AR4" s="193" t="s">
-        <v>697</v>
+      <c r="C4" s="182" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="G4" s="182" t="s">
+        <v>614</v>
+      </c>
+      <c r="H4" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="I4" s="182" t="s">
+        <v>615</v>
+      </c>
+      <c r="J4" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="K4" s="182" t="s">
+        <v>616</v>
+      </c>
+      <c r="L4" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="M4" s="182" t="s">
+        <v>617</v>
+      </c>
+      <c r="N4" s="182" t="s">
+        <v>612</v>
+      </c>
+      <c r="O4" s="182" t="s">
+        <v>618</v>
+      </c>
+      <c r="P4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q4" s="182" t="s">
+        <v>620</v>
+      </c>
+      <c r="R4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="S4" s="182" t="s">
+        <v>621</v>
+      </c>
+      <c r="T4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="U4" s="182" t="s">
+        <v>622</v>
+      </c>
+      <c r="V4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="W4" s="182" t="s">
+        <v>623</v>
+      </c>
+      <c r="X4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y4" s="182" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA4" s="182" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC4" s="182" t="s">
+        <v>626</v>
+      </c>
+      <c r="AD4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE4" s="182" t="s">
+        <v>627</v>
+      </c>
+      <c r="AF4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AG4" s="182" t="s">
+        <v>628</v>
+      </c>
+      <c r="AH4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AI4" s="182" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AK4" s="182" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AM4" s="182" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AO4" s="182" t="s">
+        <v>632</v>
+      </c>
+      <c r="AP4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="AQ4" s="182" t="s">
+        <v>633</v>
+      </c>
+      <c r="AR4" s="182" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -23384,7 +22805,7 @@
         <v>4</v>
       </c>
       <c r="AF5" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG5" s="104"/>
       <c r="AH5" s="104"/>
@@ -23479,74 +22900,74 @@
       <c r="C7" s="104">
         <v>17</v>
       </c>
-      <c r="D7" s="195" t="s">
-        <v>712</v>
+      <c r="D7" s="184" t="s">
+        <v>634</v>
       </c>
       <c r="E7" s="104">
         <v>9</v>
       </c>
-      <c r="F7" s="195" t="s">
-        <v>713</v>
+      <c r="F7" s="184" t="s">
+        <v>635</v>
       </c>
       <c r="G7" s="104">
         <v>9</v>
       </c>
-      <c r="H7" s="195" t="s">
-        <v>714</v>
+      <c r="H7" s="184" t="s">
+        <v>636</v>
       </c>
       <c r="I7" s="104">
         <v>6</v>
       </c>
-      <c r="J7" s="195" t="s">
-        <v>715</v>
+      <c r="J7" s="184" t="s">
+        <v>637</v>
       </c>
       <c r="K7" s="104">
         <v>6</v>
       </c>
-      <c r="L7" s="195" t="s">
-        <v>716</v>
+      <c r="L7" s="184" t="s">
+        <v>638</v>
       </c>
       <c r="M7" s="104">
         <v>2</v>
       </c>
-      <c r="N7" s="195" t="s">
-        <v>717</v>
+      <c r="N7" s="184" t="s">
+        <v>639</v>
       </c>
       <c r="O7" s="104">
         <v>4</v>
       </c>
-      <c r="P7" s="195" t="s">
-        <v>718</v>
+      <c r="P7" s="184" t="s">
+        <v>640</v>
       </c>
       <c r="Q7" s="104">
         <v>2</v>
       </c>
       <c r="R7" s="104" t="s">
-        <v>717</v>
+        <v>639</v>
       </c>
       <c r="S7" s="104">
         <v>9</v>
       </c>
-      <c r="T7" s="195" t="s">
-        <v>719</v>
+      <c r="T7" s="184" t="s">
+        <v>641</v>
       </c>
       <c r="U7" s="104">
         <v>9</v>
       </c>
-      <c r="V7" s="195" t="s">
-        <v>720</v>
+      <c r="V7" s="184" t="s">
+        <v>642</v>
       </c>
       <c r="W7" s="104">
         <v>9</v>
       </c>
-      <c r="X7" s="195" t="s">
-        <v>721</v>
+      <c r="X7" s="184" t="s">
+        <v>643</v>
       </c>
       <c r="Y7" s="104">
         <v>9</v>
       </c>
-      <c r="Z7" s="195" t="s">
-        <v>719</v>
+      <c r="Z7" s="184" t="s">
+        <v>641</v>
       </c>
       <c r="AA7" s="104">
         <v>1</v>
@@ -23557,44 +22978,44 @@
       <c r="AC7" s="104">
         <v>6</v>
       </c>
-      <c r="AD7" s="195" t="s">
-        <v>722</v>
+      <c r="AD7" s="184" t="s">
+        <v>644</v>
       </c>
       <c r="AE7" s="104">
         <v>4</v>
       </c>
-      <c r="AF7" s="195" t="s">
-        <v>723</v>
+      <c r="AF7" s="184" t="s">
+        <v>645</v>
       </c>
       <c r="AG7" s="104">
         <v>17</v>
       </c>
-      <c r="AH7" s="195" t="s">
-        <v>724</v>
+      <c r="AH7" s="184" t="s">
+        <v>646</v>
       </c>
       <c r="AI7" s="104">
         <v>9</v>
       </c>
-      <c r="AJ7" s="195" t="s">
-        <v>719</v>
+      <c r="AJ7" s="184" t="s">
+        <v>641</v>
       </c>
       <c r="AK7" s="104">
         <v>4</v>
       </c>
-      <c r="AL7" s="195" t="s">
-        <v>725</v>
+      <c r="AL7" s="184" t="s">
+        <v>647</v>
       </c>
       <c r="AM7" s="104">
         <v>4</v>
       </c>
-      <c r="AN7" s="195" t="s">
-        <v>725</v>
+      <c r="AN7" s="184" t="s">
+        <v>647</v>
       </c>
       <c r="AO7" s="104">
         <v>4</v>
       </c>
-      <c r="AP7" s="195" t="s">
-        <v>726</v>
+      <c r="AP7" s="184" t="s">
+        <v>648</v>
       </c>
       <c r="AQ7" s="104"/>
       <c r="AR7" s="104"/>
@@ -23626,7 +23047,7 @@
         <v>5</v>
       </c>
       <c r="T8" s="104" t="s">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="U8" s="104">
         <v>5</v>
@@ -23655,8 +23076,8 @@
       <c r="AG8" s="104">
         <v>9</v>
       </c>
-      <c r="AH8" s="195" t="s">
-        <v>727</v>
+      <c r="AH8" s="184" t="s">
+        <v>649</v>
       </c>
       <c r="AI8" s="104"/>
       <c r="AJ8" s="104"/>
@@ -23732,7 +23153,7 @@
         <v>2</v>
       </c>
       <c r="AF9" s="104" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AG9" s="104"/>
       <c r="AH9" s="104"/>
@@ -23807,14 +23228,14 @@
       <c r="AG10" s="104">
         <v>2</v>
       </c>
-      <c r="AH10" s="195" t="s">
-        <v>606</v>
+      <c r="AH10" s="184" t="s">
+        <v>551</v>
       </c>
       <c r="AI10" s="104">
         <v>1</v>
       </c>
       <c r="AJ10" s="104" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="AK10" s="104">
         <v>1</v>
@@ -23884,7 +23305,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="104" t="s">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="U11" s="104">
         <v>1</v>
@@ -23920,7 +23341,7 @@
         <v>1</v>
       </c>
       <c r="AF11" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG11" s="104">
         <v>2</v>
@@ -23932,7 +23353,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="AK11" s="104">
         <v>1</v>
@@ -23956,7 +23377,7 @@
         <v>30</v>
       </c>
       <c r="AR11" s="104" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -24290,7 +23711,7 @@
         <v>1</v>
       </c>
       <c r="AH17" s="104" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="AI17" s="104">
         <v>1</v>
@@ -24302,13 +23723,13 @@
         <v>1</v>
       </c>
       <c r="AL17" s="104" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AM17" s="104">
         <v>1</v>
       </c>
       <c r="AN17" s="104" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AO17" s="104">
         <v>1</v>
@@ -24658,7 +24079,7 @@
         <v>4</v>
       </c>
       <c r="AF22" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG22" s="104">
         <v>16</v>
@@ -24690,7 +24111,7 @@
       <c r="AR22" s="104"/>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A23" s="194">
+      <c r="A23" s="183">
         <v>33</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -24706,7 +24127,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="104" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="G23" s="104">
         <v>8</v>
@@ -24768,7 +24189,7 @@
         <v>8</v>
       </c>
       <c r="AJ23" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="AK23" s="104">
         <v>4</v>
@@ -24874,7 +24295,7 @@
         <v>4</v>
       </c>
       <c r="AF24" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG24" s="104"/>
       <c r="AH24" s="104"/>
@@ -24913,8 +24334,8 @@
       <c r="E25" s="104">
         <v>8</v>
       </c>
-      <c r="F25" s="195" t="s">
-        <v>728</v>
+      <c r="F25" s="184" t="s">
+        <v>650</v>
       </c>
       <c r="G25" s="104"/>
       <c r="H25" s="104"/>
@@ -24958,7 +24379,7 @@
         <v>4</v>
       </c>
       <c r="AD25" s="104" t="s">
-        <v>729</v>
+        <v>651</v>
       </c>
       <c r="AE25" s="104"/>
       <c r="AF25" s="104"/>
@@ -24979,8 +24400,8 @@
       <c r="AQ25" s="104">
         <v>30</v>
       </c>
-      <c r="AR25" s="195" t="s">
-        <v>730</v>
+      <c r="AR25" s="184" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
@@ -25058,7 +24479,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="K27" s="104"/>
       <c r="L27" s="104"/>
@@ -25108,19 +24529,19 @@
         <v>4</v>
       </c>
       <c r="AF27" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG27" s="104">
         <v>16</v>
       </c>
-      <c r="AH27" s="195" t="s">
-        <v>731</v>
+      <c r="AH27" s="184" t="s">
+        <v>653</v>
       </c>
       <c r="AI27" s="104">
         <v>8</v>
       </c>
       <c r="AJ27" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="AK27" s="104">
         <v>4</v>
@@ -25160,7 +24581,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="K28" s="104"/>
       <c r="L28" s="104"/>
@@ -25186,7 +24607,7 @@
         <v>4</v>
       </c>
       <c r="AF28" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG28" s="104"/>
       <c r="AH28" s="104"/>
@@ -25346,7 +24767,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="104" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="K31" s="104">
         <v>2</v>
@@ -25364,13 +24785,13 @@
         <v>4</v>
       </c>
       <c r="T31" s="104" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="U31" s="104">
         <v>4</v>
       </c>
       <c r="V31" s="104" t="s">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="W31" s="104">
         <v>4</v>
@@ -25382,7 +24803,7 @@
         <v>4</v>
       </c>
       <c r="Z31" s="104" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="AA31" s="104"/>
       <c r="AB31" s="104"/>
@@ -25402,7 +24823,7 @@
         <v>8</v>
       </c>
       <c r="AH31" s="104" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="AI31" s="104">
         <v>4</v>
@@ -25414,25 +24835,25 @@
         <v>2</v>
       </c>
       <c r="AL31" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AM31" s="104">
         <v>2</v>
       </c>
       <c r="AN31" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AO31" s="104">
         <v>2</v>
       </c>
       <c r="AP31" s="104" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AQ31" s="104">
         <v>30</v>
       </c>
-      <c r="AR31" s="195" t="s">
-        <v>732</v>
+      <c r="AR31" s="184" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
@@ -25635,26 +25056,26 @@
       <c r="C35" s="104">
         <v>8</v>
       </c>
-      <c r="D35" s="195" t="s">
-        <v>733</v>
+      <c r="D35" s="184" t="s">
+        <v>655</v>
       </c>
       <c r="E35" s="104">
         <v>4</v>
       </c>
       <c r="F35" s="104" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="G35" s="104">
         <v>4</v>
       </c>
       <c r="H35" s="104" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="I35" s="104">
         <v>2</v>
       </c>
       <c r="J35" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="K35" s="104">
         <v>2</v>
@@ -25690,7 +25111,7 @@
         <v>4</v>
       </c>
       <c r="V35" s="104" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="W35" s="104">
         <v>4</v>
@@ -25781,80 +25202,80 @@
       <c r="S36" s="104">
         <v>9</v>
       </c>
-      <c r="T36" s="195" t="s">
-        <v>734</v>
+      <c r="T36" s="184" t="s">
+        <v>656</v>
       </c>
       <c r="U36" s="104">
         <v>9</v>
       </c>
-      <c r="V36" s="195" t="s">
-        <v>735</v>
+      <c r="V36" s="184" t="s">
+        <v>657</v>
       </c>
       <c r="W36" s="104">
         <v>9</v>
       </c>
-      <c r="X36" s="195" t="s">
-        <v>736</v>
+      <c r="X36" s="184" t="s">
+        <v>658</v>
       </c>
       <c r="Y36" s="104">
         <v>9</v>
       </c>
-      <c r="Z36" s="195" t="s">
-        <v>737</v>
+      <c r="Z36" s="184" t="s">
+        <v>659</v>
       </c>
       <c r="AA36" s="104">
         <v>1</v>
       </c>
-      <c r="AB36" s="195" t="s">
-        <v>738</v>
+      <c r="AB36" s="184" t="s">
+        <v>660</v>
       </c>
       <c r="AC36" s="104">
         <v>6</v>
       </c>
-      <c r="AD36" s="195" t="s">
-        <v>739</v>
+      <c r="AD36" s="184" t="s">
+        <v>661</v>
       </c>
       <c r="AE36" s="104">
         <v>4</v>
       </c>
-      <c r="AF36" s="195" t="s">
-        <v>740</v>
+      <c r="AF36" s="184" t="s">
+        <v>662</v>
       </c>
       <c r="AG36" s="104">
         <v>7</v>
       </c>
-      <c r="AH36" s="195" t="s">
-        <v>741</v>
+      <c r="AH36" s="184" t="s">
+        <v>663</v>
       </c>
       <c r="AI36" s="104">
         <v>9</v>
       </c>
-      <c r="AJ36" s="195" t="s">
-        <v>742</v>
+      <c r="AJ36" s="184" t="s">
+        <v>664</v>
       </c>
       <c r="AK36" s="104">
         <v>4</v>
       </c>
-      <c r="AL36" s="195" t="s">
-        <v>743</v>
+      <c r="AL36" s="184" t="s">
+        <v>665</v>
       </c>
       <c r="AM36" s="104">
         <v>4</v>
       </c>
-      <c r="AN36" s="195" t="s">
-        <v>743</v>
+      <c r="AN36" s="184" t="s">
+        <v>665</v>
       </c>
       <c r="AO36" s="104">
         <v>4</v>
       </c>
-      <c r="AP36" s="195" t="s">
-        <v>744</v>
+      <c r="AP36" s="184" t="s">
+        <v>666</v>
       </c>
       <c r="AQ36" s="104">
         <v>3</v>
       </c>
-      <c r="AR36" s="195" t="s">
-        <v>745</v>
+      <c r="AR36" s="184" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:44" ht="25.5" x14ac:dyDescent="0.25">
@@ -25962,7 +25383,7 @@
         <v>4</v>
       </c>
       <c r="AF38" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG38" s="104"/>
       <c r="AH38" s="104"/>
@@ -26182,7 +25603,7 @@
         <v>4</v>
       </c>
       <c r="AP41" s="104" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AQ41" s="104"/>
       <c r="AR41" s="104"/>
@@ -26237,8 +25658,8 @@
       <c r="AQ42" s="104">
         <v>13</v>
       </c>
-      <c r="AR42" s="195" t="s">
-        <v>746</v>
+      <c r="AR42" s="184" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
@@ -26370,7 +25791,7 @@
         <v>1</v>
       </c>
       <c r="AF44" s="104" t="s">
-        <v>594</v>
+        <v>539</v>
       </c>
       <c r="AG44" s="104">
         <v>1</v>
@@ -26458,7 +25879,7 @@
         <v>16</v>
       </c>
       <c r="Z45" s="104" t="s">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="AA45" s="104">
         <v>1</v>
@@ -26482,13 +25903,13 @@
         <v>32</v>
       </c>
       <c r="AH45" s="104" t="s">
-        <v>618</v>
+        <v>563</v>
       </c>
       <c r="AI45" s="104">
         <v>16</v>
       </c>
-      <c r="AJ45" s="195" t="s">
-        <v>747</v>
+      <c r="AJ45" s="184" t="s">
+        <v>669</v>
       </c>
       <c r="AK45" s="104">
         <v>6</v>
@@ -26561,8 +25982,8 @@
       <c r="W46" s="104">
         <v>16</v>
       </c>
-      <c r="X46" s="195" t="s">
-        <v>748</v>
+      <c r="X46" s="184" t="s">
+        <v>670</v>
       </c>
       <c r="Y46" s="104"/>
       <c r="Z46" s="104"/>
@@ -26588,12 +26009,12 @@
         <v>32</v>
       </c>
       <c r="AH46" s="104" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="AI46" s="104">
         <v>16</v>
       </c>
-      <c r="AJ46" s="195" t="s">
+      <c r="AJ46" s="184" t="s">
         <v>314</v>
       </c>
       <c r="AK46" s="104">
@@ -26630,19 +26051,19 @@
         <v>16</v>
       </c>
       <c r="F47" s="104" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="G47" s="104">
         <v>16</v>
       </c>
       <c r="H47" s="104" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="I47" s="104">
         <v>10</v>
       </c>
       <c r="J47" s="104" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
       <c r="K47" s="104">
         <v>10</v>
@@ -26709,8 +26130,8 @@
       <c r="AG47" s="104">
         <v>32</v>
       </c>
-      <c r="AH47" s="195" t="s">
-        <v>749</v>
+      <c r="AH47" s="184" t="s">
+        <v>671</v>
       </c>
       <c r="AI47" s="104">
         <v>16</v>
@@ -26833,7 +26254,7 @@
       <c r="E49" s="104">
         <v>8</v>
       </c>
-      <c r="F49" s="195" t="s">
+      <c r="F49" s="184" t="s">
         <v>475</v>
       </c>
       <c r="G49" s="104"/>
@@ -26841,8 +26262,8 @@
       <c r="I49" s="104">
         <v>5</v>
       </c>
-      <c r="J49" s="195" t="s">
-        <v>750</v>
+      <c r="J49" s="184" t="s">
+        <v>672</v>
       </c>
       <c r="K49" s="104"/>
       <c r="L49" s="104"/>
@@ -26869,19 +26290,19 @@
       <c r="U49" s="104">
         <v>8</v>
       </c>
-      <c r="V49" s="195" t="s">
+      <c r="V49" s="184" t="s">
         <v>459</v>
       </c>
       <c r="W49" s="104">
         <v>8</v>
       </c>
-      <c r="X49" s="195" t="s">
+      <c r="X49" s="184" t="s">
         <v>459</v>
       </c>
       <c r="Y49" s="104">
         <v>8</v>
       </c>
-      <c r="Z49" s="195" t="s">
+      <c r="Z49" s="184" t="s">
         <v>458</v>
       </c>
       <c r="AA49" s="104">
@@ -26896,14 +26317,14 @@
         <v>3</v>
       </c>
       <c r="AF49" s="104" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AG49" s="104"/>
       <c r="AH49" s="104"/>
       <c r="AI49" s="104">
         <v>8</v>
       </c>
-      <c r="AJ49" s="195" t="s">
+      <c r="AJ49" s="184" t="s">
         <v>460</v>
       </c>
       <c r="AK49" s="104">
@@ -26937,26 +26358,26 @@
       <c r="C50" s="104">
         <v>16</v>
       </c>
-      <c r="D50" s="195" t="s">
-        <v>751</v>
+      <c r="D50" s="184" t="s">
+        <v>673</v>
       </c>
       <c r="E50" s="104">
         <v>8</v>
       </c>
       <c r="F50" s="104" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="G50" s="104">
         <v>8</v>
       </c>
       <c r="H50" s="104" t="s">
-        <v>612</v>
+        <v>557</v>
       </c>
       <c r="I50" s="104">
         <v>5</v>
       </c>
       <c r="J50" s="104" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="K50" s="104">
         <v>5</v>
@@ -27023,8 +26444,8 @@
       <c r="AG50" s="104">
         <v>16</v>
       </c>
-      <c r="AH50" s="195" t="s">
-        <v>752</v>
+      <c r="AH50" s="184" t="s">
+        <v>674</v>
       </c>
       <c r="AI50" s="104">
         <v>8</v>
@@ -27074,39 +26495,39 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="193" t="s">
-        <v>754</v>
-      </c>
-      <c r="E4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="F4" s="193" t="s">
-        <v>755</v>
-      </c>
-      <c r="G4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="H4" s="193" t="s">
+      <c r="D4" s="182" t="s">
+        <v>676</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="F4" s="182" t="s">
+        <v>677</v>
+      </c>
+      <c r="G4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="H4" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="193" t="s">
-        <v>697</v>
-      </c>
-      <c r="J4" s="193" t="s">
-        <v>756</v>
-      </c>
-      <c r="K4" s="193" t="s">
-        <v>697</v>
+      <c r="I4" s="182" t="s">
+        <v>619</v>
+      </c>
+      <c r="J4" s="182" t="s">
+        <v>678</v>
+      </c>
+      <c r="K4" s="182" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -27204,7 +26625,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>560</v>
+        <v>505</v>
       </c>
       <c r="F8" s="104">
         <v>1</v>
@@ -27235,8 +26656,8 @@
       <c r="D9" s="104">
         <v>9</v>
       </c>
-      <c r="E9" s="195" t="s">
-        <v>757</v>
+      <c r="E9" s="184" t="s">
+        <v>679</v>
       </c>
       <c r="F9" s="104">
         <v>1</v>
@@ -27498,7 +26919,7 @@
       <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="194">
+      <c r="B25" s="183">
         <v>33</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -27508,7 +26929,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="104" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="F25" s="104"/>
       <c r="G25" s="104"/>
@@ -27527,8 +26948,8 @@
       <c r="D26" s="104">
         <v>8</v>
       </c>
-      <c r="E26" s="195" t="s">
-        <v>758</v>
+      <c r="E26" s="184" t="s">
+        <v>680</v>
       </c>
       <c r="F26" s="104"/>
       <c r="G26" s="104"/>
@@ -27660,7 +27081,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="104" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="F34" s="104">
         <v>1</v>
@@ -27852,7 +27273,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="104" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="F45" s="104"/>
       <c r="G45" s="104"/>

--- a/5.GestionDotaciones/DAPRE/ConsolidadoDotacionDAPRE_2019.xlsx
+++ b/5.GestionDotaciones/DAPRE/ConsolidadoDotacionDAPRE_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\DAPRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/5.GestionDotaciones/DAPRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF31EF-FB8E-4B8E-A924-7B31938C9B7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB0338-E5BB-6E49-BA41-4F528391C57D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInfraDAPRE" sheetId="10" r:id="rId1"/>
@@ -29,11 +29,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Lista N°4'!$A$1:$N$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Lista Nº1'!$A$2:$U$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Lista Nº2'!$A$1:$Q$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteInfraDAPRE!$A$1:$N$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReporteInfraDAPRE!$A$1:$O$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Resumen!$C$1:$L$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Lista Nº1'!$A$1:$U$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Lista Nº2'!$A$1:$P$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ReporteInfraDAPRE!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ReporteInfraDAPRE!$A$1:$N$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Lista Nº1'!$A:$C,'Lista Nº1'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Lista Nº2'!$A:$C,'Lista Nº2'!$1:$1</definedName>
   </definedNames>
@@ -45,7 +45,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -266,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="744">
   <si>
     <t>APARTADÓ</t>
   </si>
@@ -2867,15 +2866,30 @@
   <si>
     <t>Parcial en Sede Nacional y pendiente gestionar recursos para completar la dotación.</t>
   </si>
+  <si>
+    <t>ESTADO INFRAESTRUCTURA según INFRAEST. FEB 7 2019</t>
+  </si>
+  <si>
+    <t>EN EJECUCION</t>
+  </si>
+  <si>
+    <t>LIQUIDADO</t>
+  </si>
+  <si>
+    <t>ENTREGADO EN LIQUIDACION</t>
+  </si>
+  <si>
+    <t>TERMINADO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3137,7 +3151,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3342,6 +3356,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3461,7 +3505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4008,7 +4052,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4063,6 +4107,24 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4085,23 +4147,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4129,6 +4194,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="CARLOS EDUARDO MADRID GOMEZ" id="{1136EA5F-359F-7D48-82D5-9C3A07011678}" userId="CARLOS EDUARDO MADRID GOMEZ" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4394,30 +4465,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M46"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="81" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="87" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="87" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="87" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="80" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="87" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="87" customWidth="1"/>
-    <col min="11" max="12" width="17" style="87" customWidth="1"/>
-    <col min="13" max="13" width="94.140625" style="161" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="80" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="87" customWidth="1"/>
+    <col min="10" max="11" width="21.33203125" style="87" customWidth="1"/>
+    <col min="12" max="13" width="17" style="87" customWidth="1"/>
+    <col min="14" max="14" width="94.1640625" style="161" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="56.25" customHeight="1">
       <c r="A1" s="101"/>
       <c r="B1" s="101" t="s">
         <v>711</v>
@@ -4446,17 +4519,20 @@
       <c r="J1" s="207" t="s">
         <v>712</v>
       </c>
-      <c r="K1" s="225" t="s">
+      <c r="K1" s="235" t="s">
+        <v>739</v>
+      </c>
+      <c r="L1" s="217" t="s">
         <v>719</v>
       </c>
-      <c r="L1" s="207" t="s">
+      <c r="M1" s="207" t="s">
         <v>735</v>
       </c>
-      <c r="M1" s="226" t="s">
+      <c r="N1" s="218" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="33.75" customHeight="1">
       <c r="A2" s="103">
         <v>1</v>
       </c>
@@ -4487,17 +4563,20 @@
       <c r="J2" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K2" s="209" t="s">
+      <c r="K2" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L2" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L2" s="209" t="s">
+      <c r="M2" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M2" s="224" t="s">
+      <c r="N2" s="216" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="28.5" customHeight="1">
       <c r="A3" s="103">
         <v>2</v>
       </c>
@@ -4528,17 +4607,20 @@
       <c r="J3" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L3" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L3" s="209" t="s">
+      <c r="M3" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M3" s="224" t="s">
+      <c r="N3" s="216" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="28.5" customHeight="1">
       <c r="A4" s="103">
         <v>3</v>
       </c>
@@ -4567,17 +4649,20 @@
       <c r="J4" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K4" s="209" t="s">
+      <c r="K4" s="232" t="s">
+        <v>741</v>
+      </c>
+      <c r="L4" s="209" t="s">
         <v>715</v>
       </c>
-      <c r="L4" s="209" t="s">
+      <c r="M4" s="209" t="s">
         <v>727</v>
       </c>
-      <c r="M4" s="208" t="s">
+      <c r="N4" s="208" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28.5" customHeight="1">
       <c r="A5" s="103">
         <v>4</v>
       </c>
@@ -4606,17 +4691,20 @@
       <c r="J5" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K5" s="209" t="s">
+      <c r="K5" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L5" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L5" s="209" t="s">
+      <c r="M5" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M5" s="227" t="s">
+      <c r="N5" s="219" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="28.5" customHeight="1">
       <c r="A6" s="103">
         <v>5</v>
       </c>
@@ -4645,17 +4733,20 @@
       <c r="J6" s="209" t="s">
         <v>487</v>
       </c>
-      <c r="K6" s="209" t="s">
+      <c r="K6" s="233" t="s">
+        <v>740</v>
+      </c>
+      <c r="L6" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L6" s="209" t="s">
+      <c r="M6" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M6" s="228" t="s">
+      <c r="N6" s="220" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.5" customHeight="1">
       <c r="A7" s="103">
         <v>6</v>
       </c>
@@ -4679,20 +4770,21 @@
       <c r="I7" s="103">
         <v>300</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="230" t="s">
         <v>727</v>
       </c>
-      <c r="K7" s="223" t="s">
+      <c r="K7" s="104"/>
+      <c r="L7" s="215" t="s">
         <v>714</v>
       </c>
-      <c r="L7" s="209" t="s">
+      <c r="M7" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M7" s="208" t="s">
+      <c r="N7" s="208" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="41.25" customHeight="1">
       <c r="A8" s="103">
         <v>7</v>
       </c>
@@ -4723,17 +4815,20 @@
       <c r="J8" s="209" t="s">
         <v>727</v>
       </c>
-      <c r="K8" s="209" t="s">
+      <c r="K8" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L8" s="209" t="s">
         <v>715</v>
       </c>
-      <c r="L8" s="209" t="s">
+      <c r="M8" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M8" s="208" t="s">
+      <c r="N8" s="208" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="76.5" customHeight="1">
       <c r="A9" s="103">
         <v>8</v>
       </c>
@@ -4764,17 +4859,20 @@
       <c r="J9" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K9" s="209" t="s">
+      <c r="K9" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L9" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L9" s="209" t="s">
+      <c r="M9" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M9" s="228" t="s">
+      <c r="N9" s="220" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="41.25" customHeight="1">
       <c r="A10" s="103">
         <v>9</v>
       </c>
@@ -4803,17 +4901,20 @@
       <c r="J10" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K10" s="209" t="s">
+      <c r="K10" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L10" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L10" s="209" t="s">
+      <c r="M10" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M10" s="228" t="s">
+      <c r="N10" s="220" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="41.25" customHeight="1">
       <c r="A11" s="103">
         <v>10</v>
       </c>
@@ -4844,17 +4945,20 @@
       <c r="J11" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K11" s="209" t="s">
+      <c r="K11" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L11" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L11" s="209" t="s">
+      <c r="M11" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M11" s="228" t="s">
+      <c r="N11" s="220" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="28.5" customHeight="1">
       <c r="A12" s="103">
         <v>11</v>
       </c>
@@ -4872,16 +4976,17 @@
         <v>237</v>
       </c>
       <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="223" t="s">
+      <c r="J12" s="230"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="215" t="s">
         <v>715</v>
       </c>
-      <c r="L12" s="104" t="s">
+      <c r="M12" s="104" t="s">
         <v>727</v>
       </c>
-      <c r="M12" s="208"/>
-    </row>
-    <row r="13" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="208"/>
+    </row>
+    <row r="13" spans="1:14" ht="28.5" customHeight="1">
       <c r="A13" s="103">
         <v>12</v>
       </c>
@@ -4907,20 +5012,23 @@
       <c r="I13" s="103">
         <v>50</v>
       </c>
-      <c r="J13" s="209" t="s">
+      <c r="J13" s="229" t="s">
         <v>713</v>
       </c>
-      <c r="K13" s="209" t="s">
+      <c r="K13" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L13" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L13" s="209" t="s">
+      <c r="M13" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M13" s="224" t="s">
+      <c r="N13" s="216" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28.5" customHeight="1">
       <c r="A14" s="103">
         <v>13</v>
       </c>
@@ -4949,17 +5057,20 @@
       <c r="J14" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K14" s="209" t="s">
+      <c r="K14" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L14" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L14" s="209" t="s">
+      <c r="M14" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M14" s="224" t="s">
+      <c r="N14" s="216" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="28.5" customHeight="1">
       <c r="A15" s="103">
         <v>14</v>
       </c>
@@ -4990,17 +5101,20 @@
       <c r="J15" s="209" t="s">
         <v>720</v>
       </c>
-      <c r="K15" s="209" t="s">
+      <c r="K15" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L15" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L15" s="209" t="s">
+      <c r="M15" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M15" s="208" t="s">
+      <c r="N15" s="208" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28.5" customHeight="1">
       <c r="A16" s="103">
         <v>15</v>
       </c>
@@ -5029,17 +5143,20 @@
       <c r="J16" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K16" s="209" t="s">
+      <c r="K16" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L16" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L16" s="209" t="s">
+      <c r="M16" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M16" s="208" t="s">
+      <c r="N16" s="208" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="28.5" customHeight="1">
       <c r="A17" s="103">
         <v>16</v>
       </c>
@@ -5070,17 +5187,20 @@
       <c r="J17" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K17" s="209" t="s">
+      <c r="K17" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L17" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L17" s="209" t="s">
+      <c r="M17" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M17" s="208" t="s">
+      <c r="N17" s="208" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="28.5" customHeight="1">
       <c r="A18" s="103">
         <v>17</v>
       </c>
@@ -5111,17 +5231,20 @@
       <c r="J18" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K18" s="209" t="s">
+      <c r="K18" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L18" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L18" s="209" t="s">
+      <c r="M18" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M18" s="224" t="s">
+      <c r="N18" s="216" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="28.5" customHeight="1">
       <c r="A19" s="103">
         <v>18</v>
       </c>
@@ -5152,17 +5275,20 @@
       <c r="J19" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K19" s="209" t="s">
+      <c r="K19" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L19" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L19" s="209" t="s">
+      <c r="M19" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M19" s="208" t="s">
+      <c r="N19" s="208" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="28.5" customHeight="1">
       <c r="A20" s="103">
         <v>19</v>
       </c>
@@ -5185,15 +5311,18 @@
       </c>
       <c r="I20" s="103"/>
       <c r="J20" s="209"/>
-      <c r="K20" s="209" t="s">
+      <c r="K20" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L20" s="209" t="s">
         <v>715</v>
       </c>
-      <c r="L20" s="209" t="s">
+      <c r="M20" s="209" t="s">
         <v>727</v>
       </c>
-      <c r="M20" s="208"/>
-    </row>
-    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="208"/>
+    </row>
+    <row r="21" spans="1:14" ht="28.5" customHeight="1">
       <c r="A21" s="103">
         <v>20</v>
       </c>
@@ -5222,17 +5351,20 @@
       <c r="J21" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K21" s="209" t="s">
+      <c r="K21" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L21" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L21" s="209" t="s">
+      <c r="M21" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M21" s="224" t="s">
+      <c r="N21" s="216" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="28.5" customHeight="1">
       <c r="A22" s="103">
         <v>21</v>
       </c>
@@ -5261,17 +5393,20 @@
       <c r="J22" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K22" s="209" t="s">
+      <c r="K22" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L22" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L22" s="209" t="s">
+      <c r="M22" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M22" s="224" t="s">
+      <c r="N22" s="216" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="28.5" customHeight="1">
       <c r="A23" s="103">
         <v>22</v>
       </c>
@@ -5300,17 +5435,20 @@
       <c r="J23" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K23" s="209" t="s">
+      <c r="K23" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L23" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L23" s="209" t="s">
+      <c r="M23" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M23" s="228" t="s">
+      <c r="N23" s="220" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="28.5" customHeight="1">
       <c r="A24" s="103">
         <v>23</v>
       </c>
@@ -5339,17 +5477,20 @@
       <c r="J24" s="209" t="s">
         <v>487</v>
       </c>
-      <c r="K24" s="209" t="s">
+      <c r="K24" s="233" t="s">
+        <v>740</v>
+      </c>
+      <c r="L24" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L24" s="209" t="s">
+      <c r="M24" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M24" s="228" t="s">
+      <c r="N24" s="220" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="28.5" customHeight="1">
       <c r="A25" s="103">
         <v>24</v>
       </c>
@@ -5376,15 +5517,18 @@
         <v>105</v>
       </c>
       <c r="J25" s="209"/>
-      <c r="K25" s="209" t="s">
+      <c r="K25" s="231" t="s">
+        <v>742</v>
+      </c>
+      <c r="L25" s="209" t="s">
         <v>715</v>
       </c>
-      <c r="L25" s="209" t="s">
+      <c r="M25" s="209" t="s">
         <v>727</v>
       </c>
-      <c r="M25" s="208"/>
-    </row>
-    <row r="26" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="208"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.5" customHeight="1">
       <c r="A26" s="103">
         <v>25</v>
       </c>
@@ -5409,17 +5553,20 @@
       <c r="J26" s="209" t="s">
         <v>487</v>
       </c>
-      <c r="K26" s="209" t="s">
+      <c r="K26" s="233" t="s">
+        <v>740</v>
+      </c>
+      <c r="L26" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L26" s="209" t="s">
+      <c r="M26" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M26" s="208" t="s">
+      <c r="N26" s="208" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="28.5" customHeight="1">
       <c r="A27" s="103">
         <v>26</v>
       </c>
@@ -5448,17 +5595,20 @@
       <c r="J27" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K27" s="209" t="s">
+      <c r="K27" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L27" s="209" t="s">
         <v>714</v>
       </c>
-      <c r="L27" s="209" t="s">
+      <c r="M27" s="209" t="s">
         <v>725</v>
       </c>
-      <c r="M27" s="228" t="s">
+      <c r="N27" s="220" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="28.5" customHeight="1">
       <c r="A28" s="103">
         <v>27</v>
       </c>
@@ -5487,17 +5637,20 @@
         <v>95</v>
       </c>
       <c r="J28" s="209"/>
-      <c r="K28" s="209" t="s">
+      <c r="K28" s="234" t="s">
+        <v>743</v>
+      </c>
+      <c r="L28" s="209" t="s">
         <v>715</v>
       </c>
-      <c r="L28" s="209" t="s">
+      <c r="M28" s="209" t="s">
         <v>726</v>
       </c>
-      <c r="M28" s="208" t="s">
+      <c r="N28" s="208" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="103">
         <v>28</v>
       </c>
@@ -5522,42 +5675,43 @@
         <v>65</v>
       </c>
       <c r="J29" s="210"/>
-      <c r="K29" s="210" t="s">
+      <c r="K29" s="210"/>
+      <c r="L29" s="210" t="s">
         <v>715</v>
       </c>
-      <c r="L29" s="210" t="s">
+      <c r="M29" s="210" t="s">
         <v>727</v>
       </c>
-      <c r="M29" s="208"/>
-    </row>
-    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="208"/>
+    </row>
+    <row r="30" spans="1:14" ht="35.25" customHeight="1">
       <c r="I30" s="87">
         <f>SUM(I2:I29)</f>
         <v>2925</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:N30" xr:uid="{2900E8D1-2F1B-4191-BBA6-7050B66C211A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I29">
+  <autoFilter ref="A1:O30" xr:uid="{2900E8D1-2F1B-4191-BBA6-7050B66C211A}"/>
+  <sortState ref="B2:I29">
     <sortCondition ref="B1"/>
   </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="43" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="47" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5572,13 +5726,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="40.5" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
@@ -5586,7 +5740,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="24" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
@@ -5594,7 +5748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="24" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -5602,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="24" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
@@ -5610,7 +5764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="24" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -5618,7 +5772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
@@ -5626,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="24" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +5788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="24" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -5642,7 +5796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="24" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
@@ -5650,7 +5804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="24" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
@@ -5658,7 +5812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="24" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
@@ -5666,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="24" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
@@ -5674,7 +5828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="24" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>328</v>
       </c>
@@ -5682,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="24" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -5690,7 +5844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="24" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
@@ -5698,7 +5852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="24" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>62</v>
       </c>
@@ -5706,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="24" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>20</v>
       </c>
@@ -5714,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="24" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
@@ -5722,7 +5876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="24" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
@@ -5730,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="24" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
@@ -5738,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="24" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>25</v>
       </c>
@@ -5746,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="24" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>26</v>
       </c>
@@ -5754,7 +5908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="24" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>27</v>
       </c>
@@ -5762,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="24" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>28</v>
       </c>
@@ -5770,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="24" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>63</v>
       </c>
@@ -5778,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="24" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>64</v>
       </c>
@@ -5786,7 +5940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="24" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
@@ -5794,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="24" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>29</v>
       </c>
@@ -5802,7 +5956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="24" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>30</v>
       </c>
@@ -5810,7 +5964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="24" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>31</v>
       </c>
@@ -5818,7 +5972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="24" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
@@ -5826,7 +5980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="24" customHeight="1">
       <c r="A33" s="15" t="s">
         <v>33</v>
       </c>
@@ -5834,7 +5988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="24" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>34</v>
       </c>
@@ -5842,7 +5996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="24" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
@@ -5850,7 +6004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="24" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
@@ -5858,7 +6012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="24" customHeight="1">
       <c r="A37" s="15" t="s">
         <v>37</v>
       </c>
@@ -5866,7 +6020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="24" customHeight="1">
       <c r="A38" s="15" t="s">
         <v>38</v>
       </c>
@@ -5874,7 +6028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="24" customHeight="1">
       <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
@@ -5882,7 +6036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="24" customHeight="1">
       <c r="A40" s="15" t="s">
         <v>65</v>
       </c>
@@ -5890,7 +6044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="24" customHeight="1">
       <c r="A41" s="15" t="s">
         <v>66</v>
       </c>
@@ -5898,7 +6052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
         <v>67</v>
       </c>
@@ -5906,7 +6060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="24" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
@@ -5914,7 +6068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="24" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>69</v>
       </c>
@@ -5922,7 +6076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="24" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>40</v>
       </c>
@@ -5930,7 +6084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="24" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>41</v>
       </c>
@@ -5938,7 +6092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="24" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>42</v>
       </c>
@@ -5946,7 +6100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="24" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>70</v>
       </c>
@@ -5954,7 +6108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="24" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>43</v>
       </c>
@@ -5962,7 +6116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="24" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>44</v>
       </c>
@@ -5970,7 +6124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="24" customHeight="1">
       <c r="A51" s="15" t="s">
         <v>45</v>
       </c>
@@ -5978,7 +6132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="24" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>46</v>
       </c>
@@ -5986,7 +6140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="24" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>71</v>
       </c>
@@ -5994,7 +6148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="24" customHeight="1">
       <c r="A54" s="15" t="s">
         <v>47</v>
       </c>
@@ -6002,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="24" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>48</v>
       </c>
@@ -6010,7 +6164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="24" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>49</v>
       </c>
@@ -6018,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="24" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>72</v>
       </c>
@@ -6026,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="24" customHeight="1">
       <c r="A58" s="15" t="s">
         <v>73</v>
       </c>
@@ -6034,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="24" customHeight="1">
       <c r="A59" s="15" t="s">
         <v>50</v>
       </c>
@@ -6042,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="24" customHeight="1">
       <c r="A60" s="15" t="s">
         <v>51</v>
       </c>
@@ -6050,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="24" customHeight="1">
       <c r="A61" s="15" t="s">
         <v>52</v>
       </c>
@@ -6058,7 +6212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="24" customHeight="1">
       <c r="A62" s="15" t="s">
         <v>53</v>
       </c>
@@ -6066,7 +6220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="24" customHeight="1">
       <c r="A63" s="15" t="s">
         <v>54</v>
       </c>
@@ -6074,7 +6228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="24" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>55</v>
       </c>
@@ -6082,7 +6236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="24" customHeight="1">
       <c r="A65" s="15" t="s">
         <v>56</v>
       </c>
@@ -6090,7 +6244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="24" customHeight="1">
       <c r="A66" s="15" t="s">
         <v>57</v>
       </c>
@@ -6114,23 +6268,23 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="87" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="80" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="87" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="61.5" customHeight="1" thickBot="1">
       <c r="C1" s="185" t="s">
         <v>681</v>
       </c>
@@ -6156,7 +6310,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="41" t="s">
         <v>171</v>
       </c>
@@ -6200,7 +6354,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="21" customHeight="1">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="61" t="s">
@@ -6242,7 +6396,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="62" t="s">
@@ -6284,7 +6438,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="21" customHeight="1">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="63" t="s">
@@ -6326,7 +6480,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="21" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="64" t="s">
@@ -6361,14 +6515,14 @@
       <c r="L6" s="20">
         <v>8</v>
       </c>
-      <c r="N6" s="216" t="s">
+      <c r="N6" s="222" t="s">
         <v>94</v>
       </c>
       <c r="O6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="21" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="65" t="s">
@@ -6403,12 +6557,12 @@
       <c r="L7" s="8">
         <v>8</v>
       </c>
-      <c r="N7" s="216"/>
+      <c r="N7" s="222"/>
       <c r="O7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="21" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="66" t="s">
@@ -6443,12 +6597,12 @@
       <c r="L8" s="21">
         <v>8</v>
       </c>
-      <c r="N8" s="216"/>
+      <c r="N8" s="222"/>
       <c r="O8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>180</v>
       </c>
@@ -6486,7 +6640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="21" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="65" t="s">
@@ -6522,7 +6676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="21" customHeight="1">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="68" t="s">
@@ -6558,7 +6712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="21" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="64" t="s">
@@ -6594,7 +6748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="21" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="69" t="s">
@@ -6630,7 +6784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="21" customHeight="1">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="70" t="s">
@@ -6666,7 +6820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="21" customHeight="1">
       <c r="A15" s="53" t="s">
         <v>194</v>
       </c>
@@ -6704,7 +6858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="21" customHeight="1">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="72" t="s">
@@ -6740,7 +6894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="21" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="73" t="s">
@@ -6776,7 +6930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="74" t="s">
@@ -6816,7 +6970,7 @@
       <c r="O18" s="109"/>
       <c r="P18" s="109"/>
     </row>
-    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="21" customHeight="1">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="75" t="s">
@@ -6851,12 +7005,12 @@
       <c r="L19" s="8">
         <v>15</v>
       </c>
-      <c r="M19" s="217"/>
-      <c r="N19" s="215"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="221"/>
       <c r="O19" s="110"/>
       <c r="P19" s="109"/>
     </row>
-    <row r="20" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="21" customHeight="1">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="76" t="s">
@@ -6891,12 +7045,12 @@
       <c r="L20" s="32">
         <v>41</v>
       </c>
-      <c r="M20" s="217"/>
-      <c r="N20" s="215"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="221"/>
       <c r="O20" s="110"/>
       <c r="P20" s="109"/>
     </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="21" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="77" t="s">
@@ -6936,7 +7090,7 @@
       <c r="O21" s="109"/>
       <c r="P21" s="109"/>
     </row>
-    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="21" customHeight="1">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="74" t="s">
@@ -6976,7 +7130,7 @@
       <c r="O22" s="109"/>
       <c r="P22" s="109"/>
     </row>
-    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="21" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>202</v>
       </c>
@@ -7018,7 +7172,7 @@
       <c r="O23" s="109"/>
       <c r="P23" s="109"/>
     </row>
-    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="21" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="78" t="s">
@@ -7058,7 +7212,7 @@
       <c r="O24" s="109"/>
       <c r="P24" s="109"/>
     </row>
-    <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="21" customHeight="1">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="79" t="s">
@@ -7098,7 +7252,7 @@
       <c r="O25" s="109"/>
       <c r="P25" s="109"/>
     </row>
-    <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="21" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="78" t="s">
@@ -7138,7 +7292,7 @@
       <c r="O26" s="109"/>
       <c r="P26" s="109"/>
     </row>
-    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="21" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="78" t="s">
@@ -7173,12 +7327,12 @@
       <c r="L27" s="38">
         <v>74</v>
       </c>
-      <c r="M27" s="215"/>
+      <c r="M27" s="221"/>
       <c r="N27" s="112"/>
       <c r="O27" s="109"/>
       <c r="P27" s="109"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16">
       <c r="C28" s="50" t="s">
         <v>175</v>
       </c>
@@ -7218,42 +7372,42 @@
         <f t="shared" ref="L28" si="3">SUM(L2:L27)</f>
         <v>1138</v>
       </c>
-      <c r="M28" s="215"/>
+      <c r="M28" s="221"/>
       <c r="N28" s="112"/>
       <c r="O28" s="109"/>
       <c r="P28" s="109"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="M29" s="111"/>
       <c r="N29" s="114"/>
       <c r="O29" s="109"/>
       <c r="P29" s="109"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M30" s="215"/>
+    <row r="30" spans="1:16">
+      <c r="M30" s="221"/>
       <c r="N30" s="112"/>
       <c r="O30" s="109"/>
       <c r="P30" s="109"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M31" s="215"/>
+    <row r="31" spans="1:16">
+      <c r="M31" s="221"/>
       <c r="N31" s="112"/>
       <c r="O31" s="109"/>
       <c r="P31" s="109"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="M32" s="113"/>
       <c r="N32" s="114"/>
       <c r="O32" s="109"/>
       <c r="P32" s="109"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="M33" s="113"/>
       <c r="N33" s="112"/>
       <c r="O33" s="109"/>
       <c r="P33" s="109"/>
     </row>
-    <row r="34" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="40.5" customHeight="1">
       <c r="A34" s="199" t="s">
         <v>603</v>
       </c>
@@ -7286,7 +7440,7 @@
       <c r="O34" s="109"/>
       <c r="P34" s="109"/>
     </row>
-    <row r="35" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="40.5" customHeight="1">
       <c r="A35" s="199">
         <v>1</v>
       </c>
@@ -7309,7 +7463,7 @@
       <c r="O35" s="109"/>
       <c r="P35" s="109"/>
     </row>
-    <row r="36" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="40.5" customHeight="1">
       <c r="A36" s="199">
         <v>2</v>
       </c>
@@ -7332,7 +7486,7 @@
       <c r="O36" s="109"/>
       <c r="P36" s="109"/>
     </row>
-    <row r="37" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="40.5" customHeight="1">
       <c r="A37" s="199">
         <v>3</v>
       </c>
@@ -7355,7 +7509,7 @@
       <c r="O37" s="109"/>
       <c r="P37" s="109"/>
     </row>
-    <row r="38" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="40.5" customHeight="1">
       <c r="A38" s="199">
         <v>4</v>
       </c>
@@ -7378,7 +7532,7 @@
       <c r="O38" s="109"/>
       <c r="P38" s="109"/>
     </row>
-    <row r="39" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="40.5" customHeight="1">
       <c r="A39" s="199">
         <v>5</v>
       </c>
@@ -7401,7 +7555,7 @@
       <c r="O39" s="109"/>
       <c r="P39" s="109"/>
     </row>
-    <row r="40" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="40.5" customHeight="1">
       <c r="A40" s="199">
         <v>6</v>
       </c>
@@ -7424,7 +7578,7 @@
       <c r="O40" s="109"/>
       <c r="P40" s="109"/>
     </row>
-    <row r="41" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="40.5" customHeight="1">
       <c r="A41" s="199">
         <v>7</v>
       </c>
@@ -7447,7 +7601,7 @@
       <c r="O41" s="109"/>
       <c r="P41" s="109"/>
     </row>
-    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="48">
       <c r="A42" s="202">
         <v>8</v>
       </c>
@@ -7480,7 +7634,7 @@
       <c r="O42" s="109"/>
       <c r="P42" s="109"/>
     </row>
-    <row r="43" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="32">
       <c r="A43" s="202">
         <v>9</v>
       </c>
@@ -7513,7 +7667,7 @@
       <c r="O43" s="109"/>
       <c r="P43" s="109"/>
     </row>
-    <row r="44" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="32">
       <c r="A44" s="202">
         <v>10</v>
       </c>
@@ -7544,7 +7698,7 @@
       <c r="O44" s="109"/>
       <c r="P44" s="109"/>
     </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="16">
       <c r="A45" s="202">
         <v>11</v>
       </c>
@@ -7573,7 +7727,7 @@
       <c r="O45" s="109"/>
       <c r="P45" s="109"/>
     </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="32">
       <c r="A46" s="202">
         <v>12</v>
       </c>
@@ -7602,7 +7756,7 @@
       <c r="O46" s="109"/>
       <c r="P46" s="109"/>
     </row>
-    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="32">
       <c r="A47" s="202">
         <v>13</v>
       </c>
@@ -7631,7 +7785,7 @@
       <c r="O47" s="110"/>
       <c r="P47" s="109"/>
     </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="16">
       <c r="A48" s="202">
         <v>14</v>
       </c>
@@ -7660,7 +7814,7 @@
       <c r="O48" s="109"/>
       <c r="P48" s="109"/>
     </row>
-    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="48">
       <c r="A49" s="202">
         <v>15</v>
       </c>
@@ -7685,7 +7839,7 @@
       </c>
       <c r="K49" s="193"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="32">
       <c r="A50" s="202">
         <v>16</v>
       </c>
@@ -7710,7 +7864,7 @@
       </c>
       <c r="K50" s="193"/>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16">
       <c r="A51" s="202">
         <v>17</v>
       </c>
@@ -7735,7 +7889,7 @@
       </c>
       <c r="K51" s="193"/>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="32">
       <c r="A52" s="202">
         <v>18</v>
       </c>
@@ -7760,7 +7914,7 @@
       </c>
       <c r="K52" s="193"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16">
       <c r="A53" s="202">
         <v>19</v>
       </c>
@@ -7784,7 +7938,7 @@
         <v>282091268</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="16">
       <c r="A54" s="202">
         <v>20</v>
       </c>
@@ -7799,7 +7953,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16">
       <c r="A55" s="202">
         <v>21</v>
       </c>
@@ -7814,7 +7968,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16">
       <c r="A56" s="202">
         <v>22</v>
       </c>
@@ -7829,7 +7983,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16">
       <c r="A57" s="202">
         <v>23</v>
       </c>
@@ -7844,7 +7998,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16">
       <c r="A58" s="202">
         <v>24</v>
       </c>
@@ -7859,7 +8013,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="16">
       <c r="A59" s="202">
         <v>25</v>
       </c>
@@ -7874,7 +8028,7 @@
       </c>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="16">
       <c r="A60" s="202">
         <v>26</v>
       </c>
@@ -7887,14 +8041,14 @@
       <c r="D60" s="104"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="D62" s="87">
         <f>SUM(D50:D60)</f>
         <v>1490</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="3:7" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" ht="16" thickBot="1"/>
+    <row r="67" spans="3:7" ht="61" thickBot="1">
       <c r="C67" s="186" t="s">
         <v>603</v>
       </c>
@@ -7911,7 +8065,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" ht="21" thickBot="1">
       <c r="C68" s="187">
         <v>1</v>
       </c>
@@ -7928,7 +8082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" ht="21" thickBot="1">
       <c r="C69" s="187">
         <v>2</v>
       </c>
@@ -7945,7 +8099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" ht="21" thickBot="1">
       <c r="C70" s="187">
         <v>3</v>
       </c>
@@ -7962,7 +8116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" ht="21" thickBot="1">
       <c r="C71" s="187">
         <v>4</v>
       </c>
@@ -7979,7 +8133,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" ht="21" thickBot="1">
       <c r="C72" s="187">
         <v>5</v>
       </c>
@@ -7996,7 +8150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" ht="21" thickBot="1">
       <c r="C73" s="187">
         <v>6</v>
       </c>
@@ -8013,7 +8167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" ht="21" thickBot="1">
       <c r="C74" s="187">
         <v>7</v>
       </c>
@@ -8030,7 +8184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" ht="21" thickBot="1">
       <c r="C75" s="187">
         <v>8</v>
       </c>
@@ -8047,7 +8201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" ht="21" thickBot="1">
       <c r="C76" s="187">
         <v>9</v>
       </c>
@@ -8064,7 +8218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" ht="21" thickBot="1">
       <c r="C77" s="187">
         <v>10</v>
       </c>
@@ -8081,7 +8235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" ht="21" thickBot="1">
       <c r="C78" s="187">
         <v>11</v>
       </c>
@@ -8098,7 +8252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" ht="21" thickBot="1">
       <c r="C79" s="187">
         <v>12</v>
       </c>
@@ -8115,7 +8269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" ht="21" thickBot="1">
       <c r="C80" s="187">
         <v>13</v>
       </c>
@@ -8132,7 +8286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="3:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" ht="41" thickBot="1">
       <c r="C81" s="187">
         <v>14</v>
       </c>
@@ -8149,7 +8303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" ht="21" thickBot="1">
       <c r="C82" s="187">
         <v>15</v>
       </c>
@@ -8166,7 +8320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" ht="21" thickBot="1">
       <c r="C83" s="187">
         <v>16</v>
       </c>
@@ -8183,7 +8337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" ht="21" thickBot="1">
       <c r="C84" s="187">
         <v>17</v>
       </c>
@@ -8200,7 +8354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" ht="21" thickBot="1">
       <c r="C85" s="187">
         <v>18</v>
       </c>
@@ -8217,7 +8371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" ht="21" thickBot="1">
       <c r="C86" s="187">
         <v>19</v>
       </c>
@@ -8234,7 +8388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="3:7" ht="24" thickBot="1">
       <c r="C87" s="190"/>
       <c r="D87" s="190"/>
       <c r="E87" s="191" t="s">
@@ -8250,7 +8404,7 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:L28" xr:uid="{EFDD5532-C160-46B0-8713-FE6714EA1A36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C45:D56">
+  <sortState ref="C45:D56">
     <sortCondition ref="C45"/>
   </sortState>
   <mergeCells count="5">
@@ -8276,32 +8430,32 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.5703125" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="34.5" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28.1640625" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.1640625" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" hidden="1">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -8334,7 +8488,7 @@
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="63" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>81</v>
       </c>
@@ -8391,7 +8545,7 @@
       </c>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="24" customHeight="1">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -8437,7 +8591,7 @@
       </c>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="24" customHeight="1">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -8483,7 +8637,7 @@
       </c>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="24" customHeight="1">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -8529,7 +8683,7 @@
       </c>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -8575,7 +8729,7 @@
       </c>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -8625,7 +8779,7 @@
       </c>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="24" customHeight="1">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -8671,7 +8825,7 @@
       </c>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -8717,7 +8871,7 @@
       </c>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -8775,7 +8929,7 @@
       </c>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="24" customHeight="1">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -8821,7 +8975,7 @@
       </c>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -8867,7 +9021,7 @@
       </c>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="42">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -8925,7 +9079,7 @@
       </c>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="24" customHeight="1">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -8967,7 +9121,7 @@
       </c>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="24" customHeight="1">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -9013,7 +9167,7 @@
       </c>
       <c r="U15"/>
     </row>
-    <row r="16" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="24" customHeight="1">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -9059,7 +9213,7 @@
       </c>
       <c r="U16"/>
     </row>
-    <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="24" customHeight="1">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -9105,7 +9259,7 @@
       </c>
       <c r="U17"/>
     </row>
-    <row r="18" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="24" customHeight="1">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -9147,7 +9301,7 @@
       </c>
       <c r="U18"/>
     </row>
-    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="24" customHeight="1">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -9189,7 +9343,7 @@
       </c>
       <c r="U19"/>
     </row>
-    <row r="20" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="24" customHeight="1">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -9235,7 +9389,7 @@
       </c>
       <c r="U20"/>
     </row>
-    <row r="21" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="24" customHeight="1">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -9281,7 +9435,7 @@
       </c>
       <c r="U21"/>
     </row>
-    <row r="22" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="24" customHeight="1">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -9327,7 +9481,7 @@
       </c>
       <c r="U22"/>
     </row>
-    <row r="23" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="24" customHeight="1">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -9373,7 +9527,7 @@
       </c>
       <c r="U23"/>
     </row>
-    <row r="24" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="24" customHeight="1">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -9419,7 +9573,7 @@
       </c>
       <c r="U24"/>
     </row>
-    <row r="25" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="24" customHeight="1">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -9465,7 +9619,7 @@
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="24" customHeight="1">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -9511,7 +9665,7 @@
       </c>
       <c r="U26"/>
     </row>
-    <row r="27" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="24" customHeight="1">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -9557,7 +9711,7 @@
       </c>
       <c r="U27"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -9603,7 +9757,7 @@
       </c>
       <c r="U28"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -9661,7 +9815,7 @@
       </c>
       <c r="U29"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -9719,7 +9873,7 @@
       </c>
       <c r="U30"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -9765,7 +9919,7 @@
       </c>
       <c r="U31"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -9823,7 +9977,7 @@
       </c>
       <c r="U32"/>
     </row>
-    <row r="33" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="24" customHeight="1">
       <c r="A33" s="14">
         <v>31</v>
       </c>
@@ -9869,7 +10023,7 @@
       </c>
       <c r="U33"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="14">
         <v>32</v>
       </c>
@@ -9915,7 +10069,7 @@
       </c>
       <c r="U34"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -9973,7 +10127,7 @@
       </c>
       <c r="U35"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="14">
         <v>34</v>
       </c>
@@ -10029,7 +10183,7 @@
       </c>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="28">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -10087,7 +10241,7 @@
       </c>
       <c r="U37"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" s="14">
         <v>36</v>
       </c>
@@ -10145,7 +10299,7 @@
       </c>
       <c r="U38"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" s="14">
         <v>37</v>
       </c>
@@ -10203,7 +10357,7 @@
       </c>
       <c r="U39"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="14">
         <v>38</v>
       </c>
@@ -10261,7 +10415,7 @@
       </c>
       <c r="U40"/>
     </row>
-    <row r="41" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="24" customHeight="1">
       <c r="A41" s="14">
         <v>39</v>
       </c>
@@ -10307,7 +10461,7 @@
       </c>
       <c r="U41"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21">
       <c r="A42" s="14">
         <v>40</v>
       </c>
@@ -10365,7 +10519,7 @@
       </c>
       <c r="U42"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" s="14">
         <v>41</v>
       </c>
@@ -10411,7 +10565,7 @@
       </c>
       <c r="U43"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" s="14">
         <v>42</v>
       </c>
@@ -10457,7 +10611,7 @@
       </c>
       <c r="U44"/>
     </row>
-    <row r="45" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="25.5" customHeight="1">
       <c r="A45" s="14">
         <v>43</v>
       </c>
@@ -10515,7 +10669,7 @@
       </c>
       <c r="U45"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" s="14">
         <v>44</v>
       </c>
@@ -10561,7 +10715,7 @@
       </c>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="28">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -10619,7 +10773,7 @@
       </c>
       <c r="U47"/>
     </row>
-    <row r="48" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="21.75" customHeight="1">
       <c r="A48" s="14">
         <v>46</v>
       </c>
@@ -10677,7 +10831,7 @@
       </c>
       <c r="U48"/>
     </row>
-    <row r="49" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="28">
       <c r="A49" s="14">
         <v>47</v>
       </c>
@@ -10735,7 +10889,7 @@
       </c>
       <c r="U49"/>
     </row>
-    <row r="50" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="28">
       <c r="A50" s="14">
         <v>48</v>
       </c>
@@ -10793,7 +10947,7 @@
       </c>
       <c r="U50"/>
     </row>
-    <row r="51" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="28">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -10851,7 +11005,7 @@
       </c>
       <c r="U51"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21">
       <c r="A52" s="14">
         <v>50</v>
       </c>
@@ -10909,7 +11063,7 @@
       </c>
       <c r="U52"/>
     </row>
-    <row r="53" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="28">
       <c r="A53" s="14">
         <v>51</v>
       </c>
@@ -10967,7 +11121,7 @@
       </c>
       <c r="U53"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21">
       <c r="A54" s="14">
         <v>52</v>
       </c>
@@ -11025,7 +11179,7 @@
       </c>
       <c r="U54"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21">
       <c r="A55" s="14">
         <v>53</v>
       </c>
@@ -11071,7 +11225,7 @@
       </c>
       <c r="U55"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21">
       <c r="A56" s="14">
         <v>54</v>
       </c>
@@ -11129,7 +11283,7 @@
       </c>
       <c r="U56"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21">
       <c r="A57" s="14">
         <v>55</v>
       </c>
@@ -11187,7 +11341,7 @@
       </c>
       <c r="U57"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21">
       <c r="A58" s="14">
         <v>56</v>
       </c>
@@ -11245,7 +11399,7 @@
       </c>
       <c r="U58"/>
     </row>
-    <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="24" customHeight="1">
       <c r="A59" s="14">
         <v>57</v>
       </c>
@@ -11291,7 +11445,7 @@
       </c>
       <c r="U59"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21">
       <c r="A60" s="14">
         <v>58</v>
       </c>
@@ -11349,7 +11503,7 @@
       </c>
       <c r="U60"/>
     </row>
-    <row r="61" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="24" customHeight="1">
       <c r="A61" s="14">
         <v>59</v>
       </c>
@@ -11407,7 +11561,7 @@
       </c>
       <c r="U61"/>
     </row>
-    <row r="62" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="24" customHeight="1">
       <c r="A62" s="14">
         <v>60</v>
       </c>
@@ -11465,7 +11619,7 @@
       </c>
       <c r="U62"/>
     </row>
-    <row r="63" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="24" customHeight="1">
       <c r="A63" s="14">
         <v>61</v>
       </c>
@@ -11523,7 +11677,7 @@
       </c>
       <c r="U63"/>
     </row>
-    <row r="64" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="17.25" customHeight="1">
       <c r="A64" s="14">
         <v>62</v>
       </c>
@@ -11569,7 +11723,7 @@
       </c>
       <c r="U64"/>
     </row>
-    <row r="65" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="24" customHeight="1">
       <c r="A65" s="14">
         <v>63</v>
       </c>
@@ -11615,7 +11769,7 @@
       </c>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="24" customHeight="1">
       <c r="A66" s="14">
         <v>64</v>
       </c>
@@ -11661,7 +11815,7 @@
       </c>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="25.5" customHeight="1">
       <c r="B67" s="18"/>
       <c r="C67" s="18" t="s">
         <v>82</v>
@@ -11707,7 +11861,7 @@
       </c>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15" customHeight="1">
       <c r="C68" s="156" t="s">
         <v>294</v>
       </c>
@@ -11726,7 +11880,7 @@
       <c r="Q68" s="95"/>
       <c r="R68" s="95"/>
     </row>
-    <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15" customHeight="1">
       <c r="C69" s="156" t="s">
         <v>367</v>
       </c>
@@ -11745,7 +11899,7 @@
       <c r="Q69" s="95"/>
       <c r="R69" s="95"/>
     </row>
-    <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15" customHeight="1">
       <c r="C70" s="156" t="s">
         <v>368</v>
       </c>
@@ -11764,7 +11918,7 @@
       <c r="Q70" s="95"/>
       <c r="R70" s="95"/>
     </row>
-    <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="15" customHeight="1">
       <c r="C71" s="156" t="s">
         <v>209</v>
       </c>
@@ -11779,7 +11933,7 @@
       <c r="Q71" s="95"/>
       <c r="R71" s="95"/>
     </row>
-    <row r="72" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="24.75" customHeight="1">
       <c r="C72" s="157" t="s">
         <v>589</v>
       </c>
@@ -11795,32 +11949,32 @@
       <c r="Q72" s="95"/>
       <c r="R72" s="95"/>
     </row>
-    <row r="73" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="24.75" customHeight="1"/>
+    <row r="76" spans="1:21">
       <c r="E76" s="144"/>
       <c r="F76" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21">
       <c r="E77" s="145"/>
       <c r="F77" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21">
       <c r="E78" s="146"/>
       <c r="F78" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21">
       <c r="E79" s="147"/>
       <c r="F79" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21">
       <c r="E80" s="148"/>
       <c r="F80" t="s">
         <v>513</v>
@@ -11858,25 +12012,25 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="42">
       <c r="A1" s="139" t="s">
         <v>81</v>
       </c>
@@ -11926,7 +12080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -11977,7 +12131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -12028,7 +12182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -12079,7 +12233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="28.5" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -12130,7 +12284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="24" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -12169,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="28">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -12220,7 +12374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -12271,7 +12425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -12322,7 +12476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="28">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -12373,7 +12527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="39" customFormat="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -12424,7 +12578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="28">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -12475,7 +12629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -12529,7 +12683,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="28">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -12580,7 +12734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -12631,7 +12785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -12682,7 +12836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -12733,7 +12887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -12784,7 +12938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -12835,7 +12989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -12886,7 +13040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -12937,7 +13091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -12988,7 +13142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -13031,7 +13185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -13074,7 +13228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="28">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -13125,7 +13279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="28">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -13176,7 +13330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -13227,7 +13381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -13278,7 +13432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -13329,7 +13483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="28">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -13380,7 +13534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -13431,7 +13585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -13482,7 +13636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -13533,7 +13687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -13584,7 +13738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -13635,7 +13789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -13686,7 +13840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -13729,7 +13883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -13780,7 +13934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -13831,7 +13985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -13882,7 +14036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -13933,7 +14087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="16">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -13984,7 +14138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -14035,7 +14189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="28">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -14086,7 +14240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -14137,7 +14291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="28">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -14188,7 +14342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -14239,7 +14393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -14290,7 +14444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="56">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -14341,7 +14495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -14392,7 +14546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -14443,7 +14597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -14494,7 +14648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="37.5" customHeight="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -14545,7 +14699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -14596,7 +14750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -14647,7 +14801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="28">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -14698,7 +14852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -14749,7 +14903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="28">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -14800,7 +14954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -14851,7 +15005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -14902,7 +15056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -14953,7 +15107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -15004,7 +15158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -15055,7 +15209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="28">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -15106,7 +15260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -15157,7 +15311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="49.5" customHeight="1">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18" t="s">
@@ -15198,7 +15352,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:16" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection pivotTables="0"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -15230,30 +15384,30 @@
       <selection activeCell="C1" sqref="C1:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" customWidth="1"/>
     <col min="6" max="6" width="17" style="27" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="25" customWidth="1"/>
-    <col min="12" max="14" width="13.5703125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="25" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="25" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="25" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="25"/>
-    <col min="20" max="20" width="13.5703125" style="25" customWidth="1"/>
-    <col min="21" max="16384" width="13.5703125" style="25"/>
+    <col min="7" max="7" width="21.83203125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="25" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="25" customWidth="1"/>
+    <col min="12" max="14" width="13.5" style="25" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="25" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="25" customWidth="1"/>
+    <col min="17" max="17" width="19.5" style="25" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="25"/>
+    <col min="20" max="20" width="13.5" style="25" customWidth="1"/>
+    <col min="21" max="16384" width="13.5" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="87.75" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>81</v>
       </c>
@@ -15315,7 +15469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="31.5" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -15377,7 +15531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -15439,7 +15593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="42" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -15504,7 +15658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="31.5" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -15566,7 +15720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="31.5" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -15614,7 +15768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="31.5" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -15676,7 +15830,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="31.5" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -15738,7 +15892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="31.5" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -15800,7 +15954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="31.5" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -15862,7 +16016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="27" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -15920,7 +16074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="41.25" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -15982,7 +16136,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="31.5" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -16042,7 +16196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="31.5" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -16104,7 +16258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="31.5" customHeight="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -16166,7 +16320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="31.5" customHeight="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -16228,7 +16382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="31.5" customHeight="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -16288,7 +16442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="31.5" customHeight="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -16346,7 +16500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="31.5" customHeight="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -16408,7 +16562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="31.5" customHeight="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -16470,7 +16624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="31.5" customHeight="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -16532,7 +16686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="31.5" customHeight="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -16594,7 +16748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="31.5" customHeight="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -16656,7 +16810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="31.5" customHeight="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -16718,7 +16872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="31.5" customHeight="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -16780,7 +16934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="31.5" customHeight="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -16842,7 +16996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="31.5" customHeight="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -16904,7 +17058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="31.5" customHeight="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -16966,7 +17120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="31.5" customHeight="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -17028,7 +17182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="31.5" customHeight="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -17090,7 +17244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="31.5" customHeight="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -17152,7 +17306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="31.5" customHeight="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -17214,7 +17368,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="31.5" customHeight="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -17276,7 +17430,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="31.5" customHeight="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -17338,7 +17492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="31.5" customHeight="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -17400,7 +17554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="31.5" customHeight="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -17462,7 +17616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="31.5" customHeight="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -17524,7 +17678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="49.5" customHeight="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -17586,7 +17740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="31.5" customHeight="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -17648,7 +17802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="31.5" customHeight="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -17710,7 +17864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="31.5" customHeight="1">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -17772,7 +17926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="31.5" customHeight="1">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -17834,7 +17988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="31.5" customHeight="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -17896,7 +18050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="31.5" customHeight="1">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -17958,7 +18112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="52.5" customHeight="1">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -18020,7 +18174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="63.75" customHeight="1">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -18082,7 +18236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="31.5" customHeight="1">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -18144,7 +18298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="31.5" customHeight="1">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -18206,7 +18360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="141.75" customHeight="1">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -18268,7 +18422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="36" customHeight="1">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -18330,7 +18484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="31.5" customHeight="1">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -18392,7 +18546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="31.5" customHeight="1">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -18454,7 +18608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="31.5" customHeight="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -18516,7 +18670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="31.5" customHeight="1">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -18578,7 +18732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="31.5" customHeight="1">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -18640,7 +18794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="31.5" customHeight="1">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -18702,7 +18856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="31.5" customHeight="1">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -18764,7 +18918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="31.5" customHeight="1">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -18826,7 +18980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="31.5" customHeight="1">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -18888,7 +19042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="31.5" customHeight="1">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -18950,7 +19104,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="31.5" customHeight="1">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -19012,7 +19166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="31.5" customHeight="1">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -19074,7 +19228,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="31.5" customHeight="1">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -19136,7 +19290,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="43.5" customHeight="1">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -19198,7 +19352,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="31.5" customHeight="1">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -19260,7 +19414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="51" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>82</v>
       </c>
@@ -19310,14 +19464,14 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20">
       <c r="K67" s="27"/>
     </row>
-    <row r="68" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="69" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="70" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="71" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="72" spans="1:20" ht="22.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -19336,23 +19490,23 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="27" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="25" customWidth="1"/>
-    <col min="12" max="15" width="13.5703125" style="25" customWidth="1"/>
-    <col min="16" max="16384" width="13.5703125" style="25"/>
+    <col min="1" max="1" width="4.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="27" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="27" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="27" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="26" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="25" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="25" customWidth="1"/>
+    <col min="12" max="15" width="13.5" style="25" customWidth="1"/>
+    <col min="16" max="16384" width="13.5" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="71.25" customHeight="1">
       <c r="A1" s="139" t="s">
         <v>81</v>
       </c>
@@ -19396,7 +19550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="31.5" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -19441,7 +19595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="31.5" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -19482,7 +19636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="72.75" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -19527,7 +19681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="31.5" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -19568,7 +19722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="31.5" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -19601,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="31.5" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -19642,7 +19796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="31.5" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -19687,7 +19841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="31.5" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -19728,7 +19882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="31.5" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -19769,7 +19923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="31.5" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -19810,7 +19964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="31.5" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -19851,7 +20005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="39" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -19892,7 +20046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="31.5" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -19937,7 +20091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="31.5" customHeight="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -19978,7 +20132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="48" customHeight="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -20023,7 +20177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="31.5" customHeight="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -20064,7 +20218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="31.5" customHeight="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -20105,7 +20259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="31.5" customHeight="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -20150,7 +20304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="31.5" customHeight="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -20191,7 +20345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="31.5" customHeight="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -20236,7 +20390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="31.5" customHeight="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -20277,7 +20431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="58.5" customHeight="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -20322,7 +20476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="50.25" customHeight="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -20367,7 +20521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="48" customHeight="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -20412,7 +20566,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="31.5" customHeight="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -20453,7 +20607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="31.5" customHeight="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -20494,7 +20648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="31.5" customHeight="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -20535,7 +20689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="31.5" customHeight="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -20576,7 +20730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="31.5" customHeight="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -20617,7 +20771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="31.5" customHeight="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -20662,7 +20816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="31.5" customHeight="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -20703,7 +20857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="31.5" customHeight="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -20744,7 +20898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="31.5" customHeight="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -20785,7 +20939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="31.5" customHeight="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -20830,7 +20984,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="58.5" customHeight="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -20875,7 +21029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="31.5" customHeight="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -20920,7 +21074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="31.5" customHeight="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -20961,7 +21115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="31.5" customHeight="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -21002,7 +21156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="31.5" customHeight="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -21043,7 +21197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="31.5" customHeight="1">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -21084,7 +21238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="58.5" customHeight="1">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -21129,7 +21283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="45" customHeight="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -21174,7 +21328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="31.5" customHeight="1">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -21219,7 +21373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="58.5" customHeight="1">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -21264,7 +21418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="31.5" customHeight="1">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -21305,7 +21459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="66" customHeight="1">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -21350,7 +21504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="31.5" customHeight="1">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -21391,7 +21545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="86.25" customHeight="1">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -21436,7 +21590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="31.5" customHeight="1">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -21477,7 +21631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="45" customHeight="1">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -21522,7 +21676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="42.75" customHeight="1">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -21567,7 +21721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="54.75" customHeight="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -21612,7 +21766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="31.5" customHeight="1">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -21653,7 +21807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="54.75" customHeight="1">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -21698,7 +21852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="31.5" customHeight="1">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -21743,7 +21897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="18" customHeight="1">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -21788,7 +21942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="31.5" customHeight="1">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -21829,7 +21983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="31.5" customHeight="1">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -21870,7 +22024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="31.5" customHeight="1">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -21911,7 +22065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="31.5" customHeight="1">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -21952,7 +22106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="31.5" customHeight="1">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -21993,7 +22147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="31.5" customHeight="1">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -22034,7 +22188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="31.5" customHeight="1">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -22075,7 +22229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="31.5" customHeight="1">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -22116,12 +22270,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="218" t="s">
+    <row r="66" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A66" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="218"/>
-      <c r="C66" s="218"/>
+      <c r="B66" s="224"/>
+      <c r="C66" s="224"/>
       <c r="D66" s="29">
         <f>SUM(D2:D65)</f>
         <v>359</v>
@@ -22152,7 +22306,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:14" ht="58.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A66:C66"/>
@@ -22173,23 +22327,23 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="83" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="83" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="83"/>
-    <col min="5" max="5" width="16.7109375" style="83" customWidth="1"/>
-    <col min="6" max="11" width="14.5703125" style="83" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="83" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="83"/>
+    <col min="3" max="3" width="24.1640625" style="83" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="83"/>
+    <col min="5" max="5" width="16.6640625" style="83" customWidth="1"/>
+    <col min="6" max="11" width="14.5" style="83" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="83" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="220" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="220"/>
+      <c r="C1" s="226"/>
       <c r="D1" s="85" t="s">
         <v>211</v>
       </c>
@@ -22218,14 +22372,14 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="27" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="227" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="221"/>
+      <c r="C2" s="227"/>
       <c r="D2" s="82">
         <v>4</v>
       </c>
@@ -22247,11 +22401,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="222" t="s">
+    <row r="3" spans="1:12" ht="27" customHeight="1">
+      <c r="A3" s="228" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="227" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -22286,9 +22440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="222"/>
-      <c r="B4" s="221"/>
+    <row r="4" spans="1:12" ht="27" customHeight="1">
+      <c r="A4" s="228"/>
+      <c r="B4" s="227"/>
       <c r="C4" s="84" t="s">
         <v>208</v>
       </c>
@@ -22321,12 +22475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="222"/>
-      <c r="B5" s="221" t="s">
+    <row r="5" spans="1:12" ht="27" customHeight="1">
+      <c r="A5" s="228"/>
+      <c r="B5" s="227" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="221"/>
+      <c r="C5" s="227"/>
       <c r="D5" s="82">
         <v>7</v>
       </c>
@@ -22350,12 +22504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="222"/>
-      <c r="B6" s="221" t="s">
+    <row r="6" spans="1:12" ht="27" customHeight="1">
+      <c r="A6" s="228"/>
+      <c r="B6" s="227" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="221"/>
+      <c r="C6" s="227"/>
       <c r="D6" s="82">
         <v>6</v>
       </c>
@@ -22377,8 +22531,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="219" t="s">
+    <row r="7" spans="1:12" ht="27" customHeight="1">
+      <c r="A7" s="225" t="s">
         <v>298</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -22406,8 +22560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="219"/>
+    <row r="8" spans="1:12" ht="27" customHeight="1">
+      <c r="A8" s="225"/>
       <c r="B8" s="88" t="s">
         <v>295</v>
       </c>
@@ -22433,8 +22587,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="219"/>
+    <row r="9" spans="1:12" ht="27" customHeight="1">
+      <c r="A9" s="225"/>
       <c r="B9" s="88" t="s">
         <v>297</v>
       </c>
@@ -22460,8 +22614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="219"/>
+    <row r="10" spans="1:12" ht="27" customHeight="1">
+      <c r="A10" s="225"/>
       <c r="B10" s="88" t="s">
         <v>294</v>
       </c>
@@ -22495,7 +22649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="27" customHeight="1">
       <c r="A11" s="90" t="s">
         <v>299</v>
       </c>
@@ -22524,52 +22678,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="27" customHeight="1">
       <c r="A12" s="92"/>
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="94"/>
     </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="27" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="27" customHeight="1">
       <c r="A14" s="89" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="17">
       <c r="A16" s="89" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15">
       <c r="A17"/>
     </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="17">
       <c r="A19" s="89" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="17">
       <c r="A21" s="91" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="17">
       <c r="A22" s="89" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="17">
       <c r="A23" s="89"/>
     </row>
   </sheetData>
@@ -22596,27 +22750,27 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="37" max="37" width="9.1640625" customWidth="1"/>
+    <col min="38" max="38" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44">
       <c r="B2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44">
       <c r="B3" s="4" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="42">
       <c r="A4" s="182" t="s">
         <v>81</v>
       </c>
@@ -22750,7 +22904,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -22832,7 +22986,7 @@
       <c r="AQ5" s="104"/>
       <c r="AR5" s="104"/>
     </row>
-    <row r="6" spans="1:44" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="76.5" customHeight="1">
       <c r="A6" s="14">
         <v>6</v>
       </c>
@@ -22890,7 +23044,7 @@
       <c r="AQ6" s="104"/>
       <c r="AR6" s="104"/>
     </row>
-    <row r="7" spans="1:44" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="96">
       <c r="A7" s="14">
         <v>11</v>
       </c>
@@ -23020,7 +23174,7 @@
       <c r="AQ7" s="104"/>
       <c r="AR7" s="104"/>
     </row>
-    <row r="8" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="32">
       <c r="A8" s="14">
         <v>13</v>
       </c>
@@ -23094,7 +23248,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9" s="14">
         <v>15</v>
       </c>
@@ -23180,7 +23334,7 @@
       <c r="AQ9" s="104"/>
       <c r="AR9" s="104"/>
     </row>
-    <row r="10" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="32">
       <c r="A10" s="14">
         <v>16</v>
       </c>
@@ -23258,7 +23412,7 @@
       <c r="AQ10" s="104"/>
       <c r="AR10" s="104"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="A11" s="14">
         <v>18</v>
       </c>
@@ -23380,7 +23534,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12" s="14">
         <v>20</v>
       </c>
@@ -23434,7 +23588,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13" s="14">
         <v>22</v>
       </c>
@@ -23496,7 +23650,7 @@
       <c r="AQ13" s="104"/>
       <c r="AR13" s="104"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14" s="14">
         <v>23</v>
       </c>
@@ -23550,7 +23704,7 @@
       <c r="AQ14" s="104"/>
       <c r="AR14" s="104"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="A15" s="14">
         <v>24</v>
       </c>
@@ -23604,7 +23758,7 @@
       <c r="AQ15" s="104"/>
       <c r="AR15" s="104"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="A16" s="14">
         <v>25</v>
       </c>
@@ -23662,7 +23816,7 @@
       <c r="AQ16" s="104"/>
       <c r="AR16" s="104"/>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44">
       <c r="A17" s="14">
         <v>26</v>
       </c>
@@ -23740,7 +23894,7 @@
       <c r="AQ17" s="104"/>
       <c r="AR17" s="104"/>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44">
       <c r="A18" s="14">
         <v>27</v>
       </c>
@@ -23802,7 +23956,7 @@
       <c r="AQ18" s="104"/>
       <c r="AR18" s="104"/>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44">
       <c r="A19" s="14">
         <v>28</v>
       </c>
@@ -23856,7 +24010,7 @@
       <c r="AQ19" s="104"/>
       <c r="AR19" s="104"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44">
       <c r="A20" s="14">
         <v>30</v>
       </c>
@@ -23914,7 +24068,7 @@
       <c r="AQ20" s="104"/>
       <c r="AR20" s="104"/>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44">
       <c r="A21" s="14">
         <v>31</v>
       </c>
@@ -23996,7 +24150,7 @@
       <c r="AQ21" s="104"/>
       <c r="AR21" s="104"/>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44">
       <c r="A22" s="14">
         <v>32</v>
       </c>
@@ -24110,7 +24264,7 @@
       <c r="AQ22" s="104"/>
       <c r="AR22" s="104"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44">
       <c r="A23" s="183">
         <v>33</v>
       </c>
@@ -24212,7 +24366,7 @@
       <c r="AQ23" s="104"/>
       <c r="AR23" s="104"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44">
       <c r="A24" s="14">
         <v>34</v>
       </c>
@@ -24322,7 +24476,7 @@
       <c r="AQ24" s="104"/>
       <c r="AR24" s="104"/>
     </row>
-    <row r="25" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="64">
       <c r="A25" s="14">
         <v>35</v>
       </c>
@@ -24404,7 +24558,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44">
       <c r="A26" s="14">
         <v>36</v>
       </c>
@@ -24462,7 +24616,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="32">
       <c r="A27" s="14">
         <v>37</v>
       </c>
@@ -24564,7 +24718,7 @@
       <c r="AQ27" s="104"/>
       <c r="AR27" s="104"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44">
       <c r="A28" s="14">
         <v>38</v>
       </c>
@@ -24626,7 +24780,7 @@
       <c r="AQ28" s="104"/>
       <c r="AR28" s="104"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44">
       <c r="A29" s="14">
         <v>39</v>
       </c>
@@ -24680,7 +24834,7 @@
       <c r="AQ29" s="104"/>
       <c r="AR29" s="104"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44">
       <c r="A30" s="14">
         <v>40</v>
       </c>
@@ -24750,7 +24904,7 @@
       <c r="AQ30" s="104"/>
       <c r="AR30" s="104"/>
     </row>
-    <row r="31" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" ht="64">
       <c r="A31" s="14">
         <v>41</v>
       </c>
@@ -24856,7 +25010,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44">
       <c r="A32" s="14">
         <v>42</v>
       </c>
@@ -24926,7 +25080,7 @@
       <c r="AQ32" s="104"/>
       <c r="AR32" s="104"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44">
       <c r="A33" s="14">
         <v>44</v>
       </c>
@@ -24992,7 +25146,7 @@
       <c r="AQ33" s="104"/>
       <c r="AR33" s="104"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44">
       <c r="A34" s="14">
         <v>46</v>
       </c>
@@ -25046,7 +25200,7 @@
       <c r="AQ34" s="104"/>
       <c r="AR34" s="104"/>
     </row>
-    <row r="35" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="32">
       <c r="A35" s="14">
         <v>47</v>
       </c>
@@ -25176,7 +25330,7 @@
       <c r="AQ35" s="104"/>
       <c r="AR35" s="104"/>
     </row>
-    <row r="36" spans="1:44" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="80">
       <c r="A36" s="14">
         <v>48</v>
       </c>
@@ -25278,7 +25432,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="28">
       <c r="A37" s="14">
         <v>49</v>
       </c>
@@ -25340,7 +25494,7 @@
       <c r="AQ37" s="104"/>
       <c r="AR37" s="104"/>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44">
       <c r="A38" s="14">
         <v>50</v>
       </c>
@@ -25398,7 +25552,7 @@
       <c r="AQ38" s="104"/>
       <c r="AR38" s="104"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44">
       <c r="A39" s="14">
         <v>51</v>
       </c>
@@ -25452,7 +25606,7 @@
       <c r="AQ39" s="104"/>
       <c r="AR39" s="104"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44">
       <c r="A40" s="14">
         <v>52</v>
       </c>
@@ -25546,7 +25700,7 @@
       <c r="AQ40" s="104"/>
       <c r="AR40" s="104"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44">
       <c r="A41" s="14">
         <v>53</v>
       </c>
@@ -25608,7 +25762,7 @@
       <c r="AQ41" s="104"/>
       <c r="AR41" s="104"/>
     </row>
-    <row r="42" spans="1:44" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="80">
       <c r="A42" s="14">
         <v>54</v>
       </c>
@@ -25662,7 +25816,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44">
       <c r="A43" s="14">
         <v>57</v>
       </c>
@@ -25736,7 +25890,7 @@
       <c r="AQ43" s="104"/>
       <c r="AR43" s="104"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44">
       <c r="A44" s="14">
         <v>58</v>
       </c>
@@ -25822,7 +25976,7 @@
       <c r="AQ44" s="104"/>
       <c r="AR44" s="104"/>
     </row>
-    <row r="45" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="32">
       <c r="A45" s="14">
         <v>59</v>
       </c>
@@ -25932,7 +26086,7 @@
       <c r="AQ45" s="104"/>
       <c r="AR45" s="104"/>
     </row>
-    <row r="46" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="32">
       <c r="A46" s="14">
         <v>60</v>
       </c>
@@ -26038,7 +26192,7 @@
       <c r="AQ46" s="104"/>
       <c r="AR46" s="104"/>
     </row>
-    <row r="47" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" ht="32">
       <c r="A47" s="14">
         <v>61</v>
       </c>
@@ -26160,7 +26314,7 @@
       <c r="AQ47" s="104"/>
       <c r="AR47" s="104"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44">
       <c r="A48" s="14">
         <v>62</v>
       </c>
@@ -26242,7 +26396,7 @@
       <c r="AQ48" s="104"/>
       <c r="AR48" s="104"/>
     </row>
-    <row r="49" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="32">
       <c r="A49" s="14">
         <v>63</v>
       </c>
@@ -26348,7 +26502,7 @@
       <c r="AQ49" s="104"/>
       <c r="AR49" s="104"/>
     </row>
-    <row r="50" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="32">
       <c r="A50" s="14">
         <v>64</v>
       </c>
@@ -26487,18 +26641,18 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11">
       <c r="C3" s="4" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="42">
       <c r="B4" s="182" t="s">
         <v>81</v>
       </c>
@@ -26530,7 +26684,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11">
       <c r="B5" s="14">
         <v>34</v>
       </c>
@@ -26558,7 +26712,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="14">
         <v>59</v>
       </c>
@@ -26586,7 +26740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="14">
         <v>60</v>
       </c>
@@ -26614,7 +26768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="14">
         <v>61</v>
       </c>
@@ -26646,7 +26800,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="64">
       <c r="B9" s="14">
         <v>11</v>
       </c>
@@ -26678,7 +26832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="14">
         <v>4</v>
       </c>
@@ -26694,7 +26848,7 @@
       <c r="J10" s="104"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="14">
         <v>13</v>
       </c>
@@ -26710,7 +26864,7 @@
       <c r="J11" s="104"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="14">
         <v>15</v>
       </c>
@@ -26726,7 +26880,7 @@
       <c r="J12" s="104"/>
       <c r="K12" s="104"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="14">
         <v>16</v>
       </c>
@@ -26742,7 +26896,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="14">
         <v>18</v>
       </c>
@@ -26758,7 +26912,7 @@
       <c r="J14" s="104"/>
       <c r="K14" s="104"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="14">
         <v>20</v>
       </c>
@@ -26774,7 +26928,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="104"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="14">
         <v>22</v>
       </c>
@@ -26790,7 +26944,7 @@
       <c r="J16" s="104"/>
       <c r="K16" s="104"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="14">
         <v>23</v>
       </c>
@@ -26806,7 +26960,7 @@
       <c r="J17" s="104"/>
       <c r="K17" s="104"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="14">
         <v>24</v>
       </c>
@@ -26822,7 +26976,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="104"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="14">
         <v>25</v>
       </c>
@@ -26838,7 +26992,7 @@
       <c r="J19" s="104"/>
       <c r="K19" s="104"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="14">
         <v>27</v>
       </c>
@@ -26854,7 +27008,7 @@
       <c r="J20" s="104"/>
       <c r="K20" s="104"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="14">
         <v>28</v>
       </c>
@@ -26870,7 +27024,7 @@
       <c r="J21" s="104"/>
       <c r="K21" s="104"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="14">
         <v>30</v>
       </c>
@@ -26886,7 +27040,7 @@
       <c r="J22" s="104"/>
       <c r="K22" s="104"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="B23" s="14">
         <v>31</v>
       </c>
@@ -26902,7 +27056,7 @@
       <c r="J23" s="104"/>
       <c r="K23" s="104"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="14">
         <v>32</v>
       </c>
@@ -26918,7 +27072,7 @@
       <c r="J24" s="104"/>
       <c r="K24" s="104"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="183">
         <v>33</v>
       </c>
@@ -26938,7 +27092,7 @@
       <c r="J25" s="104"/>
       <c r="K25" s="104"/>
     </row>
-    <row r="26" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="32">
       <c r="B26" s="14">
         <v>35</v>
       </c>
@@ -26958,7 +27112,7 @@
       <c r="J26" s="104"/>
       <c r="K26" s="104"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="14">
         <v>36</v>
       </c>
@@ -26974,7 +27128,7 @@
       <c r="J27" s="104"/>
       <c r="K27" s="104"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="14">
         <v>37</v>
       </c>
@@ -26990,7 +27144,7 @@
       <c r="J28" s="104"/>
       <c r="K28" s="104"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="14">
         <v>38</v>
       </c>
@@ -27006,7 +27160,7 @@
       <c r="J29" s="104"/>
       <c r="K29" s="104"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="14">
         <v>40</v>
       </c>
@@ -27022,7 +27176,7 @@
       <c r="J30" s="104"/>
       <c r="K30" s="104"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="14">
         <v>42</v>
       </c>
@@ -27038,7 +27192,7 @@
       <c r="J31" s="104"/>
       <c r="K31" s="104"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32" s="14">
         <v>44</v>
       </c>
@@ -27054,7 +27208,7 @@
       <c r="J32" s="104"/>
       <c r="K32" s="104"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33" s="14">
         <v>46</v>
       </c>
@@ -27070,7 +27224,7 @@
       <c r="J33" s="104"/>
       <c r="K33" s="104"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11">
       <c r="B34" s="14">
         <v>47</v>
       </c>
@@ -27102,7 +27256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11">
       <c r="B35" s="14">
         <v>48</v>
       </c>
@@ -27118,7 +27272,7 @@
       <c r="J35" s="104"/>
       <c r="K35" s="104"/>
     </row>
-    <row r="36" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="28">
       <c r="B36" s="14">
         <v>49</v>
       </c>
@@ -27134,7 +27288,7 @@
       <c r="J36" s="104"/>
       <c r="K36" s="104"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11">
       <c r="B37" s="14">
         <v>50</v>
       </c>
@@ -27150,7 +27304,7 @@
       <c r="J37" s="104"/>
       <c r="K37" s="104"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11">
       <c r="B38" s="14">
         <v>51</v>
       </c>
@@ -27166,7 +27320,7 @@
       <c r="J38" s="104"/>
       <c r="K38" s="104"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11">
       <c r="B39" s="14">
         <v>52</v>
       </c>
@@ -27182,7 +27336,7 @@
       <c r="J39" s="104"/>
       <c r="K39" s="104"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" s="14">
         <v>53</v>
       </c>
@@ -27198,7 +27352,7 @@
       <c r="J40" s="104"/>
       <c r="K40" s="104"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11">
       <c r="B41" s="14">
         <v>57</v>
       </c>
@@ -27214,7 +27368,7 @@
       <c r="J41" s="104"/>
       <c r="K41" s="104"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42" s="14">
         <v>58</v>
       </c>
@@ -27230,7 +27384,7 @@
       <c r="J42" s="104"/>
       <c r="K42" s="104"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43" s="14">
         <v>62</v>
       </c>
@@ -27246,7 +27400,7 @@
       <c r="J43" s="104"/>
       <c r="K43" s="104"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11">
       <c r="B44" s="14">
         <v>63</v>
       </c>
@@ -27262,7 +27416,7 @@
       <c r="J44" s="104"/>
       <c r="K44" s="104"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45" s="14">
         <v>64</v>
       </c>

--- a/5.GestionDotaciones/DAPRE/ConsolidadoDotacionDAPRE_2019.xlsx
+++ b/5.GestionDotaciones/DAPRE/ConsolidadoDotacionDAPRE_2019.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmadrid/Documents/GitHub/Dotaciones2019/5.GestionDotaciones/DAPRE/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB0338-E5BB-6E49-BA41-4F528391C57D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12320" yWindow="60" windowWidth="13260" windowHeight="14080" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="ReporteInfraDAPRE" sheetId="10" r:id="rId1"/>
@@ -37,8 +31,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Lista Nº1'!$A:$C,'Lista Nº1'!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Lista Nº2'!$A:$C,'Lista Nº2'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -52,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Marce Romero</author>
   </authors>
   <commentList>
-    <comment ref="S46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="S46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,12 +84,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jimmy James</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="745">
   <si>
     <t>APARTADÓ</t>
   </si>
@@ -2881,15 +2878,18 @@
   <si>
     <t>TERMINADO</t>
   </si>
+  <si>
+    <t>Parcial en Sede Nacional y pendiente gestionar recursos para completar la dotación. Llamar a regional para verificar estado del proceso.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3475,14 +3475,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4125,6 +4125,27 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4146,27 +4167,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4194,12 +4194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="CARLOS EDUARDO MADRID GOMEZ" id="{1136EA5F-359F-7D48-82D5-9C3A07011678}" userId="CARLOS EDUARDO MADRID GOMEZ" providerId="None"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4245,7 +4239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4280,7 +4274,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4457,24 +4451,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="81" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="84" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" style="87" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -4519,7 +4513,7 @@
       <c r="J1" s="207" t="s">
         <v>712</v>
       </c>
-      <c r="K1" s="235" t="s">
+      <c r="K1" s="227" t="s">
         <v>739</v>
       </c>
       <c r="L1" s="217" t="s">
@@ -4563,7 +4557,7 @@
       <c r="J2" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K2" s="231" t="s">
+      <c r="K2" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L2" s="209" t="s">
@@ -4607,7 +4601,7 @@
       <c r="J3" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K3" s="231" t="s">
+      <c r="K3" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L3" s="209" t="s">
@@ -4649,7 +4643,7 @@
       <c r="J4" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K4" s="232" t="s">
+      <c r="K4" s="224" t="s">
         <v>741</v>
       </c>
       <c r="L4" s="209" t="s">
@@ -4691,7 +4685,7 @@
       <c r="J5" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K5" s="231" t="s">
+      <c r="K5" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L5" s="209" t="s">
@@ -4733,7 +4727,7 @@
       <c r="J6" s="209" t="s">
         <v>487</v>
       </c>
-      <c r="K6" s="233" t="s">
+      <c r="K6" s="225" t="s">
         <v>740</v>
       </c>
       <c r="L6" s="209" t="s">
@@ -4770,7 +4764,7 @@
       <c r="I7" s="103">
         <v>300</v>
       </c>
-      <c r="J7" s="230" t="s">
+      <c r="J7" s="222" t="s">
         <v>727</v>
       </c>
       <c r="K7" s="104"/>
@@ -4781,7 +4775,7 @@
         <v>725</v>
       </c>
       <c r="N7" s="208" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="41.25" customHeight="1">
@@ -4815,7 +4809,7 @@
       <c r="J8" s="209" t="s">
         <v>727</v>
       </c>
-      <c r="K8" s="231" t="s">
+      <c r="K8" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L8" s="209" t="s">
@@ -4859,7 +4853,7 @@
       <c r="J9" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K9" s="234" t="s">
+      <c r="K9" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L9" s="209" t="s">
@@ -4901,7 +4895,7 @@
       <c r="J10" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K10" s="231" t="s">
+      <c r="K10" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L10" s="209" t="s">
@@ -4945,7 +4939,7 @@
       <c r="J11" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K11" s="234" t="s">
+      <c r="K11" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L11" s="209" t="s">
@@ -4976,7 +4970,7 @@
         <v>237</v>
       </c>
       <c r="I12" s="103"/>
-      <c r="J12" s="230"/>
+      <c r="J12" s="222"/>
       <c r="K12" s="104"/>
       <c r="L12" s="215" t="s">
         <v>715</v>
@@ -5012,10 +5006,10 @@
       <c r="I13" s="103">
         <v>50</v>
       </c>
-      <c r="J13" s="229" t="s">
+      <c r="J13" s="221" t="s">
         <v>713</v>
       </c>
-      <c r="K13" s="231" t="s">
+      <c r="K13" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L13" s="209" t="s">
@@ -5057,7 +5051,7 @@
       <c r="J14" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K14" s="231" t="s">
+      <c r="K14" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L14" s="209" t="s">
@@ -5101,7 +5095,7 @@
       <c r="J15" s="209" t="s">
         <v>720</v>
       </c>
-      <c r="K15" s="234" t="s">
+      <c r="K15" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L15" s="209" t="s">
@@ -5143,7 +5137,7 @@
       <c r="J16" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K16" s="234" t="s">
+      <c r="K16" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L16" s="209" t="s">
@@ -5187,7 +5181,7 @@
       <c r="J17" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K17" s="234" t="s">
+      <c r="K17" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L17" s="209" t="s">
@@ -5231,7 +5225,7 @@
       <c r="J18" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K18" s="231" t="s">
+      <c r="K18" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L18" s="209" t="s">
@@ -5275,7 +5269,7 @@
       <c r="J19" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K19" s="231" t="s">
+      <c r="K19" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L19" s="209" t="s">
@@ -5311,7 +5305,7 @@
       </c>
       <c r="I20" s="103"/>
       <c r="J20" s="209"/>
-      <c r="K20" s="231" t="s">
+      <c r="K20" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L20" s="209" t="s">
@@ -5351,7 +5345,7 @@
       <c r="J21" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K21" s="231" t="s">
+      <c r="K21" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L21" s="209" t="s">
@@ -5393,7 +5387,7 @@
       <c r="J22" s="209" t="s">
         <v>713</v>
       </c>
-      <c r="K22" s="231" t="s">
+      <c r="K22" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L22" s="209" t="s">
@@ -5435,7 +5429,7 @@
       <c r="J23" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K23" s="234" t="s">
+      <c r="K23" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L23" s="209" t="s">
@@ -5477,7 +5471,7 @@
       <c r="J24" s="209" t="s">
         <v>487</v>
       </c>
-      <c r="K24" s="233" t="s">
+      <c r="K24" s="225" t="s">
         <v>740</v>
       </c>
       <c r="L24" s="209" t="s">
@@ -5517,7 +5511,7 @@
         <v>105</v>
       </c>
       <c r="J25" s="209"/>
-      <c r="K25" s="231" t="s">
+      <c r="K25" s="223" t="s">
         <v>742</v>
       </c>
       <c r="L25" s="209" t="s">
@@ -5553,7 +5547,7 @@
       <c r="J26" s="209" t="s">
         <v>487</v>
       </c>
-      <c r="K26" s="233" t="s">
+      <c r="K26" s="225" t="s">
         <v>740</v>
       </c>
       <c r="L26" s="209" t="s">
@@ -5595,7 +5589,7 @@
       <c r="J27" s="209" t="s">
         <v>721</v>
       </c>
-      <c r="K27" s="234" t="s">
+      <c r="K27" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L27" s="209" t="s">
@@ -5637,7 +5631,7 @@
         <v>95</v>
       </c>
       <c r="J28" s="209"/>
-      <c r="K28" s="234" t="s">
+      <c r="K28" s="226" t="s">
         <v>743</v>
       </c>
       <c r="L28" s="209" t="s">
@@ -5705,19 +5699,23 @@
     <row r="45" ht="15" customHeight="1"/>
     <row r="46" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:O30" xr:uid="{2900E8D1-2F1B-4191-BBA6-7050B66C211A}"/>
+  <autoFilter ref="A1:O30"/>
   <sortState ref="B2:I29">
     <sortCondition ref="B1"/>
   </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="47" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28797F4E-A74A-4338-88F7-122F7E7673C1}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A2:B66"/>
@@ -5726,7 +5724,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
@@ -6254,21 +6252,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="80" customWidth="1"/>
@@ -6515,7 +6518,7 @@
       <c r="L6" s="20">
         <v>8</v>
       </c>
-      <c r="N6" s="222" t="s">
+      <c r="N6" s="229" t="s">
         <v>94</v>
       </c>
       <c r="O6" t="s">
@@ -6557,7 +6560,7 @@
       <c r="L7" s="8">
         <v>8</v>
       </c>
-      <c r="N7" s="222"/>
+      <c r="N7" s="229"/>
       <c r="O7" t="s">
         <v>331</v>
       </c>
@@ -6597,7 +6600,7 @@
       <c r="L8" s="21">
         <v>8</v>
       </c>
-      <c r="N8" s="222"/>
+      <c r="N8" s="229"/>
       <c r="O8" t="s">
         <v>332</v>
       </c>
@@ -7005,8 +7008,8 @@
       <c r="L19" s="8">
         <v>15</v>
       </c>
-      <c r="M19" s="223"/>
-      <c r="N19" s="221"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="228"/>
       <c r="O19" s="110"/>
       <c r="P19" s="109"/>
     </row>
@@ -7045,8 +7048,8 @@
       <c r="L20" s="32">
         <v>41</v>
       </c>
-      <c r="M20" s="223"/>
-      <c r="N20" s="221"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="228"/>
       <c r="O20" s="110"/>
       <c r="P20" s="109"/>
     </row>
@@ -7327,12 +7330,12 @@
       <c r="L27" s="38">
         <v>74</v>
       </c>
-      <c r="M27" s="221"/>
+      <c r="M27" s="228"/>
       <c r="N27" s="112"/>
       <c r="O27" s="109"/>
       <c r="P27" s="109"/>
     </row>
-    <row r="28" spans="1:16" ht="16">
+    <row r="28" spans="1:16">
       <c r="C28" s="50" t="s">
         <v>175</v>
       </c>
@@ -7372,7 +7375,7 @@
         <f t="shared" ref="L28" si="3">SUM(L2:L27)</f>
         <v>1138</v>
       </c>
-      <c r="M28" s="221"/>
+      <c r="M28" s="228"/>
       <c r="N28" s="112"/>
       <c r="O28" s="109"/>
       <c r="P28" s="109"/>
@@ -7384,13 +7387,13 @@
       <c r="P29" s="109"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="M30" s="221"/>
+      <c r="M30" s="228"/>
       <c r="N30" s="112"/>
       <c r="O30" s="109"/>
       <c r="P30" s="109"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="M31" s="221"/>
+      <c r="M31" s="228"/>
       <c r="N31" s="112"/>
       <c r="O31" s="109"/>
       <c r="P31" s="109"/>
@@ -7601,7 +7604,7 @@
       <c r="O41" s="109"/>
       <c r="P41" s="109"/>
     </row>
-    <row r="42" spans="1:16" ht="48">
+    <row r="42" spans="1:16" ht="42">
       <c r="A42" s="202">
         <v>8</v>
       </c>
@@ -7634,7 +7637,7 @@
       <c r="O42" s="109"/>
       <c r="P42" s="109"/>
     </row>
-    <row r="43" spans="1:16" ht="32">
+    <row r="43" spans="1:16" ht="28">
       <c r="A43" s="202">
         <v>9</v>
       </c>
@@ -7667,7 +7670,7 @@
       <c r="O43" s="109"/>
       <c r="P43" s="109"/>
     </row>
-    <row r="44" spans="1:16" ht="32">
+    <row r="44" spans="1:16" ht="28">
       <c r="A44" s="202">
         <v>10</v>
       </c>
@@ -7698,7 +7701,7 @@
       <c r="O44" s="109"/>
       <c r="P44" s="109"/>
     </row>
-    <row r="45" spans="1:16" ht="16">
+    <row r="45" spans="1:16">
       <c r="A45" s="202">
         <v>11</v>
       </c>
@@ -7727,7 +7730,7 @@
       <c r="O45" s="109"/>
       <c r="P45" s="109"/>
     </row>
-    <row r="46" spans="1:16" ht="32">
+    <row r="46" spans="1:16" ht="28">
       <c r="A46" s="202">
         <v>12</v>
       </c>
@@ -7756,7 +7759,7 @@
       <c r="O46" s="109"/>
       <c r="P46" s="109"/>
     </row>
-    <row r="47" spans="1:16" ht="32">
+    <row r="47" spans="1:16" ht="28">
       <c r="A47" s="202">
         <v>13</v>
       </c>
@@ -7785,7 +7788,7 @@
       <c r="O47" s="110"/>
       <c r="P47" s="109"/>
     </row>
-    <row r="48" spans="1:16" ht="16">
+    <row r="48" spans="1:16">
       <c r="A48" s="202">
         <v>14</v>
       </c>
@@ -7814,7 +7817,7 @@
       <c r="O48" s="109"/>
       <c r="P48" s="109"/>
     </row>
-    <row r="49" spans="1:11" ht="48">
+    <row r="49" spans="1:11" ht="42">
       <c r="A49" s="202">
         <v>15</v>
       </c>
@@ -7839,7 +7842,7 @@
       </c>
       <c r="K49" s="193"/>
     </row>
-    <row r="50" spans="1:11" ht="32">
+    <row r="50" spans="1:11" ht="28">
       <c r="A50" s="202">
         <v>16</v>
       </c>
@@ -7864,7 +7867,7 @@
       </c>
       <c r="K50" s="193"/>
     </row>
-    <row r="51" spans="1:11" ht="16">
+    <row r="51" spans="1:11">
       <c r="A51" s="202">
         <v>17</v>
       </c>
@@ -7889,7 +7892,7 @@
       </c>
       <c r="K51" s="193"/>
     </row>
-    <row r="52" spans="1:11" ht="32">
+    <row r="52" spans="1:11" ht="28">
       <c r="A52" s="202">
         <v>18</v>
       </c>
@@ -7914,7 +7917,7 @@
       </c>
       <c r="K52" s="193"/>
     </row>
-    <row r="53" spans="1:11" ht="16">
+    <row r="53" spans="1:11">
       <c r="A53" s="202">
         <v>19</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>282091268</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16">
+    <row r="54" spans="1:11">
       <c r="A54" s="202">
         <v>20</v>
       </c>
@@ -7953,7 +7956,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:11" ht="16">
+    <row r="55" spans="1:11">
       <c r="A55" s="202">
         <v>21</v>
       </c>
@@ -7968,7 +7971,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:11" ht="16">
+    <row r="56" spans="1:11">
       <c r="A56" s="202">
         <v>22</v>
       </c>
@@ -7983,7 +7986,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:11" ht="16">
+    <row r="57" spans="1:11">
       <c r="A57" s="202">
         <v>23</v>
       </c>
@@ -7998,7 +8001,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16">
+    <row r="58" spans="1:11">
       <c r="A58" s="202">
         <v>24</v>
       </c>
@@ -8013,7 +8016,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:11" ht="16">
+    <row r="59" spans="1:11">
       <c r="A59" s="202">
         <v>25</v>
       </c>
@@ -8028,7 +8031,7 @@
       </c>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="1:11" ht="16">
+    <row r="60" spans="1:11">
       <c r="A60" s="202">
         <v>26</v>
       </c>
@@ -8047,8 +8050,8 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="16" thickBot="1"/>
-    <row r="67" spans="3:7" ht="61" thickBot="1">
+    <row r="66" spans="3:7" ht="15" thickBot="1"/>
+    <row r="67" spans="3:7" ht="55" thickBot="1">
       <c r="C67" s="186" t="s">
         <v>603</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="21" thickBot="1">
+    <row r="68" spans="3:7" ht="19" thickBot="1">
       <c r="C68" s="187">
         <v>1</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="21" thickBot="1">
+    <row r="69" spans="3:7" ht="19" thickBot="1">
       <c r="C69" s="187">
         <v>2</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="21" thickBot="1">
+    <row r="70" spans="3:7" ht="19" thickBot="1">
       <c r="C70" s="187">
         <v>3</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="21" thickBot="1">
+    <row r="71" spans="3:7" ht="19" thickBot="1">
       <c r="C71" s="187">
         <v>4</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="3:7" ht="21" thickBot="1">
+    <row r="72" spans="3:7" ht="19" thickBot="1">
       <c r="C72" s="187">
         <v>5</v>
       </c>
@@ -8150,7 +8153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="21" thickBot="1">
+    <row r="73" spans="3:7" ht="19" thickBot="1">
       <c r="C73" s="187">
         <v>6</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="21" thickBot="1">
+    <row r="74" spans="3:7" ht="19" thickBot="1">
       <c r="C74" s="187">
         <v>7</v>
       </c>
@@ -8184,7 +8187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="21" thickBot="1">
+    <row r="75" spans="3:7" ht="19" thickBot="1">
       <c r="C75" s="187">
         <v>8</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="21" thickBot="1">
+    <row r="76" spans="3:7" ht="19" thickBot="1">
       <c r="C76" s="187">
         <v>9</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="3:7" ht="21" thickBot="1">
+    <row r="77" spans="3:7" ht="19" thickBot="1">
       <c r="C77" s="187">
         <v>10</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="3:7" ht="21" thickBot="1">
+    <row r="78" spans="3:7" ht="19" thickBot="1">
       <c r="C78" s="187">
         <v>11</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="3:7" ht="21" thickBot="1">
+    <row r="79" spans="3:7" ht="19" thickBot="1">
       <c r="C79" s="187">
         <v>12</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="3:7" ht="21" thickBot="1">
+    <row r="80" spans="3:7" ht="19" thickBot="1">
       <c r="C80" s="187">
         <v>13</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="3:7" ht="41" thickBot="1">
+    <row r="81" spans="3:7" ht="37" thickBot="1">
       <c r="C81" s="187">
         <v>14</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="3:7" ht="21" thickBot="1">
+    <row r="82" spans="3:7" ht="19" thickBot="1">
       <c r="C82" s="187">
         <v>15</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="3:7" ht="21" thickBot="1">
+    <row r="83" spans="3:7" ht="19" thickBot="1">
       <c r="C83" s="187">
         <v>16</v>
       </c>
@@ -8337,7 +8340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="3:7" ht="21" thickBot="1">
+    <row r="84" spans="3:7" ht="19" thickBot="1">
       <c r="C84" s="187">
         <v>17</v>
       </c>
@@ -8354,7 +8357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="3:7" ht="21" thickBot="1">
+    <row r="85" spans="3:7" ht="19" thickBot="1">
       <c r="C85" s="187">
         <v>18</v>
       </c>
@@ -8371,7 +8374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="3:7" ht="21" thickBot="1">
+    <row r="86" spans="3:7" ht="19" thickBot="1">
       <c r="C86" s="187">
         <v>19</v>
       </c>
@@ -8388,7 +8391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="3:7" ht="24" thickBot="1">
+    <row r="87" spans="3:7" ht="22" thickBot="1">
       <c r="C87" s="190"/>
       <c r="D87" s="190"/>
       <c r="E87" s="191" t="s">
@@ -8403,7 +8406,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:L28" xr:uid="{EFDD5532-C160-46B0-8713-FE6714EA1A36}"/>
+  <autoFilter ref="C1:L28"/>
   <sortState ref="C45:D56">
     <sortCondition ref="C45"/>
   </sortState>
@@ -8415,22 +8418,26 @@
     <mergeCell ref="M27:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="95" workbookViewId="0">
+    <sheetView topLeftCell="I2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="95" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" hidden="1" customWidth="1"/>
@@ -9021,7 +9028,7 @@
       </c>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" ht="42">
+    <row r="13" spans="1:21" ht="24">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -10183,7 +10190,7 @@
       </c>
       <c r="U36"/>
     </row>
-    <row r="37" spans="1:21" ht="28">
+    <row r="37" spans="1:21" ht="24">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -10715,7 +10722,7 @@
       </c>
       <c r="U46"/>
     </row>
-    <row r="47" spans="1:21" ht="28">
+    <row r="47" spans="1:21" ht="24">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -10831,7 +10838,7 @@
       </c>
       <c r="U48"/>
     </row>
-    <row r="49" spans="1:21" ht="28">
+    <row r="49" spans="1:21" ht="24">
       <c r="A49" s="14">
         <v>47</v>
       </c>
@@ -10889,7 +10896,7 @@
       </c>
       <c r="U49"/>
     </row>
-    <row r="50" spans="1:21" ht="28">
+    <row r="50" spans="1:21" ht="24">
       <c r="A50" s="14">
         <v>48</v>
       </c>
@@ -10947,7 +10954,7 @@
       </c>
       <c r="U50"/>
     </row>
-    <row r="51" spans="1:21" ht="28">
+    <row r="51" spans="1:21" ht="24">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -11063,7 +11070,7 @@
       </c>
       <c r="U52"/>
     </row>
-    <row r="53" spans="1:21" ht="28">
+    <row r="53" spans="1:21" ht="24">
       <c r="A53" s="14">
         <v>51</v>
       </c>
@@ -11981,10 +11988,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:U72" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A2:U72"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="22" max="27" man="1"/>
     <brk id="42" max="27" man="1"/>
@@ -11998,21 +12004,26 @@
     <brk id="18" max="66" man="1"/>
     <brk id="21" max="66" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="91" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" hidden="1" customWidth="1"/>
@@ -12030,7 +12041,7 @@
     <col min="16" max="16" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="42">
+    <row r="1" spans="1:17" ht="36">
       <c r="A1" s="139" t="s">
         <v>81</v>
       </c>
@@ -12323,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28">
+    <row r="7" spans="1:17" ht="24">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -12476,7 +12487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28">
+    <row r="10" spans="1:17" ht="24">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -12578,7 +12589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28">
+    <row r="12" spans="1:17" ht="24">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -12683,7 +12694,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="28">
+    <row r="14" spans="1:17" ht="24">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -13228,7 +13239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="28">
+    <row r="25" spans="1:16" ht="24">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -13279,7 +13290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="28">
+    <row r="26" spans="1:16" ht="24">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -13483,7 +13494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="28">
+    <row r="30" spans="1:16" ht="24">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -14087,7 +14098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16">
+    <row r="42" spans="1:16">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -14189,7 +14200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="28">
+    <row r="44" spans="1:16" ht="24">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -14291,7 +14302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="28">
+    <row r="46" spans="1:16" ht="24">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -14444,7 +14455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="56">
+    <row r="49" spans="1:16" ht="36">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -14495,7 +14506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="28">
+    <row r="50" spans="1:16" ht="24">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -14801,7 +14812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="28">
+    <row r="56" spans="1:16" ht="24">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -14903,7 +14914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="28">
+    <row r="58" spans="1:16" ht="24">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -15209,7 +15220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="28">
+    <row r="64" spans="1:16" ht="24">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -15357,7 +15368,6 @@
   <sheetProtection pivotTables="0"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="21" max="21" man="1"/>
     <brk id="41" max="21" man="1"/>
@@ -15370,21 +15380,26 @@
     <brk id="13" max="64" man="1"/>
     <brk id="16" max="65" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" style="25" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="25" hidden="1" customWidth="1"/>
@@ -19474,23 +19489,27 @@
     <row r="72" spans="1:20" ht="22.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" style="25" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" style="25" hidden="1" customWidth="1"/>
@@ -22271,11 +22290,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A66" s="224" t="s">
+      <c r="A66" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="224"/>
-      <c r="C66" s="224"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
       <c r="D66" s="29">
         <f>SUM(D2:D65)</f>
         <v>359</v>
@@ -22312,13 +22331,17 @@
     <mergeCell ref="A66:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:L23"/>
@@ -22327,7 +22350,7 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.5" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" style="83" bestFit="1" customWidth="1"/>
@@ -22340,10 +22363,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="226"/>
+      <c r="C1" s="233"/>
       <c r="D1" s="85" t="s">
         <v>211</v>
       </c>
@@ -22376,10 +22399,10 @@
       <c r="A2" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="227"/>
+      <c r="C2" s="234"/>
       <c r="D2" s="82">
         <v>4</v>
       </c>
@@ -22402,10 +22425,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1">
-      <c r="A3" s="228" t="s">
+      <c r="A3" s="235" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="234" t="s">
         <v>206</v>
       </c>
       <c r="C3" s="84" t="s">
@@ -22441,8 +22464,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="27" customHeight="1">
-      <c r="A4" s="228"/>
-      <c r="B4" s="227"/>
+      <c r="A4" s="235"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="84" t="s">
         <v>208</v>
       </c>
@@ -22476,11 +22499,11 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1">
-      <c r="A5" s="228"/>
-      <c r="B5" s="227" t="s">
+      <c r="A5" s="235"/>
+      <c r="B5" s="234" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="227"/>
+      <c r="C5" s="234"/>
       <c r="D5" s="82">
         <v>7</v>
       </c>
@@ -22505,11 +22528,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1">
-      <c r="A6" s="228"/>
-      <c r="B6" s="227" t="s">
+      <c r="A6" s="235"/>
+      <c r="B6" s="234" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="227"/>
+      <c r="C6" s="234"/>
       <c r="D6" s="82">
         <v>6</v>
       </c>
@@ -22532,7 +22555,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="27" customHeight="1">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="232" t="s">
         <v>298</v>
       </c>
       <c r="B7" s="88" t="s">
@@ -22561,7 +22584,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="27" customHeight="1">
-      <c r="A8" s="225"/>
+      <c r="A8" s="232"/>
       <c r="B8" s="88" t="s">
         <v>295</v>
       </c>
@@ -22588,7 +22611,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="27" customHeight="1">
-      <c r="A9" s="225"/>
+      <c r="A9" s="232"/>
       <c r="B9" s="88" t="s">
         <v>297</v>
       </c>
@@ -22615,7 +22638,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1">
-      <c r="A10" s="225"/>
+      <c r="A10" s="232"/>
       <c r="B10" s="88" t="s">
         <v>294</v>
       </c>
@@ -22694,36 +22717,36 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12" ht="14">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:12" ht="17">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="89" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15">
+    <row r="17" spans="1:1" ht="14">
       <c r="A17"/>
     </row>
-    <row r="19" spans="1:1" ht="17">
+    <row r="19" spans="1:1" ht="15">
       <c r="A19" s="89" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15">
+    <row r="20" spans="1:1" ht="14">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" ht="17">
+    <row r="21" spans="1:1" ht="15">
       <c r="A21" s="91" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17">
+    <row r="22" spans="1:1" ht="15">
       <c r="A22" s="89" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17">
+    <row r="23" spans="1:1" ht="15">
       <c r="A23" s="89"/>
     </row>
   </sheetData>
@@ -22737,20 +22760,24 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E28AB6-4638-429D-B9A7-8E0FA3B3C8F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AR50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
@@ -22770,7 +22797,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="42">
+    <row r="4" spans="1:44" ht="36">
       <c r="A4" s="182" t="s">
         <v>81</v>
       </c>
@@ -23044,7 +23071,7 @@
       <c r="AQ6" s="104"/>
       <c r="AR6" s="104"/>
     </row>
-    <row r="7" spans="1:44" ht="96">
+    <row r="7" spans="1:44" ht="84">
       <c r="A7" s="14">
         <v>11</v>
       </c>
@@ -23174,7 +23201,7 @@
       <c r="AQ7" s="104"/>
       <c r="AR7" s="104"/>
     </row>
-    <row r="8" spans="1:44" ht="32">
+    <row r="8" spans="1:44" ht="28">
       <c r="A8" s="14">
         <v>13</v>
       </c>
@@ -23334,7 +23361,7 @@
       <c r="AQ9" s="104"/>
       <c r="AR9" s="104"/>
     </row>
-    <row r="10" spans="1:44" ht="32">
+    <row r="10" spans="1:44" ht="28">
       <c r="A10" s="14">
         <v>16</v>
       </c>
@@ -24476,7 +24503,7 @@
       <c r="AQ24" s="104"/>
       <c r="AR24" s="104"/>
     </row>
-    <row r="25" spans="1:44" ht="64">
+    <row r="25" spans="1:44" ht="56">
       <c r="A25" s="14">
         <v>35</v>
       </c>
@@ -24616,7 +24643,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="32">
+    <row r="27" spans="1:44" ht="28">
       <c r="A27" s="14">
         <v>37</v>
       </c>
@@ -24904,7 +24931,7 @@
       <c r="AQ30" s="104"/>
       <c r="AR30" s="104"/>
     </row>
-    <row r="31" spans="1:44" ht="64">
+    <row r="31" spans="1:44" ht="56">
       <c r="A31" s="14">
         <v>41</v>
       </c>
@@ -25200,7 +25227,7 @@
       <c r="AQ34" s="104"/>
       <c r="AR34" s="104"/>
     </row>
-    <row r="35" spans="1:44" ht="32">
+    <row r="35" spans="1:44" ht="28">
       <c r="A35" s="14">
         <v>47</v>
       </c>
@@ -25330,7 +25357,7 @@
       <c r="AQ35" s="104"/>
       <c r="AR35" s="104"/>
     </row>
-    <row r="36" spans="1:44" ht="80">
+    <row r="36" spans="1:44" ht="70">
       <c r="A36" s="14">
         <v>48</v>
       </c>
@@ -25432,7 +25459,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="28">
+    <row r="37" spans="1:44" ht="24">
       <c r="A37" s="14">
         <v>49</v>
       </c>
@@ -25762,7 +25789,7 @@
       <c r="AQ41" s="104"/>
       <c r="AR41" s="104"/>
     </row>
-    <row r="42" spans="1:44" ht="80">
+    <row r="42" spans="1:44" ht="70">
       <c r="A42" s="14">
         <v>54</v>
       </c>
@@ -25976,7 +26003,7 @@
       <c r="AQ44" s="104"/>
       <c r="AR44" s="104"/>
     </row>
-    <row r="45" spans="1:44" ht="32">
+    <row r="45" spans="1:44" ht="28">
       <c r="A45" s="14">
         <v>59</v>
       </c>
@@ -26086,7 +26113,7 @@
       <c r="AQ45" s="104"/>
       <c r="AR45" s="104"/>
     </row>
-    <row r="46" spans="1:44" ht="32">
+    <row r="46" spans="1:44" ht="28">
       <c r="A46" s="14">
         <v>60</v>
       </c>
@@ -26192,7 +26219,7 @@
       <c r="AQ46" s="104"/>
       <c r="AR46" s="104"/>
     </row>
-    <row r="47" spans="1:44" ht="32">
+    <row r="47" spans="1:44" ht="28">
       <c r="A47" s="14">
         <v>61</v>
       </c>
@@ -26396,7 +26423,7 @@
       <c r="AQ48" s="104"/>
       <c r="AR48" s="104"/>
     </row>
-    <row r="49" spans="1:44" ht="32">
+    <row r="49" spans="1:44" ht="28">
       <c r="A49" s="14">
         <v>63</v>
       </c>
@@ -26502,7 +26529,7 @@
       <c r="AQ49" s="104"/>
       <c r="AR49" s="104"/>
     </row>
-    <row r="50" spans="1:44" ht="32">
+    <row r="50" spans="1:44" ht="28">
       <c r="A50" s="14">
         <v>64</v>
       </c>
@@ -26630,18 +26657,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A33992-4FBE-4671-8781-97A8AF109D5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
@@ -26652,7 +26684,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="42">
+    <row r="4" spans="2:11" ht="36">
       <c r="B4" s="182" t="s">
         <v>81</v>
       </c>
@@ -26800,7 +26832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="64">
+    <row r="9" spans="2:11" ht="56">
       <c r="B9" s="14">
         <v>11</v>
       </c>
@@ -27092,7 +27124,7 @@
       <c r="J25" s="104"/>
       <c r="K25" s="104"/>
     </row>
-    <row r="26" spans="2:11" ht="32">
+    <row r="26" spans="2:11" ht="28">
       <c r="B26" s="14">
         <v>35</v>
       </c>
@@ -27272,7 +27304,7 @@
       <c r="J35" s="104"/>
       <c r="K35" s="104"/>
     </row>
-    <row r="36" spans="2:11" ht="28">
+    <row r="36" spans="2:11" ht="24">
       <c r="B36" s="14">
         <v>49</v>
       </c>
@@ -27438,5 +27470,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>